--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="677" documentId="13_ncr:1_{887A6EA8-77E4-417A-B298-F39DD14EC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7821DFD6-E4DA-4AAA-B415-377999E3E7F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968CD3E8-0FA1-4586-BDF8-AFAB8F6E5725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-168" yWindow="3216" windowWidth="23208" windowHeight="9396" firstSheet="1" activeTab="7" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
+    <workbookView xWindow="-492" yWindow="1944" windowWidth="21216" windowHeight="9648" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="186">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -603,10 +603,6 @@
     <t>workOut_re</t>
   </si>
   <si>
-    <t>calender</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カレンダーを作成、管理する</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -621,14 +617,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>calender_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>calender_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勤怠状況</t>
     <rPh sb="0" eb="4">
       <t>キンタイジョウキョウ</t>
@@ -1047,6 +1035,14 @@
   </si>
   <si>
     <t>氏名</t>
+  </si>
+  <si>
+    <t>calendar_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>calendar_date</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1816,16 +1812,178 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,6 +1995,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1882,177 +2064,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2089,27 +2100,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2128,23 +2120,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2164,10 +2160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2489,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32B3E11-17FA-46EE-A4A9-59AC9C9D3161}">
   <dimension ref="A1:AX22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2504,14 +2496,14 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2527,38 +2519,38 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="111" t="s">
+      <c r="T2" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="114" t="s">
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="111" t="s">
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="117">
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="179">
         <v>45447</v>
       </c>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="118"/>
-      <c r="AP2" s="118"/>
-      <c r="AQ2" s="119"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="181"/>
       <c r="AT2" s="95"/>
       <c r="AU2" s="95"/>
       <c r="AV2" t="s">
@@ -2566,14 +2558,14 @@
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
@@ -2589,34 +2581,34 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="111" t="s">
+      <c r="T3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="111" t="s">
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121"/>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="121"/>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="121"/>
-      <c r="AQ3" s="122"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="184"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
@@ -2666,1078 +2658,1164 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="105" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="105" t="s">
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="105" t="s">
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="105" t="s">
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="106"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="105" t="s">
+      <c r="W5" s="160"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="105" t="s">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="160"/>
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="105" t="s">
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="160"/>
+      <c r="AN5" s="161"/>
+      <c r="AO5" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="107"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="161"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="143" t="s">
-        <v>178</v>
-      </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="160" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="160" t="s">
+      <c r="Q6" s="110"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="161"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="160">
+      <c r="T6" s="110"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="109">
         <v>100</v>
       </c>
-      <c r="W6" s="161"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="144"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="144"/>
-      <c r="AF6" s="144"/>
-      <c r="AG6" s="144"/>
-      <c r="AH6" s="144"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="160" t="s">
+      <c r="W6" s="110"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="161"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="161"/>
-      <c r="AN6" s="162"/>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="178"/>
-      <c r="AQ6" s="178"/>
-      <c r="AR6" s="178"/>
-      <c r="AS6" s="178"/>
-      <c r="AT6" s="178"/>
-      <c r="AU6" s="178"/>
-      <c r="AV6" s="178"/>
-      <c r="AW6" s="178"/>
-      <c r="AX6" s="179"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="108"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="143" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="160" t="s">
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="160" t="s">
+      <c r="Q7" s="110"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="161"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="160">
+      <c r="T7" s="110"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="109">
         <v>10000</v>
       </c>
-      <c r="W7" s="161"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="144"/>
-      <c r="AF7" s="144"/>
-      <c r="AG7" s="144"/>
-      <c r="AH7" s="144"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="160" t="s">
+      <c r="W7" s="110"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="161"/>
-      <c r="AL7" s="161"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="162"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="178"/>
-      <c r="AQ7" s="178"/>
-      <c r="AR7" s="178"/>
-      <c r="AS7" s="178"/>
-      <c r="AT7" s="178"/>
-      <c r="AU7" s="178"/>
-      <c r="AV7" s="178"/>
-      <c r="AW7" s="178"/>
-      <c r="AX7" s="179"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="108"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="143" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="160" t="s">
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="160" t="s">
+      <c r="Q8" s="110"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="161"/>
-      <c r="U8" s="162"/>
-      <c r="V8" s="160">
+      <c r="T8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="109">
         <v>500</v>
       </c>
-      <c r="W8" s="161"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="144"/>
-      <c r="AH8" s="144"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="160" t="s">
+      <c r="W8" s="110"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
+      <c r="AJ8" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="161"/>
-      <c r="AL8" s="161"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="162"/>
-      <c r="AO8" s="177"/>
-      <c r="AP8" s="178"/>
-      <c r="AQ8" s="178"/>
-      <c r="AR8" s="178"/>
-      <c r="AS8" s="178"/>
-      <c r="AT8" s="178"/>
-      <c r="AU8" s="178"/>
-      <c r="AV8" s="178"/>
-      <c r="AW8" s="178"/>
-      <c r="AX8" s="179"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="108"/>
     </row>
     <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="140" t="s">
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="126" t="s">
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="126" t="s">
+      <c r="Q9" s="129"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="127"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="126">
+      <c r="T9" s="129"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="128">
         <v>500</v>
       </c>
-      <c r="W9" s="127"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="126" t="s">
+      <c r="W9" s="129"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="177"/>
-      <c r="AP9" s="178"/>
-      <c r="AQ9" s="178"/>
-      <c r="AR9" s="178"/>
-      <c r="AS9" s="178"/>
-      <c r="AT9" s="178"/>
-      <c r="AU9" s="178"/>
-      <c r="AV9" s="178"/>
-      <c r="AW9" s="178"/>
-      <c r="AX9" s="179"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="130"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="108"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="140" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="126" t="s">
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="126" t="s">
+      <c r="Q10" s="129"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="160">
+      <c r="T10" s="129"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="109">
         <v>10000</v>
       </c>
-      <c r="W10" s="161"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="126" t="s">
+      <c r="W10" s="110"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="123"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="125"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
+      <c r="AX10" s="153"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A11" s="98">
         <v>6</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148" t="s">
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="151" t="s">
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="151" t="s">
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="152"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="154">
+      <c r="T11" s="140"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="164">
         <v>10000</v>
       </c>
-      <c r="W11" s="155"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="149"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="149"/>
-      <c r="AH11" s="149"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="151" t="s">
+      <c r="W11" s="165"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="138"/>
+      <c r="AJ11" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="152"/>
-      <c r="AN11" s="153"/>
-      <c r="AO11" s="163"/>
-      <c r="AP11" s="164"/>
-      <c r="AQ11" s="164"/>
-      <c r="AR11" s="164"/>
-      <c r="AS11" s="164"/>
-      <c r="AT11" s="164"/>
-      <c r="AU11" s="164"/>
-      <c r="AV11" s="164"/>
-      <c r="AW11" s="164"/>
-      <c r="AX11" s="165"/>
+      <c r="AK11" s="140"/>
+      <c r="AL11" s="140"/>
+      <c r="AM11" s="140"/>
+      <c r="AN11" s="141"/>
+      <c r="AO11" s="142"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
+      <c r="AX11" s="144"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A12" s="99">
         <v>7</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="134" t="s">
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="134" t="s">
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="135"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="137">
+      <c r="T12" s="146"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="156">
         <v>500</v>
       </c>
-      <c r="W12" s="138"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="132"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
-      <c r="AJ12" s="134" t="s">
+      <c r="W12" s="157"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="135"/>
-      <c r="AL12" s="135"/>
-      <c r="AM12" s="135"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="167"/>
-      <c r="AQ12" s="167"/>
-      <c r="AR12" s="167"/>
-      <c r="AS12" s="167"/>
-      <c r="AT12" s="167"/>
-      <c r="AU12" s="167"/>
-      <c r="AV12" s="167"/>
-      <c r="AW12" s="167"/>
-      <c r="AX12" s="168"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="148"/>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="149"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
+      <c r="AX12" s="150"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="101"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="101"/>
-      <c r="AR13" s="101"/>
-      <c r="AS13" s="101"/>
-      <c r="AT13" s="101"/>
-      <c r="AU13" s="101"/>
-      <c r="AV13" s="101"/>
-      <c r="AW13" s="101"/>
-      <c r="AX13" s="101"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="119"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="118"/>
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="104"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="101"/>
-      <c r="AP14" s="101"/>
-      <c r="AQ14" s="101"/>
-      <c r="AR14" s="101"/>
-      <c r="AS14" s="101"/>
-      <c r="AT14" s="101"/>
-      <c r="AU14" s="101"/>
-      <c r="AV14" s="101"/>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="101"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="121"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="119"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="118"/>
+      <c r="AU14" s="118"/>
+      <c r="AV14" s="118"/>
+      <c r="AW14" s="118"/>
+      <c r="AX14" s="118"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="104"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="101"/>
-      <c r="AP15" s="101"/>
-      <c r="AQ15" s="101"/>
-      <c r="AR15" s="101"/>
-      <c r="AS15" s="101"/>
-      <c r="AT15" s="101"/>
-      <c r="AU15" s="101"/>
-      <c r="AV15" s="101"/>
-      <c r="AW15" s="101"/>
-      <c r="AX15" s="101"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="119"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="101"/>
-      <c r="AP16" s="101"/>
-      <c r="AQ16" s="101"/>
-      <c r="AR16" s="101"/>
-      <c r="AS16" s="101"/>
-      <c r="AT16" s="101"/>
-      <c r="AU16" s="101"/>
-      <c r="AV16" s="101"/>
-      <c r="AW16" s="101"/>
-      <c r="AX16" s="101"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="119"/>
+      <c r="AL16" s="119"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="101"/>
-      <c r="AP17" s="101"/>
-      <c r="AQ17" s="101"/>
-      <c r="AR17" s="101"/>
-      <c r="AS17" s="101"/>
-      <c r="AT17" s="101"/>
-      <c r="AU17" s="101"/>
-      <c r="AV17" s="101"/>
-      <c r="AW17" s="101"/>
-      <c r="AX17" s="101"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="104"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="101"/>
-      <c r="AP18" s="101"/>
-      <c r="AQ18" s="101"/>
-      <c r="AR18" s="101"/>
-      <c r="AS18" s="101"/>
-      <c r="AT18" s="101"/>
-      <c r="AU18" s="101"/>
-      <c r="AV18" s="101"/>
-      <c r="AW18" s="101"/>
-      <c r="AX18" s="101"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="121"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="118"/>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="104"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="101"/>
-      <c r="AP19" s="101"/>
-      <c r="AQ19" s="101"/>
-      <c r="AR19" s="101"/>
-      <c r="AS19" s="101"/>
-      <c r="AT19" s="101"/>
-      <c r="AU19" s="101"/>
-      <c r="AV19" s="101"/>
-      <c r="AW19" s="101"/>
-      <c r="AX19" s="101"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="118"/>
+      <c r="AU19" s="118"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="118"/>
+      <c r="AX19" s="118"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="104"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="101"/>
-      <c r="AP20" s="101"/>
-      <c r="AQ20" s="101"/>
-      <c r="AR20" s="101"/>
-      <c r="AS20" s="101"/>
-      <c r="AT20" s="101"/>
-      <c r="AU20" s="101"/>
-      <c r="AV20" s="101"/>
-      <c r="AW20" s="101"/>
-      <c r="AX20" s="101"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="119"/>
+      <c r="AK20" s="119"/>
+      <c r="AL20" s="119"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="104"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="101"/>
-      <c r="AP21" s="101"/>
-      <c r="AQ21" s="101"/>
-      <c r="AR21" s="101"/>
-      <c r="AS21" s="101"/>
-      <c r="AT21" s="101"/>
-      <c r="AU21" s="101"/>
-      <c r="AV21" s="101"/>
-      <c r="AW21" s="101"/>
-      <c r="AX21" s="101"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="119"/>
+      <c r="AL21" s="119"/>
+      <c r="AM21" s="119"/>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="118"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="118"/>
+      <c r="AU21" s="118"/>
+      <c r="AV21" s="118"/>
+      <c r="AW21" s="118"/>
+      <c r="AX21" s="118"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="104"/>
-      <c r="AK22" s="104"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="101"/>
-      <c r="AP22" s="101"/>
-      <c r="AQ22" s="101"/>
-      <c r="AR22" s="101"/>
-      <c r="AS22" s="101"/>
-      <c r="AT22" s="101"/>
-      <c r="AU22" s="101"/>
-      <c r="AV22" s="101"/>
-      <c r="AW22" s="101"/>
-      <c r="AX22" s="101"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="119"/>
+      <c r="AM22" s="119"/>
+      <c r="AN22" s="119"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
+      <c r="AS22" s="118"/>
+      <c r="AT22" s="118"/>
+      <c r="AU22" s="118"/>
+      <c r="AV22" s="118"/>
+      <c r="AW22" s="118"/>
+      <c r="AX22" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="AO9:AX9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AO7:AX7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="Y7:AI7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Y6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AX6"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="AO8:AX8"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO20:AX20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AI21"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AX21"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="AO19:AX19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AX18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO5:AX5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO10:AX10"/>
+    <mergeCell ref="AJ10:AN10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="Y5:AI5"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="Y9:AI9"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="Y10:AI10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AX11"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AX12"/>
+    <mergeCell ref="Y15:AI15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AI14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AX14"/>
+    <mergeCell ref="AO16:AX16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AO17:AX17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AI16"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="Y19:AI19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AI17"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="Y12:AI12"/>
+    <mergeCell ref="Y11:AI11"/>
     <mergeCell ref="AO22:AX22"/>
     <mergeCell ref="AJ15:AN15"/>
     <mergeCell ref="AO15:AX15"/>
@@ -3762,114 +3840,28 @@
     <mergeCell ref="Y22:AI22"/>
     <mergeCell ref="AJ22:AN22"/>
     <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="Y19:AI19"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AI17"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="Y12:AI12"/>
-    <mergeCell ref="Y11:AI11"/>
-    <mergeCell ref="AO16:AX16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AO17:AX17"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AI16"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AX11"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AX12"/>
-    <mergeCell ref="Y15:AI15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AI14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AX14"/>
-    <mergeCell ref="AO10:AX10"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="Y5:AI5"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="Y9:AI9"/>
-    <mergeCell ref="AJ9:AN9"/>
-    <mergeCell ref="Y10:AI10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AO5:AX5"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="AO19:AX19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AX18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO20:AX20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AI21"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AX21"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="AO8:AX8"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO9:AX9"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AO7:AX7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="Y7:AI7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AX6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3923,16 +3915,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="182" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
@@ -3945,16 +3937,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
@@ -3971,14 +3963,14 @@
         <v>41</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -4025,13 +4017,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -4112,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>62</v>
@@ -4128,25 +4120,25 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="210">
+      <c r="A12" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="211" t="s">
+      <c r="B12" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="212" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="213" t="s">
+      <c r="C12" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="214" t="s">
+      <c r="E12" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="214"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="213"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="20">
@@ -4247,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>66</v>
@@ -4268,7 +4260,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>66</v>
@@ -4332,16 +4324,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
@@ -4354,16 +4346,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="189"/>
+      <c r="C3" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
@@ -4376,18 +4368,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="191" t="s">
+      <c r="B4" s="185"/>
+      <c r="C4" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -4461,7 +4453,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>51</v>
@@ -4608,8 +4600,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4639,16 +4631,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
         <v>4</v>
@@ -4659,16 +4651,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27"/>
       <c r="H3" s="28">
         <v>45447</v>
@@ -4679,18 +4671,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -4734,10 +4726,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
@@ -4764,7 +4756,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>85</v>
@@ -4782,10 +4774,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>66</v>
@@ -4806,10 +4798,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -4822,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>73</v>
@@ -4843,7 +4835,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>76</v>
@@ -4864,10 +4856,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>66</v>
@@ -4885,10 +4877,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>66</v>
@@ -4987,21 +4979,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -5009,18 +5001,18 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="186" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="191" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H3" s="28">
         <v>45447</v>
@@ -5031,18 +5023,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="188" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="193" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -5086,16 +5078,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -5116,7 +5108,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
@@ -5134,10 +5126,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>85</v>
@@ -5148,7 +5140,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -5201,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>66</v>
@@ -5223,7 +5215,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>66</v>
@@ -5269,17 +5261,17 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5336,21 +5328,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -5358,22 +5350,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="28">
         <f ca="1">NOW()</f>
-        <v>45448.68697372685</v>
+        <v>45450.565346759256</v>
       </c>
       <c r="J3" s="97"/>
       <c r="K3" t="s">
@@ -5381,18 +5373,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -5436,10 +5428,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5463,10 +5455,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>66</v>
@@ -5484,10 +5476,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>89</v>
@@ -5498,10 +5490,10 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -5510,10 +5502,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>89</v>
@@ -5524,7 +5516,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -5533,10 +5525,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>89</v>
@@ -5554,10 +5546,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>66</v>
@@ -5578,10 +5570,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>52</v>
@@ -5640,7 +5632,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>66</v>
@@ -5661,7 +5653,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>66</v>
@@ -5713,7 +5705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA1A433-E62E-4066-9167-6AA68B5787FF}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -5745,21 +5737,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -5767,16 +5759,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
@@ -5789,18 +5781,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -5844,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5871,10 +5863,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>66</v>
@@ -5891,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -5912,10 +5904,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>66</v>
@@ -5926,7 +5918,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -5935,13 +5927,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
@@ -5999,7 +5991,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6019,7 +6011,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6124,7 +6116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F353DD6F-61FF-46AE-85D7-230516E6C01A}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -6156,21 +6148,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -6178,18 +6170,18 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H3" s="28">
         <v>45447</v>
@@ -6200,18 +6192,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -6255,19 +6247,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" s="33">
         <v>1</v>
@@ -6282,16 +6274,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
@@ -6302,10 +6294,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -6323,21 +6315,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -6346,13 +6338,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
@@ -6365,7 +6357,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>73</v>
@@ -6386,7 +6378,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>76</v>
@@ -6407,10 +6399,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6427,10 +6419,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6535,7 +6527,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="22.2" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6588,1113 +6580,1194 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="212" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="213"/>
+      <c r="C2" s="212" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="212" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="212" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="192" t="s">
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="192" t="s">
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="214"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="214"/>
+      <c r="AK2" s="214"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="214"/>
+      <c r="AQ2" s="214"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="214"/>
+      <c r="AT2" s="214"/>
+      <c r="AU2" s="214"/>
+      <c r="AV2" s="213"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3" s="198">
+        <v>1</v>
+      </c>
+      <c r="B3" s="198"/>
+      <c r="C3" s="209">
+        <v>45446</v>
+      </c>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="211" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="192" t="s">
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="192" t="s">
-        <v>172</v>
-      </c>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="193"/>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="193"/>
-      <c r="AK2" s="193"/>
-      <c r="AL2" s="193"/>
-      <c r="AM2" s="193"/>
-      <c r="AN2" s="193"/>
-      <c r="AO2" s="193"/>
-      <c r="AP2" s="193"/>
-      <c r="AQ2" s="193"/>
-      <c r="AR2" s="193"/>
-      <c r="AS2" s="193"/>
-      <c r="AT2" s="193"/>
-      <c r="AU2" s="193"/>
-      <c r="AV2" s="194"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="195">
-        <v>1</v>
-      </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="196">
-        <v>45446</v>
-      </c>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="198" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="198"/>
-      <c r="AJ3" s="198"/>
-      <c r="AK3" s="198"/>
-      <c r="AL3" s="198"/>
-      <c r="AM3" s="198"/>
-      <c r="AN3" s="198"/>
-      <c r="AO3" s="198"/>
-      <c r="AP3" s="198"/>
-      <c r="AQ3" s="198"/>
-      <c r="AR3" s="198"/>
-      <c r="AS3" s="198"/>
-      <c r="AT3" s="198"/>
-      <c r="AU3" s="198"/>
-      <c r="AV3" s="198"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197"/>
+      <c r="AK3" s="197"/>
+      <c r="AL3" s="197"/>
+      <c r="AM3" s="197"/>
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="197"/>
+      <c r="AP3" s="197"/>
+      <c r="AQ3" s="197"/>
+      <c r="AR3" s="197"/>
+      <c r="AS3" s="197"/>
+      <c r="AT3" s="197"/>
+      <c r="AU3" s="197"/>
+      <c r="AV3" s="197"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="195">
+      <c r="A4" s="198">
         <v>2</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="198"/>
-      <c r="AG4" s="198"/>
-      <c r="AH4" s="198"/>
-      <c r="AI4" s="198"/>
-      <c r="AJ4" s="198"/>
-      <c r="AK4" s="198"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="198"/>
-      <c r="AN4" s="198"/>
-      <c r="AO4" s="198"/>
-      <c r="AP4" s="198"/>
-      <c r="AQ4" s="198"/>
-      <c r="AR4" s="198"/>
-      <c r="AS4" s="198"/>
-      <c r="AT4" s="198"/>
-      <c r="AU4" s="198"/>
-      <c r="AV4" s="198"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="197"/>
+      <c r="AT4" s="197"/>
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="197"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="195">
+      <c r="A5" s="198">
         <v>3</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="198"/>
-      <c r="AK5" s="198"/>
-      <c r="AL5" s="198"/>
-      <c r="AM5" s="198"/>
-      <c r="AN5" s="198"/>
-      <c r="AO5" s="198"/>
-      <c r="AP5" s="198"/>
-      <c r="AQ5" s="198"/>
-      <c r="AR5" s="198"/>
-      <c r="AS5" s="198"/>
-      <c r="AT5" s="198"/>
-      <c r="AU5" s="198"/>
-      <c r="AV5" s="198"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="197"/>
+      <c r="AT5" s="197"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="195">
+      <c r="A6" s="198">
         <v>4</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="198"/>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="198"/>
-      <c r="AF6" s="198"/>
-      <c r="AG6" s="198"/>
-      <c r="AH6" s="198"/>
-      <c r="AI6" s="198"/>
-      <c r="AJ6" s="198"/>
-      <c r="AK6" s="198"/>
-      <c r="AL6" s="198"/>
-      <c r="AM6" s="198"/>
-      <c r="AN6" s="198"/>
-      <c r="AO6" s="198"/>
-      <c r="AP6" s="198"/>
-      <c r="AQ6" s="198"/>
-      <c r="AR6" s="198"/>
-      <c r="AS6" s="198"/>
-      <c r="AT6" s="198"/>
-      <c r="AU6" s="198"/>
-      <c r="AV6" s="198"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="197"/>
+      <c r="AI6" s="197"/>
+      <c r="AJ6" s="197"/>
+      <c r="AK6" s="197"/>
+      <c r="AL6" s="197"/>
+      <c r="AM6" s="197"/>
+      <c r="AN6" s="197"/>
+      <c r="AO6" s="197"/>
+      <c r="AP6" s="197"/>
+      <c r="AQ6" s="197"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="197"/>
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="197"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="195">
+      <c r="A7" s="198">
         <v>5</v>
       </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AA7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="198"/>
-      <c r="AF7" s="198"/>
-      <c r="AG7" s="198"/>
-      <c r="AH7" s="198"/>
-      <c r="AI7" s="198"/>
-      <c r="AJ7" s="198"/>
-      <c r="AK7" s="198"/>
-      <c r="AL7" s="198"/>
-      <c r="AM7" s="198"/>
-      <c r="AN7" s="198"/>
-      <c r="AO7" s="198"/>
-      <c r="AP7" s="198"/>
-      <c r="AQ7" s="198"/>
-      <c r="AR7" s="198"/>
-      <c r="AS7" s="198"/>
-      <c r="AT7" s="198"/>
-      <c r="AU7" s="198"/>
-      <c r="AV7" s="198"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="197"/>
+      <c r="Q7" s="197"/>
+      <c r="R7" s="197"/>
+      <c r="S7" s="197"/>
+      <c r="T7" s="197"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="197"/>
+      <c r="AA7" s="197"/>
+      <c r="AB7" s="197"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="197"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
+      <c r="AH7" s="197"/>
+      <c r="AI7" s="197"/>
+      <c r="AJ7" s="197"/>
+      <c r="AK7" s="197"/>
+      <c r="AL7" s="197"/>
+      <c r="AM7" s="197"/>
+      <c r="AN7" s="197"/>
+      <c r="AO7" s="197"/>
+      <c r="AP7" s="197"/>
+      <c r="AQ7" s="197"/>
+      <c r="AR7" s="197"/>
+      <c r="AS7" s="197"/>
+      <c r="AT7" s="197"/>
+      <c r="AU7" s="197"/>
+      <c r="AV7" s="197"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="195">
+      <c r="A8" s="198">
         <v>6</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198"/>
-      <c r="AA8" s="198"/>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="198"/>
-      <c r="AE8" s="198"/>
-      <c r="AF8" s="198"/>
-      <c r="AG8" s="198"/>
-      <c r="AH8" s="198"/>
-      <c r="AI8" s="198"/>
-      <c r="AJ8" s="198"/>
-      <c r="AK8" s="198"/>
-      <c r="AL8" s="198"/>
-      <c r="AM8" s="198"/>
-      <c r="AN8" s="198"/>
-      <c r="AO8" s="198"/>
-      <c r="AP8" s="198"/>
-      <c r="AQ8" s="198"/>
-      <c r="AR8" s="198"/>
-      <c r="AS8" s="198"/>
-      <c r="AT8" s="198"/>
-      <c r="AU8" s="198"/>
-      <c r="AV8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="197"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="197"/>
+      <c r="AH8" s="197"/>
+      <c r="AI8" s="197"/>
+      <c r="AJ8" s="197"/>
+      <c r="AK8" s="197"/>
+      <c r="AL8" s="197"/>
+      <c r="AM8" s="197"/>
+      <c r="AN8" s="197"/>
+      <c r="AO8" s="197"/>
+      <c r="AP8" s="197"/>
+      <c r="AQ8" s="197"/>
+      <c r="AR8" s="197"/>
+      <c r="AS8" s="197"/>
+      <c r="AT8" s="197"/>
+      <c r="AU8" s="197"/>
+      <c r="AV8" s="197"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="195">
+      <c r="A9" s="198">
         <v>7</v>
       </c>
-      <c r="B9" s="195"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198"/>
-      <c r="V9" s="198"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="198"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="198"/>
-      <c r="AF9" s="198"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="198"/>
-      <c r="AI9" s="198"/>
-      <c r="AJ9" s="198"/>
-      <c r="AK9" s="198"/>
-      <c r="AL9" s="198"/>
-      <c r="AM9" s="198"/>
-      <c r="AN9" s="198"/>
-      <c r="AO9" s="198"/>
-      <c r="AP9" s="198"/>
-      <c r="AQ9" s="198"/>
-      <c r="AR9" s="198"/>
-      <c r="AS9" s="198"/>
-      <c r="AT9" s="198"/>
-      <c r="AU9" s="198"/>
-      <c r="AV9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197"/>
+      <c r="Q9" s="197"/>
+      <c r="R9" s="197"/>
+      <c r="S9" s="197"/>
+      <c r="T9" s="197"/>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="197"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="197"/>
+      <c r="AH9" s="197"/>
+      <c r="AI9" s="197"/>
+      <c r="AJ9" s="197"/>
+      <c r="AK9" s="197"/>
+      <c r="AL9" s="197"/>
+      <c r="AM9" s="197"/>
+      <c r="AN9" s="197"/>
+      <c r="AO9" s="197"/>
+      <c r="AP9" s="197"/>
+      <c r="AQ9" s="197"/>
+      <c r="AR9" s="197"/>
+      <c r="AS9" s="197"/>
+      <c r="AT9" s="197"/>
+      <c r="AU9" s="197"/>
+      <c r="AV9" s="197"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="195">
+      <c r="A10" s="198">
         <v>8</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="198"/>
-      <c r="V10" s="198"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="198"/>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="198"/>
-      <c r="AE10" s="198"/>
-      <c r="AF10" s="198"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="198"/>
-      <c r="AJ10" s="198"/>
-      <c r="AK10" s="198"/>
-      <c r="AL10" s="198"/>
-      <c r="AM10" s="198"/>
-      <c r="AN10" s="198"/>
-      <c r="AO10" s="198"/>
-      <c r="AP10" s="198"/>
-      <c r="AQ10" s="198"/>
-      <c r="AR10" s="198"/>
-      <c r="AS10" s="198"/>
-      <c r="AT10" s="198"/>
-      <c r="AU10" s="198"/>
-      <c r="AV10" s="198"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="197"/>
+      <c r="AI10" s="197"/>
+      <c r="AJ10" s="197"/>
+      <c r="AK10" s="197"/>
+      <c r="AL10" s="197"/>
+      <c r="AM10" s="197"/>
+      <c r="AN10" s="197"/>
+      <c r="AO10" s="197"/>
+      <c r="AP10" s="197"/>
+      <c r="AQ10" s="197"/>
+      <c r="AR10" s="197"/>
+      <c r="AS10" s="197"/>
+      <c r="AT10" s="197"/>
+      <c r="AU10" s="197"/>
+      <c r="AV10" s="197"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="195">
+      <c r="A11" s="198">
         <v>9</v>
       </c>
-      <c r="B11" s="195"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="198"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="198"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="198"/>
-      <c r="AJ11" s="198"/>
-      <c r="AK11" s="198"/>
-      <c r="AL11" s="198"/>
-      <c r="AM11" s="198"/>
-      <c r="AN11" s="198"/>
-      <c r="AO11" s="198"/>
-      <c r="AP11" s="198"/>
-      <c r="AQ11" s="198"/>
-      <c r="AR11" s="198"/>
-      <c r="AS11" s="198"/>
-      <c r="AT11" s="198"/>
-      <c r="AU11" s="198"/>
-      <c r="AV11" s="198"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="197"/>
+      <c r="AI11" s="197"/>
+      <c r="AJ11" s="197"/>
+      <c r="AK11" s="197"/>
+      <c r="AL11" s="197"/>
+      <c r="AM11" s="197"/>
+      <c r="AN11" s="197"/>
+      <c r="AO11" s="197"/>
+      <c r="AP11" s="197"/>
+      <c r="AQ11" s="197"/>
+      <c r="AR11" s="197"/>
+      <c r="AS11" s="197"/>
+      <c r="AT11" s="197"/>
+      <c r="AU11" s="197"/>
+      <c r="AV11" s="197"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="195">
+      <c r="A12" s="198">
         <v>10</v>
       </c>
-      <c r="B12" s="195"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="198"/>
-      <c r="AJ12" s="198"/>
-      <c r="AK12" s="198"/>
-      <c r="AL12" s="198"/>
-      <c r="AM12" s="198"/>
-      <c r="AN12" s="198"/>
-      <c r="AO12" s="198"/>
-      <c r="AP12" s="198"/>
-      <c r="AQ12" s="198"/>
-      <c r="AR12" s="198"/>
-      <c r="AS12" s="198"/>
-      <c r="AT12" s="198"/>
-      <c r="AU12" s="198"/>
-      <c r="AV12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="197"/>
+      <c r="AI12" s="197"/>
+      <c r="AJ12" s="197"/>
+      <c r="AK12" s="197"/>
+      <c r="AL12" s="197"/>
+      <c r="AM12" s="197"/>
+      <c r="AN12" s="197"/>
+      <c r="AO12" s="197"/>
+      <c r="AP12" s="197"/>
+      <c r="AQ12" s="197"/>
+      <c r="AR12" s="197"/>
+      <c r="AS12" s="197"/>
+      <c r="AT12" s="197"/>
+      <c r="AU12" s="197"/>
+      <c r="AV12" s="197"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="195">
+      <c r="A13" s="198">
         <v>11</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="198"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="198"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="198"/>
-      <c r="AJ13" s="198"/>
-      <c r="AK13" s="198"/>
-      <c r="AL13" s="198"/>
-      <c r="AM13" s="198"/>
-      <c r="AN13" s="198"/>
-      <c r="AO13" s="198"/>
-      <c r="AP13" s="198"/>
-      <c r="AQ13" s="198"/>
-      <c r="AR13" s="198"/>
-      <c r="AS13" s="198"/>
-      <c r="AT13" s="198"/>
-      <c r="AU13" s="198"/>
-      <c r="AV13" s="198"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="197"/>
+      <c r="R13" s="197"/>
+      <c r="S13" s="197"/>
+      <c r="T13" s="197"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
+      <c r="W13" s="197"/>
+      <c r="X13" s="197"/>
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="197"/>
+      <c r="AB13" s="197"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="197"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="197"/>
+      <c r="AG13" s="197"/>
+      <c r="AH13" s="197"/>
+      <c r="AI13" s="197"/>
+      <c r="AJ13" s="197"/>
+      <c r="AK13" s="197"/>
+      <c r="AL13" s="197"/>
+      <c r="AM13" s="197"/>
+      <c r="AN13" s="197"/>
+      <c r="AO13" s="197"/>
+      <c r="AP13" s="197"/>
+      <c r="AQ13" s="197"/>
+      <c r="AR13" s="197"/>
+      <c r="AS13" s="197"/>
+      <c r="AT13" s="197"/>
+      <c r="AU13" s="197"/>
+      <c r="AV13" s="197"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="195">
+      <c r="A14" s="198">
         <v>12</v>
       </c>
-      <c r="B14" s="195"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="198"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="198"/>
-      <c r="AJ14" s="198"/>
-      <c r="AK14" s="198"/>
-      <c r="AL14" s="198"/>
-      <c r="AM14" s="198"/>
-      <c r="AN14" s="198"/>
-      <c r="AO14" s="198"/>
-      <c r="AP14" s="198"/>
-      <c r="AQ14" s="198"/>
-      <c r="AR14" s="198"/>
-      <c r="AS14" s="198"/>
-      <c r="AT14" s="198"/>
-      <c r="AU14" s="198"/>
-      <c r="AV14" s="198"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="197"/>
+      <c r="R14" s="197"/>
+      <c r="S14" s="197"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="197"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="197"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="197"/>
+      <c r="AD14" s="197"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="197"/>
+      <c r="AG14" s="197"/>
+      <c r="AH14" s="197"/>
+      <c r="AI14" s="197"/>
+      <c r="AJ14" s="197"/>
+      <c r="AK14" s="197"/>
+      <c r="AL14" s="197"/>
+      <c r="AM14" s="197"/>
+      <c r="AN14" s="197"/>
+      <c r="AO14" s="197"/>
+      <c r="AP14" s="197"/>
+      <c r="AQ14" s="197"/>
+      <c r="AR14" s="197"/>
+      <c r="AS14" s="197"/>
+      <c r="AT14" s="197"/>
+      <c r="AU14" s="197"/>
+      <c r="AV14" s="197"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="195">
+      <c r="A15" s="198">
         <v>13</v>
       </c>
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="198"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="198"/>
-      <c r="AJ15" s="198"/>
-      <c r="AK15" s="198"/>
-      <c r="AL15" s="198"/>
-      <c r="AM15" s="198"/>
-      <c r="AN15" s="198"/>
-      <c r="AO15" s="198"/>
-      <c r="AP15" s="198"/>
-      <c r="AQ15" s="198"/>
-      <c r="AR15" s="198"/>
-      <c r="AS15" s="198"/>
-      <c r="AT15" s="198"/>
-      <c r="AU15" s="198"/>
-      <c r="AV15" s="198"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="197"/>
+      <c r="AJ15" s="197"/>
+      <c r="AK15" s="197"/>
+      <c r="AL15" s="197"/>
+      <c r="AM15" s="197"/>
+      <c r="AN15" s="197"/>
+      <c r="AO15" s="197"/>
+      <c r="AP15" s="197"/>
+      <c r="AQ15" s="197"/>
+      <c r="AR15" s="197"/>
+      <c r="AS15" s="197"/>
+      <c r="AT15" s="197"/>
+      <c r="AU15" s="197"/>
+      <c r="AV15" s="197"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="195">
+      <c r="A16" s="198">
         <v>14</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="198"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="198"/>
-      <c r="Z16" s="198"/>
-      <c r="AA16" s="198"/>
-      <c r="AB16" s="198"/>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="198"/>
-      <c r="AE16" s="198"/>
-      <c r="AF16" s="198"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="198"/>
-      <c r="AJ16" s="198"/>
-      <c r="AK16" s="198"/>
-      <c r="AL16" s="198"/>
-      <c r="AM16" s="198"/>
-      <c r="AN16" s="198"/>
-      <c r="AO16" s="198"/>
-      <c r="AP16" s="198"/>
-      <c r="AQ16" s="198"/>
-      <c r="AR16" s="198"/>
-      <c r="AS16" s="198"/>
-      <c r="AT16" s="198"/>
-      <c r="AU16" s="198"/>
-      <c r="AV16" s="198"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="197"/>
+      <c r="AJ16" s="197"/>
+      <c r="AK16" s="197"/>
+      <c r="AL16" s="197"/>
+      <c r="AM16" s="197"/>
+      <c r="AN16" s="197"/>
+      <c r="AO16" s="197"/>
+      <c r="AP16" s="197"/>
+      <c r="AQ16" s="197"/>
+      <c r="AR16" s="197"/>
+      <c r="AS16" s="197"/>
+      <c r="AT16" s="197"/>
+      <c r="AU16" s="197"/>
+      <c r="AV16" s="197"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="195">
+      <c r="A17" s="198">
         <v>15</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="200"/>
-      <c r="S17" s="200"/>
-      <c r="T17" s="200"/>
-      <c r="U17" s="200"/>
-      <c r="V17" s="200"/>
-      <c r="W17" s="198"/>
-      <c r="X17" s="198"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="198"/>
-      <c r="AA17" s="198"/>
-      <c r="AB17" s="198"/>
-      <c r="AC17" s="198"/>
-      <c r="AD17" s="198"/>
-      <c r="AE17" s="198"/>
-      <c r="AF17" s="198"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="198"/>
-      <c r="AJ17" s="198"/>
-      <c r="AK17" s="198"/>
-      <c r="AL17" s="198"/>
-      <c r="AM17" s="198"/>
-      <c r="AN17" s="198"/>
-      <c r="AO17" s="198"/>
-      <c r="AP17" s="198"/>
-      <c r="AQ17" s="198"/>
-      <c r="AR17" s="198"/>
-      <c r="AS17" s="198"/>
-      <c r="AT17" s="198"/>
-      <c r="AU17" s="198"/>
-      <c r="AV17" s="198"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="205"/>
+      <c r="N17" s="205"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="205"/>
+      <c r="Q17" s="205"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="205"/>
+      <c r="T17" s="205"/>
+      <c r="U17" s="205"/>
+      <c r="V17" s="205"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="197"/>
+      <c r="AI17" s="197"/>
+      <c r="AJ17" s="197"/>
+      <c r="AK17" s="197"/>
+      <c r="AL17" s="197"/>
+      <c r="AM17" s="197"/>
+      <c r="AN17" s="197"/>
+      <c r="AO17" s="197"/>
+      <c r="AP17" s="197"/>
+      <c r="AQ17" s="197"/>
+      <c r="AR17" s="197"/>
+      <c r="AS17" s="197"/>
+      <c r="AT17" s="197"/>
+      <c r="AU17" s="197"/>
+      <c r="AV17" s="197"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="195">
+      <c r="A18" s="198">
         <v>16</v>
       </c>
-      <c r="B18" s="195"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="200"/>
-      <c r="S18" s="200"/>
-      <c r="T18" s="200"/>
-      <c r="U18" s="200"/>
-      <c r="V18" s="200"/>
-      <c r="W18" s="198"/>
-      <c r="X18" s="198"/>
-      <c r="Y18" s="198"/>
-      <c r="Z18" s="198"/>
-      <c r="AA18" s="198"/>
-      <c r="AB18" s="198"/>
-      <c r="AC18" s="198"/>
-      <c r="AD18" s="198"/>
-      <c r="AE18" s="198"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="198"/>
-      <c r="AJ18" s="198"/>
-      <c r="AK18" s="198"/>
-      <c r="AL18" s="198"/>
-      <c r="AM18" s="198"/>
-      <c r="AN18" s="198"/>
-      <c r="AO18" s="198"/>
-      <c r="AP18" s="198"/>
-      <c r="AQ18" s="198"/>
-      <c r="AR18" s="198"/>
-      <c r="AS18" s="198"/>
-      <c r="AT18" s="198"/>
-      <c r="AU18" s="198"/>
-      <c r="AV18" s="198"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="197"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="197"/>
+      <c r="AI18" s="197"/>
+      <c r="AJ18" s="197"/>
+      <c r="AK18" s="197"/>
+      <c r="AL18" s="197"/>
+      <c r="AM18" s="197"/>
+      <c r="AN18" s="197"/>
+      <c r="AO18" s="197"/>
+      <c r="AP18" s="197"/>
+      <c r="AQ18" s="197"/>
+      <c r="AR18" s="197"/>
+      <c r="AS18" s="197"/>
+      <c r="AT18" s="197"/>
+      <c r="AU18" s="197"/>
+      <c r="AV18" s="197"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="195">
+      <c r="A19" s="198">
         <v>17</v>
       </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="200"/>
-      <c r="T19" s="200"/>
-      <c r="U19" s="200"/>
-      <c r="V19" s="200"/>
-      <c r="W19" s="207"/>
-      <c r="X19" s="208"/>
-      <c r="Y19" s="208"/>
-      <c r="Z19" s="208"/>
-      <c r="AA19" s="208"/>
-      <c r="AB19" s="208"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="208"/>
-      <c r="AE19" s="208"/>
-      <c r="AF19" s="208"/>
-      <c r="AG19" s="208"/>
-      <c r="AH19" s="208"/>
-      <c r="AI19" s="208"/>
-      <c r="AJ19" s="208"/>
-      <c r="AK19" s="208"/>
-      <c r="AL19" s="208"/>
-      <c r="AM19" s="208"/>
-      <c r="AN19" s="208"/>
-      <c r="AO19" s="208"/>
-      <c r="AP19" s="208"/>
-      <c r="AQ19" s="208"/>
-      <c r="AR19" s="208"/>
-      <c r="AS19" s="208"/>
-      <c r="AT19" s="208"/>
-      <c r="AU19" s="208"/>
-      <c r="AV19" s="209"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="205"/>
+      <c r="W19" s="206"/>
+      <c r="X19" s="207"/>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="207"/>
+      <c r="AC19" s="207"/>
+      <c r="AD19" s="207"/>
+      <c r="AE19" s="207"/>
+      <c r="AF19" s="207"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="207"/>
+      <c r="AJ19" s="207"/>
+      <c r="AK19" s="207"/>
+      <c r="AL19" s="207"/>
+      <c r="AM19" s="207"/>
+      <c r="AN19" s="207"/>
+      <c r="AO19" s="207"/>
+      <c r="AP19" s="207"/>
+      <c r="AQ19" s="207"/>
+      <c r="AR19" s="207"/>
+      <c r="AS19" s="207"/>
+      <c r="AT19" s="207"/>
+      <c r="AU19" s="207"/>
+      <c r="AV19" s="208"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="195">
+      <c r="A20" s="198">
         <v>18</v>
       </c>
-      <c r="B20" s="195"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="206"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="208"/>
-      <c r="Q20" s="208"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208"/>
-      <c r="U20" s="208"/>
-      <c r="V20" s="209"/>
-      <c r="W20" s="207"/>
-      <c r="X20" s="208"/>
-      <c r="Y20" s="208"/>
-      <c r="Z20" s="208"/>
-      <c r="AA20" s="208"/>
-      <c r="AB20" s="208"/>
-      <c r="AC20" s="208"/>
-      <c r="AD20" s="208"/>
-      <c r="AE20" s="208"/>
-      <c r="AF20" s="208"/>
-      <c r="AG20" s="208"/>
-      <c r="AH20" s="208"/>
-      <c r="AI20" s="208"/>
-      <c r="AJ20" s="208"/>
-      <c r="AK20" s="208"/>
-      <c r="AL20" s="208"/>
-      <c r="AM20" s="208"/>
-      <c r="AN20" s="208"/>
-      <c r="AO20" s="208"/>
-      <c r="AP20" s="208"/>
-      <c r="AQ20" s="208"/>
-      <c r="AR20" s="208"/>
-      <c r="AS20" s="208"/>
-      <c r="AT20" s="208"/>
-      <c r="AU20" s="208"/>
-      <c r="AV20" s="209"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="206"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="208"/>
+      <c r="W20" s="206"/>
+      <c r="X20" s="207"/>
+      <c r="Y20" s="207"/>
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="207"/>
+      <c r="AB20" s="207"/>
+      <c r="AC20" s="207"/>
+      <c r="AD20" s="207"/>
+      <c r="AE20" s="207"/>
+      <c r="AF20" s="207"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="207"/>
+      <c r="AI20" s="207"/>
+      <c r="AJ20" s="207"/>
+      <c r="AK20" s="207"/>
+      <c r="AL20" s="207"/>
+      <c r="AM20" s="207"/>
+      <c r="AN20" s="207"/>
+      <c r="AO20" s="207"/>
+      <c r="AP20" s="207"/>
+      <c r="AQ20" s="207"/>
+      <c r="AR20" s="207"/>
+      <c r="AS20" s="207"/>
+      <c r="AT20" s="207"/>
+      <c r="AU20" s="207"/>
+      <c r="AV20" s="208"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="195">
+      <c r="A21" s="198">
         <v>19</v>
       </c>
-      <c r="B21" s="195"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="206"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="208"/>
-      <c r="Q21" s="208"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="208"/>
-      <c r="U21" s="208"/>
-      <c r="V21" s="209"/>
-      <c r="W21" s="207"/>
-      <c r="X21" s="208"/>
-      <c r="Y21" s="208"/>
-      <c r="Z21" s="208"/>
-      <c r="AA21" s="208"/>
-      <c r="AB21" s="208"/>
-      <c r="AC21" s="208"/>
-      <c r="AD21" s="208"/>
-      <c r="AE21" s="208"/>
-      <c r="AF21" s="208"/>
-      <c r="AG21" s="208"/>
-      <c r="AH21" s="208"/>
-      <c r="AI21" s="208"/>
-      <c r="AJ21" s="208"/>
-      <c r="AK21" s="208"/>
-      <c r="AL21" s="208"/>
-      <c r="AM21" s="208"/>
-      <c r="AN21" s="208"/>
-      <c r="AO21" s="208"/>
-      <c r="AP21" s="208"/>
-      <c r="AQ21" s="208"/>
-      <c r="AR21" s="208"/>
-      <c r="AS21" s="208"/>
-      <c r="AT21" s="208"/>
-      <c r="AU21" s="208"/>
-      <c r="AV21" s="209"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+      <c r="S21" s="207"/>
+      <c r="T21" s="207"/>
+      <c r="U21" s="207"/>
+      <c r="V21" s="208"/>
+      <c r="W21" s="206"/>
+      <c r="X21" s="207"/>
+      <c r="Y21" s="207"/>
+      <c r="Z21" s="207"/>
+      <c r="AA21" s="207"/>
+      <c r="AB21" s="207"/>
+      <c r="AC21" s="207"/>
+      <c r="AD21" s="207"/>
+      <c r="AE21" s="207"/>
+      <c r="AF21" s="207"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="207"/>
+      <c r="AJ21" s="207"/>
+      <c r="AK21" s="207"/>
+      <c r="AL21" s="207"/>
+      <c r="AM21" s="207"/>
+      <c r="AN21" s="207"/>
+      <c r="AO21" s="207"/>
+      <c r="AP21" s="207"/>
+      <c r="AQ21" s="207"/>
+      <c r="AR21" s="207"/>
+      <c r="AS21" s="207"/>
+      <c r="AT21" s="207"/>
+      <c r="AU21" s="207"/>
+      <c r="AV21" s="208"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="198">
+      <c r="A22" s="197">
         <v>20</v>
       </c>
-      <c r="B22" s="198"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="207"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="208"/>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="208"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208"/>
-      <c r="U22" s="208"/>
-      <c r="V22" s="209"/>
-      <c r="W22" s="207"/>
-      <c r="X22" s="208"/>
-      <c r="Y22" s="208"/>
-      <c r="Z22" s="208"/>
-      <c r="AA22" s="208"/>
-      <c r="AB22" s="208"/>
-      <c r="AC22" s="208"/>
-      <c r="AD22" s="208"/>
-      <c r="AE22" s="208"/>
-      <c r="AF22" s="208"/>
-      <c r="AG22" s="208"/>
-      <c r="AH22" s="208"/>
-      <c r="AI22" s="208"/>
-      <c r="AJ22" s="208"/>
-      <c r="AK22" s="208"/>
-      <c r="AL22" s="208"/>
-      <c r="AM22" s="208"/>
-      <c r="AN22" s="208"/>
-      <c r="AO22" s="208"/>
-      <c r="AP22" s="208"/>
-      <c r="AQ22" s="208"/>
-      <c r="AR22" s="208"/>
-      <c r="AS22" s="208"/>
-      <c r="AT22" s="208"/>
-      <c r="AU22" s="208"/>
-      <c r="AV22" s="209"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="207"/>
+      <c r="Q22" s="207"/>
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207"/>
+      <c r="U22" s="207"/>
+      <c r="V22" s="208"/>
+      <c r="W22" s="206"/>
+      <c r="X22" s="207"/>
+      <c r="Y22" s="207"/>
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="207"/>
+      <c r="AB22" s="207"/>
+      <c r="AC22" s="207"/>
+      <c r="AD22" s="207"/>
+      <c r="AE22" s="207"/>
+      <c r="AF22" s="207"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="207"/>
+      <c r="AI22" s="207"/>
+      <c r="AJ22" s="207"/>
+      <c r="AK22" s="207"/>
+      <c r="AL22" s="207"/>
+      <c r="AM22" s="207"/>
+      <c r="AN22" s="207"/>
+      <c r="AO22" s="207"/>
+      <c r="AP22" s="207"/>
+      <c r="AQ22" s="207"/>
+      <c r="AR22" s="207"/>
+      <c r="AS22" s="207"/>
+      <c r="AT22" s="207"/>
+      <c r="AU22" s="207"/>
+      <c r="AV22" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="W2:AV2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="W3:AV3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="W4:AV4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:V5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="W7:AV7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="W8:AV8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:V10"/>
+    <mergeCell ref="W10:AV10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="W11:AV11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="W12:AV12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:AV13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="W14:AV14"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:V17"/>
+    <mergeCell ref="W17:AV17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="W18:AV18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="W15:AV15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="W16:AV16"/>
     <mergeCell ref="W5:AV5"/>
     <mergeCell ref="W6:AV6"/>
     <mergeCell ref="A19:B19"/>
@@ -7719,87 +7792,6 @@
     <mergeCell ref="W21:AV21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:V17"/>
-    <mergeCell ref="W17:AV17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="W18:AV18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:V15"/>
-    <mergeCell ref="W15:AV15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:V16"/>
-    <mergeCell ref="W16:AV16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:AV13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:V14"/>
-    <mergeCell ref="W14:AV14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="W11:AV11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:V12"/>
-    <mergeCell ref="W12:AV12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="W10:AV10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="W7:AV7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="W8:AV8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:V5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="W2:AV2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="W3:AV3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:V4"/>
-    <mergeCell ref="W4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7810,12 +7802,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8014,28 +8008,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC442933-C3C2-4B5D-A049-FC5092D86F83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC442933-C3C2-4B5D-A049-FC5092D86F83}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}"/>
 </file>
--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="677" documentId="13_ncr:1_{887A6EA8-77E4-417A-B298-F39DD14EC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7821DFD6-E4DA-4AAA-B415-377999E3E7F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E978F8-E57C-4908-93B2-B820E09D2243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-168" yWindow="3216" windowWidth="23208" windowHeight="9396" firstSheet="1" activeTab="7" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="22032" windowHeight="9396" firstSheet="1" activeTab="8" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="195">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -993,13 +993,6 @@
     <t>改訂内容</t>
   </si>
   <si>
-    <t>湯振裕</t>
-    <rPh sb="0" eb="3">
-      <t>トウシンユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新規作成</t>
     <rPh sb="0" eb="4">
       <t>シンキサクセイ</t>
@@ -1047,6 +1040,72 @@
   </si>
   <si>
     <t>氏名</t>
+  </si>
+  <si>
+    <t>横山</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fix→revision　revに変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fix文字の修正</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>湯振裕</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダーの綴り</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>calender→calendar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル名　user</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テーブル登録を行う際にエラーがでるためusersに変更 </t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1816,16 +1875,178 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,6 +2058,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1882,177 +2127,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2089,27 +2163,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2128,23 +2183,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2164,10 +2223,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2489,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32B3E11-17FA-46EE-A4A9-59AC9C9D3161}">
   <dimension ref="A1:AX22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
@@ -2504,14 +2559,14 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2527,38 +2582,38 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="111" t="s">
+      <c r="T2" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="114" t="s">
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="111" t="s">
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="117">
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="179">
         <v>45447</v>
       </c>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="118"/>
-      <c r="AP2" s="118"/>
-      <c r="AQ2" s="119"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="181"/>
       <c r="AT2" s="95"/>
       <c r="AU2" s="95"/>
       <c r="AV2" t="s">
@@ -2566,14 +2621,14 @@
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
@@ -2589,34 +2644,34 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="111" t="s">
+      <c r="T3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="111" t="s">
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121"/>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="121"/>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="121"/>
-      <c r="AQ3" s="122"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="184"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
@@ -2666,1078 +2721,1164 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="105" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="105" t="s">
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="105" t="s">
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="105" t="s">
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="106"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="105" t="s">
+      <c r="W5" s="160"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="105" t="s">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="160"/>
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="105" t="s">
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="160"/>
+      <c r="AN5" s="161"/>
+      <c r="AO5" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="107"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="161"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="143" t="s">
-        <v>178</v>
-      </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="160" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="160" t="s">
+      <c r="Q6" s="110"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="161"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="160">
+      <c r="T6" s="110"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="109">
         <v>100</v>
       </c>
-      <c r="W6" s="161"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="144"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="144"/>
-      <c r="AF6" s="144"/>
-      <c r="AG6" s="144"/>
-      <c r="AH6" s="144"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="160" t="s">
+      <c r="W6" s="110"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="161"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="161"/>
-      <c r="AN6" s="162"/>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="178"/>
-      <c r="AQ6" s="178"/>
-      <c r="AR6" s="178"/>
-      <c r="AS6" s="178"/>
-      <c r="AT6" s="178"/>
-      <c r="AU6" s="178"/>
-      <c r="AV6" s="178"/>
-      <c r="AW6" s="178"/>
-      <c r="AX6" s="179"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="108"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="143" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="160" t="s">
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="160" t="s">
+      <c r="Q7" s="110"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="161"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="160">
+      <c r="T7" s="110"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="109">
         <v>10000</v>
       </c>
-      <c r="W7" s="161"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="144"/>
-      <c r="AF7" s="144"/>
-      <c r="AG7" s="144"/>
-      <c r="AH7" s="144"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="160" t="s">
+      <c r="W7" s="110"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="161"/>
-      <c r="AL7" s="161"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="162"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="178"/>
-      <c r="AQ7" s="178"/>
-      <c r="AR7" s="178"/>
-      <c r="AS7" s="178"/>
-      <c r="AT7" s="178"/>
-      <c r="AU7" s="178"/>
-      <c r="AV7" s="178"/>
-      <c r="AW7" s="178"/>
-      <c r="AX7" s="179"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="108"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="143" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="160" t="s">
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="160" t="s">
+      <c r="Q8" s="110"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="161"/>
-      <c r="U8" s="162"/>
-      <c r="V8" s="160">
+      <c r="T8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="109">
         <v>500</v>
       </c>
-      <c r="W8" s="161"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="144"/>
-      <c r="AH8" s="144"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="160" t="s">
+      <c r="W8" s="110"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
+      <c r="AJ8" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="161"/>
-      <c r="AL8" s="161"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="162"/>
-      <c r="AO8" s="177"/>
-      <c r="AP8" s="178"/>
-      <c r="AQ8" s="178"/>
-      <c r="AR8" s="178"/>
-      <c r="AS8" s="178"/>
-      <c r="AT8" s="178"/>
-      <c r="AU8" s="178"/>
-      <c r="AV8" s="178"/>
-      <c r="AW8" s="178"/>
-      <c r="AX8" s="179"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="108"/>
     </row>
     <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="140" t="s">
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="126" t="s">
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="126" t="s">
+      <c r="Q9" s="129"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="127"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="126">
+      <c r="T9" s="129"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="128">
         <v>500</v>
       </c>
-      <c r="W9" s="127"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="126" t="s">
+      <c r="W9" s="129"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="177"/>
-      <c r="AP9" s="178"/>
-      <c r="AQ9" s="178"/>
-      <c r="AR9" s="178"/>
-      <c r="AS9" s="178"/>
-      <c r="AT9" s="178"/>
-      <c r="AU9" s="178"/>
-      <c r="AV9" s="178"/>
-      <c r="AW9" s="178"/>
-      <c r="AX9" s="179"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="130"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="108"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="140" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="126" t="s">
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="126" t="s">
+      <c r="Q10" s="129"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="160">
+      <c r="T10" s="129"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="109">
         <v>10000</v>
       </c>
-      <c r="W10" s="161"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="126" t="s">
+      <c r="W10" s="110"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="123"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="125"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
+      <c r="AX10" s="153"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A11" s="98">
         <v>6</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148" t="s">
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="151" t="s">
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="151" t="s">
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="152"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="154">
+      <c r="T11" s="140"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="164">
         <v>10000</v>
       </c>
-      <c r="W11" s="155"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="149"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="149"/>
-      <c r="AH11" s="149"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="151" t="s">
+      <c r="W11" s="165"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="138"/>
+      <c r="AJ11" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="152"/>
-      <c r="AN11" s="153"/>
-      <c r="AO11" s="163"/>
-      <c r="AP11" s="164"/>
-      <c r="AQ11" s="164"/>
-      <c r="AR11" s="164"/>
-      <c r="AS11" s="164"/>
-      <c r="AT11" s="164"/>
-      <c r="AU11" s="164"/>
-      <c r="AV11" s="164"/>
-      <c r="AW11" s="164"/>
-      <c r="AX11" s="165"/>
+      <c r="AK11" s="140"/>
+      <c r="AL11" s="140"/>
+      <c r="AM11" s="140"/>
+      <c r="AN11" s="141"/>
+      <c r="AO11" s="142"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
+      <c r="AX11" s="144"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A12" s="99">
         <v>7</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="134" t="s">
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="134" t="s">
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="135"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="137">
+      <c r="T12" s="146"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="156">
         <v>500</v>
       </c>
-      <c r="W12" s="138"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="132"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
-      <c r="AJ12" s="134" t="s">
+      <c r="W12" s="157"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="135"/>
-      <c r="AL12" s="135"/>
-      <c r="AM12" s="135"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="167"/>
-      <c r="AQ12" s="167"/>
-      <c r="AR12" s="167"/>
-      <c r="AS12" s="167"/>
-      <c r="AT12" s="167"/>
-      <c r="AU12" s="167"/>
-      <c r="AV12" s="167"/>
-      <c r="AW12" s="167"/>
-      <c r="AX12" s="168"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="148"/>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="149"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
+      <c r="AX12" s="150"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="101"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="101"/>
-      <c r="AR13" s="101"/>
-      <c r="AS13" s="101"/>
-      <c r="AT13" s="101"/>
-      <c r="AU13" s="101"/>
-      <c r="AV13" s="101"/>
-      <c r="AW13" s="101"/>
-      <c r="AX13" s="101"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="119"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="118"/>
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="104"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="101"/>
-      <c r="AP14" s="101"/>
-      <c r="AQ14" s="101"/>
-      <c r="AR14" s="101"/>
-      <c r="AS14" s="101"/>
-      <c r="AT14" s="101"/>
-      <c r="AU14" s="101"/>
-      <c r="AV14" s="101"/>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="101"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="121"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="119"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="118"/>
+      <c r="AU14" s="118"/>
+      <c r="AV14" s="118"/>
+      <c r="AW14" s="118"/>
+      <c r="AX14" s="118"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="104"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="101"/>
-      <c r="AP15" s="101"/>
-      <c r="AQ15" s="101"/>
-      <c r="AR15" s="101"/>
-      <c r="AS15" s="101"/>
-      <c r="AT15" s="101"/>
-      <c r="AU15" s="101"/>
-      <c r="AV15" s="101"/>
-      <c r="AW15" s="101"/>
-      <c r="AX15" s="101"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="119"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="101"/>
-      <c r="AP16" s="101"/>
-      <c r="AQ16" s="101"/>
-      <c r="AR16" s="101"/>
-      <c r="AS16" s="101"/>
-      <c r="AT16" s="101"/>
-      <c r="AU16" s="101"/>
-      <c r="AV16" s="101"/>
-      <c r="AW16" s="101"/>
-      <c r="AX16" s="101"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="119"/>
+      <c r="AL16" s="119"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="101"/>
-      <c r="AP17" s="101"/>
-      <c r="AQ17" s="101"/>
-      <c r="AR17" s="101"/>
-      <c r="AS17" s="101"/>
-      <c r="AT17" s="101"/>
-      <c r="AU17" s="101"/>
-      <c r="AV17" s="101"/>
-      <c r="AW17" s="101"/>
-      <c r="AX17" s="101"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="104"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="101"/>
-      <c r="AP18" s="101"/>
-      <c r="AQ18" s="101"/>
-      <c r="AR18" s="101"/>
-      <c r="AS18" s="101"/>
-      <c r="AT18" s="101"/>
-      <c r="AU18" s="101"/>
-      <c r="AV18" s="101"/>
-      <c r="AW18" s="101"/>
-      <c r="AX18" s="101"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="121"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="118"/>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="104"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="101"/>
-      <c r="AP19" s="101"/>
-      <c r="AQ19" s="101"/>
-      <c r="AR19" s="101"/>
-      <c r="AS19" s="101"/>
-      <c r="AT19" s="101"/>
-      <c r="AU19" s="101"/>
-      <c r="AV19" s="101"/>
-      <c r="AW19" s="101"/>
-      <c r="AX19" s="101"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="118"/>
+      <c r="AU19" s="118"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="118"/>
+      <c r="AX19" s="118"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="104"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="101"/>
-      <c r="AP20" s="101"/>
-      <c r="AQ20" s="101"/>
-      <c r="AR20" s="101"/>
-      <c r="AS20" s="101"/>
-      <c r="AT20" s="101"/>
-      <c r="AU20" s="101"/>
-      <c r="AV20" s="101"/>
-      <c r="AW20" s="101"/>
-      <c r="AX20" s="101"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="119"/>
+      <c r="AK20" s="119"/>
+      <c r="AL20" s="119"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="104"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="101"/>
-      <c r="AP21" s="101"/>
-      <c r="AQ21" s="101"/>
-      <c r="AR21" s="101"/>
-      <c r="AS21" s="101"/>
-      <c r="AT21" s="101"/>
-      <c r="AU21" s="101"/>
-      <c r="AV21" s="101"/>
-      <c r="AW21" s="101"/>
-      <c r="AX21" s="101"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="119"/>
+      <c r="AL21" s="119"/>
+      <c r="AM21" s="119"/>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="118"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="118"/>
+      <c r="AU21" s="118"/>
+      <c r="AV21" s="118"/>
+      <c r="AW21" s="118"/>
+      <c r="AX21" s="118"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="104"/>
-      <c r="AK22" s="104"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="101"/>
-      <c r="AP22" s="101"/>
-      <c r="AQ22" s="101"/>
-      <c r="AR22" s="101"/>
-      <c r="AS22" s="101"/>
-      <c r="AT22" s="101"/>
-      <c r="AU22" s="101"/>
-      <c r="AV22" s="101"/>
-      <c r="AW22" s="101"/>
-      <c r="AX22" s="101"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="119"/>
+      <c r="AM22" s="119"/>
+      <c r="AN22" s="119"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
+      <c r="AS22" s="118"/>
+      <c r="AT22" s="118"/>
+      <c r="AU22" s="118"/>
+      <c r="AV22" s="118"/>
+      <c r="AW22" s="118"/>
+      <c r="AX22" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="AO9:AX9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AO7:AX7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="Y7:AI7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Y6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AX6"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="AO8:AX8"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO20:AX20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AI21"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AX21"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="AO19:AX19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AX18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO5:AX5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO10:AX10"/>
+    <mergeCell ref="AJ10:AN10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="Y5:AI5"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="Y9:AI9"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="Y10:AI10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AX11"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AX12"/>
+    <mergeCell ref="Y15:AI15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AI14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AX14"/>
+    <mergeCell ref="AO16:AX16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AO17:AX17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AI16"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="Y19:AI19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AI17"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="Y12:AI12"/>
+    <mergeCell ref="Y11:AI11"/>
     <mergeCell ref="AO22:AX22"/>
     <mergeCell ref="AJ15:AN15"/>
     <mergeCell ref="AO15:AX15"/>
@@ -3762,114 +3903,28 @@
     <mergeCell ref="Y22:AI22"/>
     <mergeCell ref="AJ22:AN22"/>
     <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="Y19:AI19"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AI17"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="Y12:AI12"/>
-    <mergeCell ref="Y11:AI11"/>
-    <mergeCell ref="AO16:AX16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AO17:AX17"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AI16"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AX11"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AX12"/>
-    <mergeCell ref="Y15:AI15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AI14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AX14"/>
-    <mergeCell ref="AO10:AX10"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="Y5:AI5"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="Y9:AI9"/>
-    <mergeCell ref="AJ9:AN9"/>
-    <mergeCell ref="Y10:AI10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AO5:AX5"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="AO19:AX19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AX18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO20:AX20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AI21"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AX21"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="AO8:AX8"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO9:AX9"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AO7:AX7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="Y7:AI7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AX6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3892,7 +3947,7 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3923,16 +3978,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="182" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
@@ -3945,16 +4000,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
@@ -3971,14 +4026,14 @@
         <v>41</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -4025,7 +4080,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -4112,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>62</v>
@@ -4128,25 +4183,25 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="210">
+      <c r="A12" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="211" t="s">
+      <c r="B12" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="212" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="213" t="s">
+      <c r="C12" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="214" t="s">
+      <c r="E12" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="214"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="213"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="20">
@@ -4247,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>66</v>
@@ -4268,7 +4323,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>66</v>
@@ -4300,8 +4355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02D2903-17A4-480E-9017-FBAD9E0BC6DB}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4332,16 +4387,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
@@ -4354,16 +4409,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="189"/>
+      <c r="C3" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
@@ -4376,18 +4431,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="191" t="s">
+      <c r="B4" s="185"/>
+      <c r="C4" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -4461,7 +4516,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>51</v>
@@ -4609,7 +4664,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4639,16 +4694,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
         <v>4</v>
@@ -4659,16 +4714,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27"/>
       <c r="H3" s="28">
         <v>45447</v>
@@ -4679,18 +4734,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -4867,7 +4922,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>66</v>
@@ -4888,7 +4943,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>66</v>
@@ -4987,16 +5042,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="25" t="s">
         <v>111</v>
       </c>
@@ -5009,16 +5064,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="189"/>
+      <c r="C3" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="27" t="s">
         <v>114</v>
       </c>
@@ -5031,18 +5086,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="188" t="s">
+      <c r="B4" s="185"/>
+      <c r="C4" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -5116,7 +5171,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
@@ -5201,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>66</v>
@@ -5223,7 +5278,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>66</v>
@@ -5304,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C145D2F-551F-4942-800F-32061A24AAC0}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5336,16 +5391,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
         <v>125</v>
       </c>
@@ -5358,22 +5413,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="28">
         <f ca="1">NOW()</f>
-        <v>45448.68697372685</v>
+        <v>45450.562381481483</v>
       </c>
       <c r="J3" s="97"/>
       <c r="K3" t="s">
@@ -5381,18 +5436,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -5439,7 +5494,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5640,7 +5695,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>66</v>
@@ -5661,7 +5716,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>66</v>
@@ -5713,7 +5768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA1A433-E62E-4066-9167-6AA68B5787FF}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -5745,16 +5800,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
@@ -5767,16 +5822,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
@@ -5789,18 +5844,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -5847,7 +5902,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5874,7 +5929,7 @@
         <v>143</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>66</v>
@@ -5894,7 +5949,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -5999,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6019,7 +6074,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6124,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F353DD6F-61FF-46AE-85D7-230516E6C01A}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6156,16 +6211,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
         <v>109</v>
       </c>
@@ -6178,16 +6233,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
         <v>114</v>
       </c>
@@ -6200,18 +6255,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="188" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -6410,7 +6465,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6430,7 +6485,7 @@
         <v>110</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6524,8 +6579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778408FD-760C-4653-9194-01F5F203D923}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AX5" sqref="AX5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6588,1113 +6643,1218 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="212" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="192" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="192" t="s">
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="192" t="s">
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="192" t="s">
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="212" t="s">
         <v>172</v>
       </c>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="193"/>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="193"/>
-      <c r="AK2" s="193"/>
-      <c r="AL2" s="193"/>
-      <c r="AM2" s="193"/>
-      <c r="AN2" s="193"/>
-      <c r="AO2" s="193"/>
-      <c r="AP2" s="193"/>
-      <c r="AQ2" s="193"/>
-      <c r="AR2" s="193"/>
-      <c r="AS2" s="193"/>
-      <c r="AT2" s="193"/>
-      <c r="AU2" s="193"/>
-      <c r="AV2" s="194"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="214"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="214"/>
+      <c r="AK2" s="214"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="214"/>
+      <c r="AQ2" s="214"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="214"/>
+      <c r="AT2" s="214"/>
+      <c r="AU2" s="214"/>
+      <c r="AV2" s="213"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="195">
+      <c r="A3" s="198">
         <v>1</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="196">
+      <c r="B3" s="198"/>
+      <c r="C3" s="209">
         <v>45446</v>
       </c>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="197" t="s">
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="211" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="198" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="198"/>
-      <c r="AJ3" s="198"/>
-      <c r="AK3" s="198"/>
-      <c r="AL3" s="198"/>
-      <c r="AM3" s="198"/>
-      <c r="AN3" s="198"/>
-      <c r="AO3" s="198"/>
-      <c r="AP3" s="198"/>
-      <c r="AQ3" s="198"/>
-      <c r="AR3" s="198"/>
-      <c r="AS3" s="198"/>
-      <c r="AT3" s="198"/>
-      <c r="AU3" s="198"/>
-      <c r="AV3" s="198"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197"/>
+      <c r="AK3" s="197"/>
+      <c r="AL3" s="197"/>
+      <c r="AM3" s="197"/>
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="197"/>
+      <c r="AP3" s="197"/>
+      <c r="AQ3" s="197"/>
+      <c r="AR3" s="197"/>
+      <c r="AS3" s="197"/>
+      <c r="AT3" s="197"/>
+      <c r="AU3" s="197"/>
+      <c r="AV3" s="197"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="195">
+      <c r="A4" s="198">
         <v>2</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="198"/>
-      <c r="AG4" s="198"/>
-      <c r="AH4" s="198"/>
-      <c r="AI4" s="198"/>
-      <c r="AJ4" s="198"/>
-      <c r="AK4" s="198"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="198"/>
-      <c r="AN4" s="198"/>
-      <c r="AO4" s="198"/>
-      <c r="AP4" s="198"/>
-      <c r="AQ4" s="198"/>
-      <c r="AR4" s="198"/>
-      <c r="AS4" s="198"/>
-      <c r="AT4" s="198"/>
-      <c r="AU4" s="198"/>
-      <c r="AV4" s="198"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="209">
+        <v>45447</v>
+      </c>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="211" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="197" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197" t="s">
+        <v>187</v>
+      </c>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="197"/>
+      <c r="AT4" s="197"/>
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="197"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="195">
+      <c r="A5" s="198">
         <v>3</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="198"/>
-      <c r="AK5" s="198"/>
-      <c r="AL5" s="198"/>
-      <c r="AM5" s="198"/>
-      <c r="AN5" s="198"/>
-      <c r="AO5" s="198"/>
-      <c r="AP5" s="198"/>
-      <c r="AQ5" s="198"/>
-      <c r="AR5" s="198"/>
-      <c r="AS5" s="198"/>
-      <c r="AT5" s="198"/>
-      <c r="AU5" s="198"/>
-      <c r="AV5" s="198"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="209">
+        <v>45448</v>
+      </c>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="211" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="197"/>
+      <c r="AT5" s="197"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="195">
+      <c r="A6" s="198">
         <v>4</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="198"/>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="198"/>
-      <c r="AF6" s="198"/>
-      <c r="AG6" s="198"/>
-      <c r="AH6" s="198"/>
-      <c r="AI6" s="198"/>
-      <c r="AJ6" s="198"/>
-      <c r="AK6" s="198"/>
-      <c r="AL6" s="198"/>
-      <c r="AM6" s="198"/>
-      <c r="AN6" s="198"/>
-      <c r="AO6" s="198"/>
-      <c r="AP6" s="198"/>
-      <c r="AQ6" s="198"/>
-      <c r="AR6" s="198"/>
-      <c r="AS6" s="198"/>
-      <c r="AT6" s="198"/>
-      <c r="AU6" s="198"/>
-      <c r="AV6" s="198"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="209">
+        <v>45448</v>
+      </c>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="211" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="197" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197" t="s">
+        <v>194</v>
+      </c>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="197"/>
+      <c r="AI6" s="197"/>
+      <c r="AJ6" s="197"/>
+      <c r="AK6" s="197"/>
+      <c r="AL6" s="197"/>
+      <c r="AM6" s="197"/>
+      <c r="AN6" s="197"/>
+      <c r="AO6" s="197"/>
+      <c r="AP6" s="197"/>
+      <c r="AQ6" s="197"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="197"/>
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="197"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="195">
+      <c r="A7" s="198">
         <v>5</v>
       </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AA7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="198"/>
-      <c r="AF7" s="198"/>
-      <c r="AG7" s="198"/>
-      <c r="AH7" s="198"/>
-      <c r="AI7" s="198"/>
-      <c r="AJ7" s="198"/>
-      <c r="AK7" s="198"/>
-      <c r="AL7" s="198"/>
-      <c r="AM7" s="198"/>
-      <c r="AN7" s="198"/>
-      <c r="AO7" s="198"/>
-      <c r="AP7" s="198"/>
-      <c r="AQ7" s="198"/>
-      <c r="AR7" s="198"/>
-      <c r="AS7" s="198"/>
-      <c r="AT7" s="198"/>
-      <c r="AU7" s="198"/>
-      <c r="AV7" s="198"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="197"/>
+      <c r="Q7" s="197"/>
+      <c r="R7" s="197"/>
+      <c r="S7" s="197"/>
+      <c r="T7" s="197"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="197"/>
+      <c r="AA7" s="197"/>
+      <c r="AB7" s="197"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="197"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
+      <c r="AH7" s="197"/>
+      <c r="AI7" s="197"/>
+      <c r="AJ7" s="197"/>
+      <c r="AK7" s="197"/>
+      <c r="AL7" s="197"/>
+      <c r="AM7" s="197"/>
+      <c r="AN7" s="197"/>
+      <c r="AO7" s="197"/>
+      <c r="AP7" s="197"/>
+      <c r="AQ7" s="197"/>
+      <c r="AR7" s="197"/>
+      <c r="AS7" s="197"/>
+      <c r="AT7" s="197"/>
+      <c r="AU7" s="197"/>
+      <c r="AV7" s="197"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="195">
+      <c r="A8" s="198">
         <v>6</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198"/>
-      <c r="AA8" s="198"/>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="198"/>
-      <c r="AE8" s="198"/>
-      <c r="AF8" s="198"/>
-      <c r="AG8" s="198"/>
-      <c r="AH8" s="198"/>
-      <c r="AI8" s="198"/>
-      <c r="AJ8" s="198"/>
-      <c r="AK8" s="198"/>
-      <c r="AL8" s="198"/>
-      <c r="AM8" s="198"/>
-      <c r="AN8" s="198"/>
-      <c r="AO8" s="198"/>
-      <c r="AP8" s="198"/>
-      <c r="AQ8" s="198"/>
-      <c r="AR8" s="198"/>
-      <c r="AS8" s="198"/>
-      <c r="AT8" s="198"/>
-      <c r="AU8" s="198"/>
-      <c r="AV8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="197"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="197"/>
+      <c r="AH8" s="197"/>
+      <c r="AI8" s="197"/>
+      <c r="AJ8" s="197"/>
+      <c r="AK8" s="197"/>
+      <c r="AL8" s="197"/>
+      <c r="AM8" s="197"/>
+      <c r="AN8" s="197"/>
+      <c r="AO8" s="197"/>
+      <c r="AP8" s="197"/>
+      <c r="AQ8" s="197"/>
+      <c r="AR8" s="197"/>
+      <c r="AS8" s="197"/>
+      <c r="AT8" s="197"/>
+      <c r="AU8" s="197"/>
+      <c r="AV8" s="197"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="195">
+      <c r="A9" s="198">
         <v>7</v>
       </c>
-      <c r="B9" s="195"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198"/>
-      <c r="V9" s="198"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="198"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="198"/>
-      <c r="AF9" s="198"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="198"/>
-      <c r="AI9" s="198"/>
-      <c r="AJ9" s="198"/>
-      <c r="AK9" s="198"/>
-      <c r="AL9" s="198"/>
-      <c r="AM9" s="198"/>
-      <c r="AN9" s="198"/>
-      <c r="AO9" s="198"/>
-      <c r="AP9" s="198"/>
-      <c r="AQ9" s="198"/>
-      <c r="AR9" s="198"/>
-      <c r="AS9" s="198"/>
-      <c r="AT9" s="198"/>
-      <c r="AU9" s="198"/>
-      <c r="AV9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197"/>
+      <c r="Q9" s="197"/>
+      <c r="R9" s="197"/>
+      <c r="S9" s="197"/>
+      <c r="T9" s="197"/>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="197"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="197"/>
+      <c r="AH9" s="197"/>
+      <c r="AI9" s="197"/>
+      <c r="AJ9" s="197"/>
+      <c r="AK9" s="197"/>
+      <c r="AL9" s="197"/>
+      <c r="AM9" s="197"/>
+      <c r="AN9" s="197"/>
+      <c r="AO9" s="197"/>
+      <c r="AP9" s="197"/>
+      <c r="AQ9" s="197"/>
+      <c r="AR9" s="197"/>
+      <c r="AS9" s="197"/>
+      <c r="AT9" s="197"/>
+      <c r="AU9" s="197"/>
+      <c r="AV9" s="197"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="195">
+      <c r="A10" s="198">
         <v>8</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="198"/>
-      <c r="V10" s="198"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="198"/>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="198"/>
-      <c r="AE10" s="198"/>
-      <c r="AF10" s="198"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="198"/>
-      <c r="AJ10" s="198"/>
-      <c r="AK10" s="198"/>
-      <c r="AL10" s="198"/>
-      <c r="AM10" s="198"/>
-      <c r="AN10" s="198"/>
-      <c r="AO10" s="198"/>
-      <c r="AP10" s="198"/>
-      <c r="AQ10" s="198"/>
-      <c r="AR10" s="198"/>
-      <c r="AS10" s="198"/>
-      <c r="AT10" s="198"/>
-      <c r="AU10" s="198"/>
-      <c r="AV10" s="198"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="197"/>
+      <c r="AI10" s="197"/>
+      <c r="AJ10" s="197"/>
+      <c r="AK10" s="197"/>
+      <c r="AL10" s="197"/>
+      <c r="AM10" s="197"/>
+      <c r="AN10" s="197"/>
+      <c r="AO10" s="197"/>
+      <c r="AP10" s="197"/>
+      <c r="AQ10" s="197"/>
+      <c r="AR10" s="197"/>
+      <c r="AS10" s="197"/>
+      <c r="AT10" s="197"/>
+      <c r="AU10" s="197"/>
+      <c r="AV10" s="197"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="195">
+      <c r="A11" s="198">
         <v>9</v>
       </c>
-      <c r="B11" s="195"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="198"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="198"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="198"/>
-      <c r="AJ11" s="198"/>
-      <c r="AK11" s="198"/>
-      <c r="AL11" s="198"/>
-      <c r="AM11" s="198"/>
-      <c r="AN11" s="198"/>
-      <c r="AO11" s="198"/>
-      <c r="AP11" s="198"/>
-      <c r="AQ11" s="198"/>
-      <c r="AR11" s="198"/>
-      <c r="AS11" s="198"/>
-      <c r="AT11" s="198"/>
-      <c r="AU11" s="198"/>
-      <c r="AV11" s="198"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="197"/>
+      <c r="AI11" s="197"/>
+      <c r="AJ11" s="197"/>
+      <c r="AK11" s="197"/>
+      <c r="AL11" s="197"/>
+      <c r="AM11" s="197"/>
+      <c r="AN11" s="197"/>
+      <c r="AO11" s="197"/>
+      <c r="AP11" s="197"/>
+      <c r="AQ11" s="197"/>
+      <c r="AR11" s="197"/>
+      <c r="AS11" s="197"/>
+      <c r="AT11" s="197"/>
+      <c r="AU11" s="197"/>
+      <c r="AV11" s="197"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="195">
+      <c r="A12" s="198">
         <v>10</v>
       </c>
-      <c r="B12" s="195"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="198"/>
-      <c r="AJ12" s="198"/>
-      <c r="AK12" s="198"/>
-      <c r="AL12" s="198"/>
-      <c r="AM12" s="198"/>
-      <c r="AN12" s="198"/>
-      <c r="AO12" s="198"/>
-      <c r="AP12" s="198"/>
-      <c r="AQ12" s="198"/>
-      <c r="AR12" s="198"/>
-      <c r="AS12" s="198"/>
-      <c r="AT12" s="198"/>
-      <c r="AU12" s="198"/>
-      <c r="AV12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="197"/>
+      <c r="AI12" s="197"/>
+      <c r="AJ12" s="197"/>
+      <c r="AK12" s="197"/>
+      <c r="AL12" s="197"/>
+      <c r="AM12" s="197"/>
+      <c r="AN12" s="197"/>
+      <c r="AO12" s="197"/>
+      <c r="AP12" s="197"/>
+      <c r="AQ12" s="197"/>
+      <c r="AR12" s="197"/>
+      <c r="AS12" s="197"/>
+      <c r="AT12" s="197"/>
+      <c r="AU12" s="197"/>
+      <c r="AV12" s="197"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="195">
+      <c r="A13" s="198">
         <v>11</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="198"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="198"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="198"/>
-      <c r="AJ13" s="198"/>
-      <c r="AK13" s="198"/>
-      <c r="AL13" s="198"/>
-      <c r="AM13" s="198"/>
-      <c r="AN13" s="198"/>
-      <c r="AO13" s="198"/>
-      <c r="AP13" s="198"/>
-      <c r="AQ13" s="198"/>
-      <c r="AR13" s="198"/>
-      <c r="AS13" s="198"/>
-      <c r="AT13" s="198"/>
-      <c r="AU13" s="198"/>
-      <c r="AV13" s="198"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="197"/>
+      <c r="R13" s="197"/>
+      <c r="S13" s="197"/>
+      <c r="T13" s="197"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
+      <c r="W13" s="197"/>
+      <c r="X13" s="197"/>
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="197"/>
+      <c r="AB13" s="197"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="197"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="197"/>
+      <c r="AG13" s="197"/>
+      <c r="AH13" s="197"/>
+      <c r="AI13" s="197"/>
+      <c r="AJ13" s="197"/>
+      <c r="AK13" s="197"/>
+      <c r="AL13" s="197"/>
+      <c r="AM13" s="197"/>
+      <c r="AN13" s="197"/>
+      <c r="AO13" s="197"/>
+      <c r="AP13" s="197"/>
+      <c r="AQ13" s="197"/>
+      <c r="AR13" s="197"/>
+      <c r="AS13" s="197"/>
+      <c r="AT13" s="197"/>
+      <c r="AU13" s="197"/>
+      <c r="AV13" s="197"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="195">
+      <c r="A14" s="198">
         <v>12</v>
       </c>
-      <c r="B14" s="195"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="198"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="198"/>
-      <c r="AJ14" s="198"/>
-      <c r="AK14" s="198"/>
-      <c r="AL14" s="198"/>
-      <c r="AM14" s="198"/>
-      <c r="AN14" s="198"/>
-      <c r="AO14" s="198"/>
-      <c r="AP14" s="198"/>
-      <c r="AQ14" s="198"/>
-      <c r="AR14" s="198"/>
-      <c r="AS14" s="198"/>
-      <c r="AT14" s="198"/>
-      <c r="AU14" s="198"/>
-      <c r="AV14" s="198"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="197"/>
+      <c r="R14" s="197"/>
+      <c r="S14" s="197"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="197"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="197"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="197"/>
+      <c r="AD14" s="197"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="197"/>
+      <c r="AG14" s="197"/>
+      <c r="AH14" s="197"/>
+      <c r="AI14" s="197"/>
+      <c r="AJ14" s="197"/>
+      <c r="AK14" s="197"/>
+      <c r="AL14" s="197"/>
+      <c r="AM14" s="197"/>
+      <c r="AN14" s="197"/>
+      <c r="AO14" s="197"/>
+      <c r="AP14" s="197"/>
+      <c r="AQ14" s="197"/>
+      <c r="AR14" s="197"/>
+      <c r="AS14" s="197"/>
+      <c r="AT14" s="197"/>
+      <c r="AU14" s="197"/>
+      <c r="AV14" s="197"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="195">
+      <c r="A15" s="198">
         <v>13</v>
       </c>
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="198"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="198"/>
-      <c r="AJ15" s="198"/>
-      <c r="AK15" s="198"/>
-      <c r="AL15" s="198"/>
-      <c r="AM15" s="198"/>
-      <c r="AN15" s="198"/>
-      <c r="AO15" s="198"/>
-      <c r="AP15" s="198"/>
-      <c r="AQ15" s="198"/>
-      <c r="AR15" s="198"/>
-      <c r="AS15" s="198"/>
-      <c r="AT15" s="198"/>
-      <c r="AU15" s="198"/>
-      <c r="AV15" s="198"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="197"/>
+      <c r="AJ15" s="197"/>
+      <c r="AK15" s="197"/>
+      <c r="AL15" s="197"/>
+      <c r="AM15" s="197"/>
+      <c r="AN15" s="197"/>
+      <c r="AO15" s="197"/>
+      <c r="AP15" s="197"/>
+      <c r="AQ15" s="197"/>
+      <c r="AR15" s="197"/>
+      <c r="AS15" s="197"/>
+      <c r="AT15" s="197"/>
+      <c r="AU15" s="197"/>
+      <c r="AV15" s="197"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="195">
+      <c r="A16" s="198">
         <v>14</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="198"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="198"/>
-      <c r="Z16" s="198"/>
-      <c r="AA16" s="198"/>
-      <c r="AB16" s="198"/>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="198"/>
-      <c r="AE16" s="198"/>
-      <c r="AF16" s="198"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="198"/>
-      <c r="AJ16" s="198"/>
-      <c r="AK16" s="198"/>
-      <c r="AL16" s="198"/>
-      <c r="AM16" s="198"/>
-      <c r="AN16" s="198"/>
-      <c r="AO16" s="198"/>
-      <c r="AP16" s="198"/>
-      <c r="AQ16" s="198"/>
-      <c r="AR16" s="198"/>
-      <c r="AS16" s="198"/>
-      <c r="AT16" s="198"/>
-      <c r="AU16" s="198"/>
-      <c r="AV16" s="198"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="197"/>
+      <c r="AJ16" s="197"/>
+      <c r="AK16" s="197"/>
+      <c r="AL16" s="197"/>
+      <c r="AM16" s="197"/>
+      <c r="AN16" s="197"/>
+      <c r="AO16" s="197"/>
+      <c r="AP16" s="197"/>
+      <c r="AQ16" s="197"/>
+      <c r="AR16" s="197"/>
+      <c r="AS16" s="197"/>
+      <c r="AT16" s="197"/>
+      <c r="AU16" s="197"/>
+      <c r="AV16" s="197"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="195">
+      <c r="A17" s="198">
         <v>15</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="200"/>
-      <c r="S17" s="200"/>
-      <c r="T17" s="200"/>
-      <c r="U17" s="200"/>
-      <c r="V17" s="200"/>
-      <c r="W17" s="198"/>
-      <c r="X17" s="198"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="198"/>
-      <c r="AA17" s="198"/>
-      <c r="AB17" s="198"/>
-      <c r="AC17" s="198"/>
-      <c r="AD17" s="198"/>
-      <c r="AE17" s="198"/>
-      <c r="AF17" s="198"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="198"/>
-      <c r="AJ17" s="198"/>
-      <c r="AK17" s="198"/>
-      <c r="AL17" s="198"/>
-      <c r="AM17" s="198"/>
-      <c r="AN17" s="198"/>
-      <c r="AO17" s="198"/>
-      <c r="AP17" s="198"/>
-      <c r="AQ17" s="198"/>
-      <c r="AR17" s="198"/>
-      <c r="AS17" s="198"/>
-      <c r="AT17" s="198"/>
-      <c r="AU17" s="198"/>
-      <c r="AV17" s="198"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="205"/>
+      <c r="N17" s="205"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="205"/>
+      <c r="Q17" s="205"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="205"/>
+      <c r="T17" s="205"/>
+      <c r="U17" s="205"/>
+      <c r="V17" s="205"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="197"/>
+      <c r="AI17" s="197"/>
+      <c r="AJ17" s="197"/>
+      <c r="AK17" s="197"/>
+      <c r="AL17" s="197"/>
+      <c r="AM17" s="197"/>
+      <c r="AN17" s="197"/>
+      <c r="AO17" s="197"/>
+      <c r="AP17" s="197"/>
+      <c r="AQ17" s="197"/>
+      <c r="AR17" s="197"/>
+      <c r="AS17" s="197"/>
+      <c r="AT17" s="197"/>
+      <c r="AU17" s="197"/>
+      <c r="AV17" s="197"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="195">
+      <c r="A18" s="198">
         <v>16</v>
       </c>
-      <c r="B18" s="195"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="200"/>
-      <c r="S18" s="200"/>
-      <c r="T18" s="200"/>
-      <c r="U18" s="200"/>
-      <c r="V18" s="200"/>
-      <c r="W18" s="198"/>
-      <c r="X18" s="198"/>
-      <c r="Y18" s="198"/>
-      <c r="Z18" s="198"/>
-      <c r="AA18" s="198"/>
-      <c r="AB18" s="198"/>
-      <c r="AC18" s="198"/>
-      <c r="AD18" s="198"/>
-      <c r="AE18" s="198"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="198"/>
-      <c r="AJ18" s="198"/>
-      <c r="AK18" s="198"/>
-      <c r="AL18" s="198"/>
-      <c r="AM18" s="198"/>
-      <c r="AN18" s="198"/>
-      <c r="AO18" s="198"/>
-      <c r="AP18" s="198"/>
-      <c r="AQ18" s="198"/>
-      <c r="AR18" s="198"/>
-      <c r="AS18" s="198"/>
-      <c r="AT18" s="198"/>
-      <c r="AU18" s="198"/>
-      <c r="AV18" s="198"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="197"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="197"/>
+      <c r="AI18" s="197"/>
+      <c r="AJ18" s="197"/>
+      <c r="AK18" s="197"/>
+      <c r="AL18" s="197"/>
+      <c r="AM18" s="197"/>
+      <c r="AN18" s="197"/>
+      <c r="AO18" s="197"/>
+      <c r="AP18" s="197"/>
+      <c r="AQ18" s="197"/>
+      <c r="AR18" s="197"/>
+      <c r="AS18" s="197"/>
+      <c r="AT18" s="197"/>
+      <c r="AU18" s="197"/>
+      <c r="AV18" s="197"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="195">
+      <c r="A19" s="198">
         <v>17</v>
       </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="200"/>
-      <c r="T19" s="200"/>
-      <c r="U19" s="200"/>
-      <c r="V19" s="200"/>
-      <c r="W19" s="207"/>
-      <c r="X19" s="208"/>
-      <c r="Y19" s="208"/>
-      <c r="Z19" s="208"/>
-      <c r="AA19" s="208"/>
-      <c r="AB19" s="208"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="208"/>
-      <c r="AE19" s="208"/>
-      <c r="AF19" s="208"/>
-      <c r="AG19" s="208"/>
-      <c r="AH19" s="208"/>
-      <c r="AI19" s="208"/>
-      <c r="AJ19" s="208"/>
-      <c r="AK19" s="208"/>
-      <c r="AL19" s="208"/>
-      <c r="AM19" s="208"/>
-      <c r="AN19" s="208"/>
-      <c r="AO19" s="208"/>
-      <c r="AP19" s="208"/>
-      <c r="AQ19" s="208"/>
-      <c r="AR19" s="208"/>
-      <c r="AS19" s="208"/>
-      <c r="AT19" s="208"/>
-      <c r="AU19" s="208"/>
-      <c r="AV19" s="209"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="205"/>
+      <c r="W19" s="206"/>
+      <c r="X19" s="207"/>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="207"/>
+      <c r="AC19" s="207"/>
+      <c r="AD19" s="207"/>
+      <c r="AE19" s="207"/>
+      <c r="AF19" s="207"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="207"/>
+      <c r="AJ19" s="207"/>
+      <c r="AK19" s="207"/>
+      <c r="AL19" s="207"/>
+      <c r="AM19" s="207"/>
+      <c r="AN19" s="207"/>
+      <c r="AO19" s="207"/>
+      <c r="AP19" s="207"/>
+      <c r="AQ19" s="207"/>
+      <c r="AR19" s="207"/>
+      <c r="AS19" s="207"/>
+      <c r="AT19" s="207"/>
+      <c r="AU19" s="207"/>
+      <c r="AV19" s="208"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="195">
+      <c r="A20" s="198">
         <v>18</v>
       </c>
-      <c r="B20" s="195"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="206"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="208"/>
-      <c r="Q20" s="208"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208"/>
-      <c r="U20" s="208"/>
-      <c r="V20" s="209"/>
-      <c r="W20" s="207"/>
-      <c r="X20" s="208"/>
-      <c r="Y20" s="208"/>
-      <c r="Z20" s="208"/>
-      <c r="AA20" s="208"/>
-      <c r="AB20" s="208"/>
-      <c r="AC20" s="208"/>
-      <c r="AD20" s="208"/>
-      <c r="AE20" s="208"/>
-      <c r="AF20" s="208"/>
-      <c r="AG20" s="208"/>
-      <c r="AH20" s="208"/>
-      <c r="AI20" s="208"/>
-      <c r="AJ20" s="208"/>
-      <c r="AK20" s="208"/>
-      <c r="AL20" s="208"/>
-      <c r="AM20" s="208"/>
-      <c r="AN20" s="208"/>
-      <c r="AO20" s="208"/>
-      <c r="AP20" s="208"/>
-      <c r="AQ20" s="208"/>
-      <c r="AR20" s="208"/>
-      <c r="AS20" s="208"/>
-      <c r="AT20" s="208"/>
-      <c r="AU20" s="208"/>
-      <c r="AV20" s="209"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="206"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="208"/>
+      <c r="W20" s="206"/>
+      <c r="X20" s="207"/>
+      <c r="Y20" s="207"/>
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="207"/>
+      <c r="AB20" s="207"/>
+      <c r="AC20" s="207"/>
+      <c r="AD20" s="207"/>
+      <c r="AE20" s="207"/>
+      <c r="AF20" s="207"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="207"/>
+      <c r="AI20" s="207"/>
+      <c r="AJ20" s="207"/>
+      <c r="AK20" s="207"/>
+      <c r="AL20" s="207"/>
+      <c r="AM20" s="207"/>
+      <c r="AN20" s="207"/>
+      <c r="AO20" s="207"/>
+      <c r="AP20" s="207"/>
+      <c r="AQ20" s="207"/>
+      <c r="AR20" s="207"/>
+      <c r="AS20" s="207"/>
+      <c r="AT20" s="207"/>
+      <c r="AU20" s="207"/>
+      <c r="AV20" s="208"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="195">
+      <c r="A21" s="198">
         <v>19</v>
       </c>
-      <c r="B21" s="195"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="206"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="208"/>
-      <c r="Q21" s="208"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="208"/>
-      <c r="U21" s="208"/>
-      <c r="V21" s="209"/>
-      <c r="W21" s="207"/>
-      <c r="X21" s="208"/>
-      <c r="Y21" s="208"/>
-      <c r="Z21" s="208"/>
-      <c r="AA21" s="208"/>
-      <c r="AB21" s="208"/>
-      <c r="AC21" s="208"/>
-      <c r="AD21" s="208"/>
-      <c r="AE21" s="208"/>
-      <c r="AF21" s="208"/>
-      <c r="AG21" s="208"/>
-      <c r="AH21" s="208"/>
-      <c r="AI21" s="208"/>
-      <c r="AJ21" s="208"/>
-      <c r="AK21" s="208"/>
-      <c r="AL21" s="208"/>
-      <c r="AM21" s="208"/>
-      <c r="AN21" s="208"/>
-      <c r="AO21" s="208"/>
-      <c r="AP21" s="208"/>
-      <c r="AQ21" s="208"/>
-      <c r="AR21" s="208"/>
-      <c r="AS21" s="208"/>
-      <c r="AT21" s="208"/>
-      <c r="AU21" s="208"/>
-      <c r="AV21" s="209"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+      <c r="S21" s="207"/>
+      <c r="T21" s="207"/>
+      <c r="U21" s="207"/>
+      <c r="V21" s="208"/>
+      <c r="W21" s="206"/>
+      <c r="X21" s="207"/>
+      <c r="Y21" s="207"/>
+      <c r="Z21" s="207"/>
+      <c r="AA21" s="207"/>
+      <c r="AB21" s="207"/>
+      <c r="AC21" s="207"/>
+      <c r="AD21" s="207"/>
+      <c r="AE21" s="207"/>
+      <c r="AF21" s="207"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="207"/>
+      <c r="AJ21" s="207"/>
+      <c r="AK21" s="207"/>
+      <c r="AL21" s="207"/>
+      <c r="AM21" s="207"/>
+      <c r="AN21" s="207"/>
+      <c r="AO21" s="207"/>
+      <c r="AP21" s="207"/>
+      <c r="AQ21" s="207"/>
+      <c r="AR21" s="207"/>
+      <c r="AS21" s="207"/>
+      <c r="AT21" s="207"/>
+      <c r="AU21" s="207"/>
+      <c r="AV21" s="208"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="198">
+      <c r="A22" s="197">
         <v>20</v>
       </c>
-      <c r="B22" s="198"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="207"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="208"/>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="208"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208"/>
-      <c r="U22" s="208"/>
-      <c r="V22" s="209"/>
-      <c r="W22" s="207"/>
-      <c r="X22" s="208"/>
-      <c r="Y22" s="208"/>
-      <c r="Z22" s="208"/>
-      <c r="AA22" s="208"/>
-      <c r="AB22" s="208"/>
-      <c r="AC22" s="208"/>
-      <c r="AD22" s="208"/>
-      <c r="AE22" s="208"/>
-      <c r="AF22" s="208"/>
-      <c r="AG22" s="208"/>
-      <c r="AH22" s="208"/>
-      <c r="AI22" s="208"/>
-      <c r="AJ22" s="208"/>
-      <c r="AK22" s="208"/>
-      <c r="AL22" s="208"/>
-      <c r="AM22" s="208"/>
-      <c r="AN22" s="208"/>
-      <c r="AO22" s="208"/>
-      <c r="AP22" s="208"/>
-      <c r="AQ22" s="208"/>
-      <c r="AR22" s="208"/>
-      <c r="AS22" s="208"/>
-      <c r="AT22" s="208"/>
-      <c r="AU22" s="208"/>
-      <c r="AV22" s="209"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="207"/>
+      <c r="Q22" s="207"/>
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207"/>
+      <c r="U22" s="207"/>
+      <c r="V22" s="208"/>
+      <c r="W22" s="206"/>
+      <c r="X22" s="207"/>
+      <c r="Y22" s="207"/>
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="207"/>
+      <c r="AB22" s="207"/>
+      <c r="AC22" s="207"/>
+      <c r="AD22" s="207"/>
+      <c r="AE22" s="207"/>
+      <c r="AF22" s="207"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="207"/>
+      <c r="AI22" s="207"/>
+      <c r="AJ22" s="207"/>
+      <c r="AK22" s="207"/>
+      <c r="AL22" s="207"/>
+      <c r="AM22" s="207"/>
+      <c r="AN22" s="207"/>
+      <c r="AO22" s="207"/>
+      <c r="AP22" s="207"/>
+      <c r="AQ22" s="207"/>
+      <c r="AR22" s="207"/>
+      <c r="AS22" s="207"/>
+      <c r="AT22" s="207"/>
+      <c r="AU22" s="207"/>
+      <c r="AV22" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="W2:AV2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="W3:AV3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="W4:AV4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:V5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="W7:AV7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="W8:AV8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:V10"/>
+    <mergeCell ref="W10:AV10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="W11:AV11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="W12:AV12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:AV13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="W14:AV14"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:V17"/>
+    <mergeCell ref="W17:AV17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="W18:AV18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="W15:AV15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="W16:AV16"/>
     <mergeCell ref="W5:AV5"/>
     <mergeCell ref="W6:AV6"/>
     <mergeCell ref="A19:B19"/>
@@ -7719,87 +7879,6 @@
     <mergeCell ref="W21:AV21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:V17"/>
-    <mergeCell ref="W17:AV17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="W18:AV18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:V15"/>
-    <mergeCell ref="W15:AV15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:V16"/>
-    <mergeCell ref="W16:AV16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:AV13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:V14"/>
-    <mergeCell ref="W14:AV14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="W11:AV11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:V12"/>
-    <mergeCell ref="W12:AV12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="W10:AV10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="W7:AV7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="W8:AV8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:V5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="W2:AV2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="W3:AV3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:V4"/>
-    <mergeCell ref="W4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7819,6 +7898,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -8013,17 +8103,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
   <ds:schemaRefs>
@@ -8033,9 +8112,31 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC442933-C3C2-4B5D-A049-FC5092D86F83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC442933-C3C2-4B5D-A049-FC5092D86F83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E978F8-E57C-4908-93B2-B820E09D2243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF9B4BB-A6AB-4A62-8449-FFA6CB560451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="22032" windowHeight="9396" firstSheet="1" activeTab="8" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="195">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -758,10 +758,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>stamp_revision</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>打刻修正のステータスを保持する</t>
     <rPh sb="0" eb="2">
       <t>ダコク</t>
@@ -816,10 +812,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>revision→rev</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修正退勤時間</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -1105,6 +1097,14 @@
     <rPh sb="25" eb="27">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stamp_rev_req</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stamp_rev</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1890,6 +1890,234 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1899,234 +2127,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2163,8 +2163,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2183,28 +2202,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -2548,25 +2548,25 @@
       <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="50" max="50" width="29.69921875" customWidth="1"/>
+    <col min="50" max="50" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A2" s="170" t="s">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2582,53 +2582,53 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="173" t="s">
+      <c r="T2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="176" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="173" t="s">
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="179">
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="122">
         <v>45447</v>
       </c>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="180"/>
-      <c r="AO2" s="180"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="181"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="124"/>
       <c r="AT2" s="95"/>
       <c r="AU2" s="95"/>
       <c r="AV2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="A3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
@@ -2644,36 +2644,36 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="173" t="s">
+      <c r="T3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="173" t="s">
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
-      <c r="AN3" s="183"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="183"/>
-      <c r="AQ3" s="184"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="126"/>
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="127"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2717,1106 +2717,1144 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="159" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="159" t="s">
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="159" t="s">
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="159" t="s">
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="159" t="s">
+      <c r="W5" s="111"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="159" t="s">
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="161"/>
-      <c r="AO5" s="159" t="s">
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="161"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="112"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="109" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="148" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="109" t="s">
+      <c r="Q6" s="166"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="110"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="109">
+      <c r="T6" s="166"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="165">
         <v>100</v>
       </c>
-      <c r="W6" s="110"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="109" t="s">
+      <c r="W6" s="166"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="150"/>
+      <c r="AJ6" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="108"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="182"/>
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="183"/>
+      <c r="AT6" s="183"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="183"/>
+      <c r="AW6" s="183"/>
+      <c r="AX6" s="184"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="112" t="s">
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="109" t="s">
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="109" t="s">
+      <c r="Q7" s="166"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="110"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="109">
+      <c r="T7" s="166"/>
+      <c r="U7" s="167"/>
+      <c r="V7" s="165">
         <v>10000</v>
       </c>
-      <c r="W7" s="110"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="114"/>
-      <c r="AJ7" s="109" t="s">
+      <c r="W7" s="166"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="110"/>
-      <c r="AL7" s="110"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="108"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK7" s="166"/>
+      <c r="AL7" s="166"/>
+      <c r="AM7" s="166"/>
+      <c r="AN7" s="167"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="183"/>
+      <c r="AQ7" s="183"/>
+      <c r="AR7" s="183"/>
+      <c r="AS7" s="183"/>
+      <c r="AT7" s="183"/>
+      <c r="AU7" s="183"/>
+      <c r="AV7" s="183"/>
+      <c r="AW7" s="183"/>
+      <c r="AX7" s="184"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="112" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="109" t="s">
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="109" t="s">
+      <c r="Q8" s="166"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="110"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="109">
+      <c r="T8" s="166"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="165">
         <v>500</v>
       </c>
-      <c r="W8" s="110"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="109" t="s">
+      <c r="W8" s="166"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
+      <c r="AJ8" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="108"/>
-    </row>
-    <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="167"/>
+      <c r="AO8" s="182"/>
+      <c r="AP8" s="183"/>
+      <c r="AQ8" s="183"/>
+      <c r="AR8" s="183"/>
+      <c r="AS8" s="183"/>
+      <c r="AT8" s="183"/>
+      <c r="AU8" s="183"/>
+      <c r="AV8" s="183"/>
+      <c r="AW8" s="183"/>
+      <c r="AX8" s="184"/>
+    </row>
+    <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="125" t="s">
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="128" t="s">
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="128" t="s">
+      <c r="Q9" s="132"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="129"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="128">
+      <c r="T9" s="132"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="131">
         <v>500</v>
       </c>
-      <c r="W9" s="129"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="128" t="s">
+      <c r="W9" s="132"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="147"/>
+      <c r="AJ9" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="129"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="108"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK9" s="132"/>
+      <c r="AL9" s="132"/>
+      <c r="AM9" s="132"/>
+      <c r="AN9" s="133"/>
+      <c r="AO9" s="182"/>
+      <c r="AP9" s="183"/>
+      <c r="AQ9" s="183"/>
+      <c r="AR9" s="183"/>
+      <c r="AS9" s="183"/>
+      <c r="AT9" s="183"/>
+      <c r="AU9" s="183"/>
+      <c r="AV9" s="183"/>
+      <c r="AW9" s="183"/>
+      <c r="AX9" s="184"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128" t="s">
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="128" t="s">
+      <c r="Q10" s="132"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="129"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="109">
+      <c r="T10" s="132"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="165">
         <v>10000</v>
       </c>
-      <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="128" t="s">
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="150"/>
+      <c r="AJ10" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="152"/>
-      <c r="AQ10" s="152"/>
-      <c r="AR10" s="152"/>
-      <c r="AS10" s="152"/>
-      <c r="AT10" s="152"/>
-      <c r="AU10" s="152"/>
-      <c r="AV10" s="152"/>
-      <c r="AW10" s="152"/>
-      <c r="AX10" s="153"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="133"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="129"/>
+      <c r="AQ10" s="129"/>
+      <c r="AR10" s="129"/>
+      <c r="AS10" s="129"/>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="129"/>
+      <c r="AV10" s="129"/>
+      <c r="AW10" s="129"/>
+      <c r="AX10" s="130"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11" s="98">
         <v>6</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="136" t="s">
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="139" t="s">
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="139" t="s">
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="140"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="164">
+      <c r="T11" s="157"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="159">
         <v>10000</v>
       </c>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="138"/>
-      <c r="AJ11" s="139" t="s">
+      <c r="W11" s="160"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="155"/>
+      <c r="AJ11" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="140"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="140"/>
-      <c r="AN11" s="141"/>
-      <c r="AO11" s="142"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
-      <c r="AX11" s="144"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK11" s="157"/>
+      <c r="AL11" s="157"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="158"/>
+      <c r="AO11" s="168"/>
+      <c r="AP11" s="169"/>
+      <c r="AQ11" s="169"/>
+      <c r="AR11" s="169"/>
+      <c r="AS11" s="169"/>
+      <c r="AT11" s="169"/>
+      <c r="AU11" s="169"/>
+      <c r="AV11" s="169"/>
+      <c r="AW11" s="169"/>
+      <c r="AX11" s="170"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A12" s="99">
         <v>7</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="133" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="145" t="s">
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="145" t="s">
+      <c r="Q12" s="140"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="146"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="156">
+      <c r="T12" s="140"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="142">
         <v>500</v>
       </c>
-      <c r="W12" s="157"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="145" t="s">
+      <c r="W12" s="143"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="138"/>
+      <c r="AJ12" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="147"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="149"/>
-      <c r="AQ12" s="149"/>
-      <c r="AR12" s="149"/>
-      <c r="AS12" s="149"/>
-      <c r="AT12" s="149"/>
-      <c r="AU12" s="149"/>
-      <c r="AV12" s="149"/>
-      <c r="AW12" s="149"/>
-      <c r="AX12" s="150"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="140"/>
+      <c r="AM12" s="140"/>
+      <c r="AN12" s="141"/>
+      <c r="AO12" s="171"/>
+      <c r="AP12" s="172"/>
+      <c r="AQ12" s="172"/>
+      <c r="AR12" s="172"/>
+      <c r="AS12" s="172"/>
+      <c r="AT12" s="172"/>
+      <c r="AU12" s="172"/>
+      <c r="AV12" s="172"/>
+      <c r="AW12" s="172"/>
+      <c r="AX12" s="173"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="118"/>
-      <c r="AW13" s="118"/>
-      <c r="AX13" s="118"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="109"/>
+      <c r="AM13" s="109"/>
+      <c r="AN13" s="109"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="118"/>
-      <c r="AU14" s="118"/>
-      <c r="AV14" s="118"/>
-      <c r="AW14" s="118"/>
-      <c r="AX14" s="118"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="109"/>
+      <c r="AM14" s="109"/>
+      <c r="AN14" s="109"/>
+      <c r="AO14" s="106"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="106"/>
+      <c r="AU14" s="106"/>
+      <c r="AV14" s="106"/>
+      <c r="AW14" s="106"/>
+      <c r="AX14" s="106"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="108"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="108"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="109"/>
+      <c r="AM15" s="109"/>
+      <c r="AN15" s="109"/>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="106"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="106"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="119"/>
-      <c r="AL16" s="119"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="119"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="109"/>
+      <c r="AM16" s="109"/>
+      <c r="AN16" s="109"/>
+      <c r="AO16" s="106"/>
+      <c r="AP16" s="106"/>
+      <c r="AQ16" s="106"/>
+      <c r="AR16" s="106"/>
+      <c r="AS16" s="106"/>
+      <c r="AT16" s="106"/>
+      <c r="AU16" s="106"/>
+      <c r="AV16" s="106"/>
+      <c r="AW16" s="106"/>
+      <c r="AX16" s="106"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="118"/>
-      <c r="AU17" s="118"/>
-      <c r="AV17" s="118"/>
-      <c r="AW17" s="118"/>
-      <c r="AX17" s="118"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="109"/>
+      <c r="AM17" s="109"/>
+      <c r="AN17" s="109"/>
+      <c r="AO17" s="106"/>
+      <c r="AP17" s="106"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="106"/>
+      <c r="AU17" s="106"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="106"/>
+      <c r="AX17" s="106"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="119"/>
-      <c r="AL18" s="119"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="119"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="118"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="118"/>
-      <c r="AW18" s="118"/>
-      <c r="AX18" s="118"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="109"/>
+      <c r="AK18" s="109"/>
+      <c r="AL18" s="109"/>
+      <c r="AM18" s="109"/>
+      <c r="AN18" s="109"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="119"/>
-      <c r="AL19" s="119"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="118"/>
-      <c r="AT19" s="118"/>
-      <c r="AU19" s="118"/>
-      <c r="AV19" s="118"/>
-      <c r="AW19" s="118"/>
-      <c r="AX19" s="118"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="108"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="109"/>
+      <c r="AK19" s="109"/>
+      <c r="AL19" s="109"/>
+      <c r="AM19" s="109"/>
+      <c r="AN19" s="109"/>
+      <c r="AO19" s="106"/>
+      <c r="AP19" s="106"/>
+      <c r="AQ19" s="106"/>
+      <c r="AR19" s="106"/>
+      <c r="AS19" s="106"/>
+      <c r="AT19" s="106"/>
+      <c r="AU19" s="106"/>
+      <c r="AV19" s="106"/>
+      <c r="AW19" s="106"/>
+      <c r="AX19" s="106"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A20" s="17"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="119"/>
-      <c r="AL20" s="119"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="118"/>
-      <c r="AU20" s="118"/>
-      <c r="AV20" s="118"/>
-      <c r="AW20" s="118"/>
-      <c r="AX20" s="118"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="109"/>
+      <c r="AM20" s="109"/>
+      <c r="AN20" s="109"/>
+      <c r="AO20" s="106"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="106"/>
+      <c r="AR20" s="106"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="106"/>
+      <c r="AU20" s="106"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="106"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="119"/>
-      <c r="AK21" s="119"/>
-      <c r="AL21" s="119"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="118"/>
-      <c r="AU21" s="118"/>
-      <c r="AV21" s="118"/>
-      <c r="AW21" s="118"/>
-      <c r="AX21" s="118"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="109"/>
+      <c r="AM21" s="109"/>
+      <c r="AN21" s="109"/>
+      <c r="AO21" s="106"/>
+      <c r="AP21" s="106"/>
+      <c r="AQ21" s="106"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="106"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="106"/>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A22" s="17"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="119"/>
-      <c r="AK22" s="119"/>
-      <c r="AL22" s="119"/>
-      <c r="AM22" s="119"/>
-      <c r="AN22" s="119"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
-      <c r="AS22" s="118"/>
-      <c r="AT22" s="118"/>
-      <c r="AU22" s="118"/>
-      <c r="AV22" s="118"/>
-      <c r="AW22" s="118"/>
-      <c r="AX22" s="118"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="109"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="109"/>
+      <c r="AM22" s="109"/>
+      <c r="AN22" s="109"/>
+      <c r="AO22" s="106"/>
+      <c r="AP22" s="106"/>
+      <c r="AQ22" s="106"/>
+      <c r="AR22" s="106"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="106"/>
+      <c r="AU22" s="106"/>
+      <c r="AV22" s="106"/>
+      <c r="AW22" s="106"/>
+      <c r="AX22" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="AO20:AX20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AI21"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AX21"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
-    <mergeCell ref="AO19:AX19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AX18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO5:AX5"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO9:AX9"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AO7:AX7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="Y7:AI7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AX6"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="AO8:AX8"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO22:AX22"/>
+    <mergeCell ref="AJ15:AN15"/>
+    <mergeCell ref="AO15:AX15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="AO13:AX13"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AI13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AI22"/>
+    <mergeCell ref="AJ22:AN22"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="Y19:AI19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AI17"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="Y12:AI12"/>
+    <mergeCell ref="Y11:AI11"/>
+    <mergeCell ref="AO16:AX16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AO17:AX17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AI16"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AX11"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AX12"/>
+    <mergeCell ref="Y15:AI15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AI14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AX14"/>
     <mergeCell ref="AO10:AX10"/>
     <mergeCell ref="AJ10:AN10"/>
     <mergeCell ref="B12:H12"/>
@@ -3841,90 +3879,52 @@
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AX11"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AX12"/>
-    <mergeCell ref="Y15:AI15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AI14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AX14"/>
-    <mergeCell ref="AO16:AX16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AO17:AX17"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AI16"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="Y19:AI19"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AI17"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="Y12:AI12"/>
-    <mergeCell ref="Y11:AI11"/>
-    <mergeCell ref="AO22:AX22"/>
-    <mergeCell ref="AJ15:AN15"/>
-    <mergeCell ref="AO15:AX15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="AO13:AX13"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AI13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AI22"/>
-    <mergeCell ref="AJ22:AN22"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="AO8:AX8"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AO9:AX9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AO7:AX7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="Y7:AI7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Y6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AX6"/>
+    <mergeCell ref="AO5:AX5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO19:AX19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AX18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO20:AX20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AI21"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AX21"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3951,19 +3951,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.8984375" customWidth="1"/>
-    <col min="9" max="11" width="5.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="9" max="11" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -3999,13 +3999,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -4021,7 +4021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>41</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4045,7 +4045,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -4080,13 +4080,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -4098,7 +4098,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <f>ROW()-6</f>
         <v>2</v>
@@ -4119,7 +4119,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <f t="shared" ref="A9:A18" si="0">ROW()-6</f>
         <v>3</v>
@@ -4140,7 +4140,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4161,13 +4161,13 @@
       <c r="G10" s="21"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>62</v>
@@ -4182,7 +4182,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4191,7 +4191,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>57</v>
@@ -4203,7 +4203,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="104"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4226,7 +4226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <f>ROW()-6</f>
         <v>8</v>
@@ -4251,7 +4251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
         <f>ROW()-6</f>
         <v>9</v>
@@ -4272,7 +4272,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <f>ROW()-6</f>
         <v>10</v>
@@ -4293,7 +4293,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4302,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>66</v>
@@ -4314,7 +4314,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4323,7 +4323,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>66</v>
@@ -4359,20 +4359,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.09765625" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="G4" s="196"/>
       <c r="H4" s="196"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="77"/>
@@ -4454,7 +4454,7 @@
       <c r="G5" s="77"/>
       <c r="H5" s="77"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f t="shared" ref="A8:A13" si="0">ROW()-6</f>
         <v>2</v>
@@ -4516,7 +4516,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>51</v>
@@ -4528,7 +4528,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="53"/>
     </row>
-    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>3</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4573,7 +4573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4594,7 +4594,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4617,7 +4617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4667,19 +4667,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.69921875" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4757,7 +4757,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <f t="shared" ref="A8:A14" si="0">ROW()-6</f>
         <v>2</v>
@@ -4831,7 +4831,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4852,7 +4852,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4871,7 +4871,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4892,7 +4892,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4913,7 +4913,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="78">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4922,7 +4922,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>66</v>
@@ -4934,7 +4934,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="84">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4943,7 +4943,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>66</v>
@@ -4955,7 +4955,7 @@
       <c r="G14" s="59"/>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="79"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -4965,25 +4965,25 @@
       <c r="G15" s="17"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="79"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="79"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="F18" s="82"/>
       <c r="G18" s="82"/>
       <c r="H18" s="83"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="81"/>
       <c r="F19" s="82"/>
       <c r="G19" s="82"/>
@@ -5010,24 +5010,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3279D981-6000-4248-B6A8-05320C7DA179}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="11" width="5.69921875" customWidth="1"/>
+    <col min="9" max="11" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="G4" s="193"/>
       <c r="H4" s="193"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5109,7 +5109,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -5150,7 +5150,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -5162,7 +5162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f>ROW()-6</f>
         <v>2</v>
@@ -5171,7 +5171,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
@@ -5183,7 +5183,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <f t="shared" ref="A9:A13" si="0">ROW()-6</f>
         <v>3</v>
@@ -5206,7 +5206,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5227,7 +5227,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5248,7 +5248,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="78">
         <v>8</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>66</v>
@@ -5269,7 +5269,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="87">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5278,7 +5278,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>66</v>
@@ -5291,29 +5291,29 @@
       <c r="G13" s="90"/>
       <c r="H13" s="89"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="79"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="79"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="13"/>
@@ -5322,17 +5322,17 @@
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -5359,24 +5359,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C145D2F-551F-4942-800F-32061A24AAC0}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="11" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -5412,13 +5412,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -5428,20 +5428,20 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">NOW()</f>
-        <v>45450.562381481483</v>
+        <v>45453.421034375002</v>
       </c>
       <c r="J3" s="97"/>
       <c r="K3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -5449,7 +5449,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5459,7 +5459,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -5485,16 +5485,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f t="shared" ref="A7:A13" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5512,16 +5512,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>131</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>66</v>
@@ -5533,16 +5533,16 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>89</v>
@@ -5553,22 +5553,19 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>89</v>
@@ -5579,19 +5576,19 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>89</v>
@@ -5603,7 +5600,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5624,7 +5621,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5645,7 +5642,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>8</v>
       </c>
@@ -5665,7 +5662,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
         <f>ROW()-6</f>
         <v>9</v>
@@ -5686,7 +5683,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="78">
         <f>ROW()-6</f>
         <v>10</v>
@@ -5695,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>66</v>
@@ -5707,7 +5704,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="84">
         <f>ROW()-6</f>
         <v>11</v>
@@ -5716,7 +5713,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>66</v>
@@ -5728,19 +5725,19 @@
       <c r="G17" s="59"/>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="79"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="79"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="79"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -5768,24 +5765,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA1A433-E62E-4066-9167-6AA68B5787FF}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="11" width="5.8984375" customWidth="1"/>
+    <col min="9" max="11" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -5799,7 +5796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -5814,20 +5811,20 @@
         <v>3</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -5843,13 +5840,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -5857,7 +5854,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5867,7 +5864,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -5893,16 +5890,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5920,16 +5917,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f>ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>66</v>
@@ -5941,15 +5938,15 @@
       <c r="G8" s="46"/>
       <c r="H8" s="64"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>3</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -5961,16 +5958,16 @@
       <c r="G9" s="21"/>
       <c r="H9" s="66"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f>ROW()-6</f>
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>66</v>
@@ -5981,29 +5978,29 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f>ROW()-6</f>
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f>ROW()-6</f>
         <v>6</v>
@@ -6024,7 +6021,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="66"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f>ROW()-6</f>
         <v>7</v>
@@ -6045,7 +6042,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="66"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="78">
         <f>ROW()-6</f>
         <v>8</v>
@@ -6054,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6066,7 +6063,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="93"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="84">
         <v>8</v>
       </c>
@@ -6074,7 +6071,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6086,7 +6083,7 @@
       <c r="G15" s="59"/>
       <c r="H15" s="94"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="81"/>
       <c r="B16" s="91"/>
       <c r="C16" s="91"/>
@@ -6096,7 +6093,7 @@
       <c r="G16" s="82"/>
       <c r="H16" s="92"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="81"/>
       <c r="B17" s="91"/>
       <c r="C17" s="91"/>
@@ -6106,7 +6103,7 @@
       <c r="G17" s="82"/>
       <c r="H17" s="92"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="83"/>
       <c r="C18" s="91"/>
@@ -6116,7 +6113,7 @@
       <c r="G18" s="82"/>
       <c r="H18" s="92"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="81"/>
       <c r="B19" s="83"/>
       <c r="C19" s="91"/>
@@ -6126,7 +6123,7 @@
       <c r="G19" s="82"/>
       <c r="H19" s="92"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="81"/>
       <c r="B20" s="83"/>
       <c r="C20" s="91"/>
@@ -6136,7 +6133,7 @@
       <c r="G20" s="82"/>
       <c r="H20" s="92"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="83"/>
       <c r="C21" s="91"/>
@@ -6146,13 +6143,13 @@
       <c r="G21" s="82"/>
       <c r="H21" s="92"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F24" s="96"/>
       <c r="G24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F25" s="97"/>
       <c r="G25" t="s">
         <v>40</v>
@@ -6183,20 +6180,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="11" width="6.09765625" customWidth="1"/>
+    <col min="9" max="11" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -6210,7 +6207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -6225,20 +6222,20 @@
         <v>109</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -6254,13 +6251,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -6268,7 +6265,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6278,7 +6275,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -6304,25 +6301,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="33">
         <v>1</v>
@@ -6331,36 +6328,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f>ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>3</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -6372,49 +6369,49 @@
       <c r="G9" s="21"/>
       <c r="H9" s="66"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f>ROW()-6</f>
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f>ROW()-6</f>
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>166</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="62"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f>ROW()-6</f>
         <v>6</v>
@@ -6435,7 +6432,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f>ROW()-6</f>
         <v>7</v>
@@ -6456,7 +6453,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="78">
         <f>ROW()-6</f>
         <v>8</v>
@@ -6465,7 +6462,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6477,7 +6474,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="84">
         <v>8</v>
       </c>
@@ -6485,7 +6482,7 @@
         <v>110</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6497,7 +6494,7 @@
       <c r="G15" s="59"/>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="79"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -6507,7 +6504,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="79"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -6517,7 +6514,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="79"/>
       <c r="B18" s="13"/>
       <c r="C18" s="80"/>
@@ -6527,7 +6524,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="79"/>
       <c r="B19" s="13"/>
       <c r="C19" s="80"/>
@@ -6537,7 +6534,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="79"/>
       <c r="B20" s="83"/>
       <c r="C20" s="80"/>
@@ -6547,7 +6544,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="79"/>
       <c r="B21" s="83"/>
       <c r="C21" s="80"/>
@@ -6579,18 +6576,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778408FD-760C-4653-9194-01F5F203D923}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G10" sqref="G9:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="48" width="2.69921875" customWidth="1"/>
+    <col min="1" max="48" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6642,839 +6639,839 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="212" t="s">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A2" s="197" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="199"/>
+      <c r="C2" s="197" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="212" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="197" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="212" t="s">
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="212" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="198"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="198"/>
+      <c r="AR2" s="198"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="198"/>
+      <c r="AV2" s="199"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3" s="200">
+        <v>1</v>
+      </c>
+      <c r="B3" s="200"/>
+      <c r="C3" s="201">
+        <v>45446</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="202" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="203" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="212" t="s">
-        <v>172</v>
-      </c>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="214"/>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="214"/>
-      <c r="AK2" s="214"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="214"/>
-      <c r="AQ2" s="214"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="214"/>
-      <c r="AT2" s="214"/>
-      <c r="AU2" s="214"/>
-      <c r="AV2" s="213"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="198">
-        <v>1</v>
-      </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="209">
-        <v>45446</v>
-      </c>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="211" t="s">
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="203"/>
+      <c r="AK3" s="203"/>
+      <c r="AL3" s="203"/>
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203"/>
+      <c r="AS3" s="203"/>
+      <c r="AT3" s="203"/>
+      <c r="AU3" s="203"/>
+      <c r="AV3" s="203"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" s="200">
+        <v>2</v>
+      </c>
+      <c r="B4" s="200"/>
+      <c r="C4" s="201">
+        <v>45447</v>
+      </c>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="203" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203" t="s">
+        <v>185</v>
+      </c>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203"/>
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="203"/>
+      <c r="AF4" s="203"/>
+      <c r="AG4" s="203"/>
+      <c r="AH4" s="203"/>
+      <c r="AI4" s="203"/>
+      <c r="AJ4" s="203"/>
+      <c r="AK4" s="203"/>
+      <c r="AL4" s="203"/>
+      <c r="AM4" s="203"/>
+      <c r="AN4" s="203"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="203"/>
+      <c r="AQ4" s="203"/>
+      <c r="AR4" s="203"/>
+      <c r="AS4" s="203"/>
+      <c r="AT4" s="203"/>
+      <c r="AU4" s="203"/>
+      <c r="AV4" s="203"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" s="200">
+        <v>3</v>
+      </c>
+      <c r="B5" s="200"/>
+      <c r="C5" s="201">
+        <v>45448</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="203" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="197"/>
-      <c r="AM3" s="197"/>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197"/>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="197"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="198">
-        <v>2</v>
-      </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="209">
-        <v>45447</v>
-      </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="211" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="197" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197" t="s">
-        <v>187</v>
-      </c>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="197"/>
-      <c r="AF4" s="197"/>
-      <c r="AG4" s="197"/>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="197"/>
-      <c r="AM4" s="197"/>
-      <c r="AN4" s="197"/>
-      <c r="AO4" s="197"/>
-      <c r="AP4" s="197"/>
-      <c r="AQ4" s="197"/>
-      <c r="AR4" s="197"/>
-      <c r="AS4" s="197"/>
-      <c r="AT4" s="197"/>
-      <c r="AU4" s="197"/>
-      <c r="AV4" s="197"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="198">
-        <v>3</v>
-      </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="209">
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="203"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="203"/>
+      <c r="AO5" s="203"/>
+      <c r="AP5" s="203"/>
+      <c r="AQ5" s="203"/>
+      <c r="AR5" s="203"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="203"/>
+      <c r="AU5" s="203"/>
+      <c r="AV5" s="203"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6" s="200">
+        <v>4</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="201">
         <v>45448</v>
       </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="211" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="197" t="s">
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="202" t="s">
         <v>190</v>
       </c>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197" t="s">
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203" t="s">
         <v>191</v>
       </c>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="197"/>
-      <c r="AF5" s="197"/>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="197"/>
-      <c r="AM5" s="197"/>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="197"/>
-      <c r="AT5" s="197"/>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="198">
-        <v>4</v>
-      </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="209">
-        <v>45448</v>
-      </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="211" t="s">
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="197"/>
-      <c r="AI6" s="197"/>
-      <c r="AJ6" s="197"/>
-      <c r="AK6" s="197"/>
-      <c r="AL6" s="197"/>
-      <c r="AM6" s="197"/>
-      <c r="AN6" s="197"/>
-      <c r="AO6" s="197"/>
-      <c r="AP6" s="197"/>
-      <c r="AQ6" s="197"/>
-      <c r="AR6" s="197"/>
-      <c r="AS6" s="197"/>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="197"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="198">
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="203"/>
+      <c r="AE6" s="203"/>
+      <c r="AF6" s="203"/>
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" s="200">
         <v>5</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="197"/>
-      <c r="AA7" s="197"/>
-      <c r="AB7" s="197"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="197"/>
-      <c r="AE7" s="197"/>
-      <c r="AF7" s="197"/>
-      <c r="AG7" s="197"/>
-      <c r="AH7" s="197"/>
-      <c r="AI7" s="197"/>
-      <c r="AJ7" s="197"/>
-      <c r="AK7" s="197"/>
-      <c r="AL7" s="197"/>
-      <c r="AM7" s="197"/>
-      <c r="AN7" s="197"/>
-      <c r="AO7" s="197"/>
-      <c r="AP7" s="197"/>
-      <c r="AQ7" s="197"/>
-      <c r="AR7" s="197"/>
-      <c r="AS7" s="197"/>
-      <c r="AT7" s="197"/>
-      <c r="AU7" s="197"/>
-      <c r="AV7" s="197"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="198">
+      <c r="B7" s="200"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="203"/>
+      <c r="AK7" s="203"/>
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="203"/>
+      <c r="AQ7" s="203"/>
+      <c r="AR7" s="203"/>
+      <c r="AS7" s="203"/>
+      <c r="AT7" s="203"/>
+      <c r="AU7" s="203"/>
+      <c r="AV7" s="203"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" s="200">
         <v>6</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="197"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="197"/>
-      <c r="Z8" s="197"/>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="197"/>
-      <c r="AF8" s="197"/>
-      <c r="AG8" s="197"/>
-      <c r="AH8" s="197"/>
-      <c r="AI8" s="197"/>
-      <c r="AJ8" s="197"/>
-      <c r="AK8" s="197"/>
-      <c r="AL8" s="197"/>
-      <c r="AM8" s="197"/>
-      <c r="AN8" s="197"/>
-      <c r="AO8" s="197"/>
-      <c r="AP8" s="197"/>
-      <c r="AQ8" s="197"/>
-      <c r="AR8" s="197"/>
-      <c r="AS8" s="197"/>
-      <c r="AT8" s="197"/>
-      <c r="AU8" s="197"/>
-      <c r="AV8" s="197"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="198">
+      <c r="B8" s="200"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="203"/>
+      <c r="AH8" s="203"/>
+      <c r="AI8" s="203"/>
+      <c r="AJ8" s="203"/>
+      <c r="AK8" s="203"/>
+      <c r="AL8" s="203"/>
+      <c r="AM8" s="203"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="203"/>
+      <c r="AP8" s="203"/>
+      <c r="AQ8" s="203"/>
+      <c r="AR8" s="203"/>
+      <c r="AS8" s="203"/>
+      <c r="AT8" s="203"/>
+      <c r="AU8" s="203"/>
+      <c r="AV8" s="203"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" s="200">
         <v>7</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AA9" s="197"/>
-      <c r="AB9" s="197"/>
-      <c r="AC9" s="197"/>
-      <c r="AD9" s="197"/>
-      <c r="AE9" s="197"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="197"/>
-      <c r="AH9" s="197"/>
-      <c r="AI9" s="197"/>
-      <c r="AJ9" s="197"/>
-      <c r="AK9" s="197"/>
-      <c r="AL9" s="197"/>
-      <c r="AM9" s="197"/>
-      <c r="AN9" s="197"/>
-      <c r="AO9" s="197"/>
-      <c r="AP9" s="197"/>
-      <c r="AQ9" s="197"/>
-      <c r="AR9" s="197"/>
-      <c r="AS9" s="197"/>
-      <c r="AT9" s="197"/>
-      <c r="AU9" s="197"/>
-      <c r="AV9" s="197"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="198">
+      <c r="B9" s="200"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="203"/>
+      <c r="S9" s="203"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="203"/>
+      <c r="W9" s="203"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="203"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="203"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="203"/>
+      <c r="AJ9" s="203"/>
+      <c r="AK9" s="203"/>
+      <c r="AL9" s="203"/>
+      <c r="AM9" s="203"/>
+      <c r="AN9" s="203"/>
+      <c r="AO9" s="203"/>
+      <c r="AP9" s="203"/>
+      <c r="AQ9" s="203"/>
+      <c r="AR9" s="203"/>
+      <c r="AS9" s="203"/>
+      <c r="AT9" s="203"/>
+      <c r="AU9" s="203"/>
+      <c r="AV9" s="203"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" s="200">
         <v>8</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
-      <c r="AA10" s="197"/>
-      <c r="AB10" s="197"/>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="197"/>
-      <c r="AE10" s="197"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="197"/>
-      <c r="AJ10" s="197"/>
-      <c r="AK10" s="197"/>
-      <c r="AL10" s="197"/>
-      <c r="AM10" s="197"/>
-      <c r="AN10" s="197"/>
-      <c r="AO10" s="197"/>
-      <c r="AP10" s="197"/>
-      <c r="AQ10" s="197"/>
-      <c r="AR10" s="197"/>
-      <c r="AS10" s="197"/>
-      <c r="AT10" s="197"/>
-      <c r="AU10" s="197"/>
-      <c r="AV10" s="197"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="198">
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="203"/>
+      <c r="V10" s="203"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="203"/>
+      <c r="Z10" s="203"/>
+      <c r="AA10" s="203"/>
+      <c r="AB10" s="203"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="203"/>
+      <c r="AE10" s="203"/>
+      <c r="AF10" s="203"/>
+      <c r="AG10" s="203"/>
+      <c r="AH10" s="203"/>
+      <c r="AI10" s="203"/>
+      <c r="AJ10" s="203"/>
+      <c r="AK10" s="203"/>
+      <c r="AL10" s="203"/>
+      <c r="AM10" s="203"/>
+      <c r="AN10" s="203"/>
+      <c r="AO10" s="203"/>
+      <c r="AP10" s="203"/>
+      <c r="AQ10" s="203"/>
+      <c r="AR10" s="203"/>
+      <c r="AS10" s="203"/>
+      <c r="AT10" s="203"/>
+      <c r="AU10" s="203"/>
+      <c r="AV10" s="203"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="200">
         <v>9</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="197"/>
-      <c r="AE11" s="197"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="197"/>
-      <c r="AH11" s="197"/>
-      <c r="AI11" s="197"/>
-      <c r="AJ11" s="197"/>
-      <c r="AK11" s="197"/>
-      <c r="AL11" s="197"/>
-      <c r="AM11" s="197"/>
-      <c r="AN11" s="197"/>
-      <c r="AO11" s="197"/>
-      <c r="AP11" s="197"/>
-      <c r="AQ11" s="197"/>
-      <c r="AR11" s="197"/>
-      <c r="AS11" s="197"/>
-      <c r="AT11" s="197"/>
-      <c r="AU11" s="197"/>
-      <c r="AV11" s="197"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="198">
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="203"/>
+      <c r="V11" s="203"/>
+      <c r="W11" s="203"/>
+      <c r="X11" s="203"/>
+      <c r="Y11" s="203"/>
+      <c r="Z11" s="203"/>
+      <c r="AA11" s="203"/>
+      <c r="AB11" s="203"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="203"/>
+      <c r="AE11" s="203"/>
+      <c r="AF11" s="203"/>
+      <c r="AG11" s="203"/>
+      <c r="AH11" s="203"/>
+      <c r="AI11" s="203"/>
+      <c r="AJ11" s="203"/>
+      <c r="AK11" s="203"/>
+      <c r="AL11" s="203"/>
+      <c r="AM11" s="203"/>
+      <c r="AN11" s="203"/>
+      <c r="AO11" s="203"/>
+      <c r="AP11" s="203"/>
+      <c r="AQ11" s="203"/>
+      <c r="AR11" s="203"/>
+      <c r="AS11" s="203"/>
+      <c r="AT11" s="203"/>
+      <c r="AU11" s="203"/>
+      <c r="AV11" s="203"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" s="200">
         <v>10</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="197"/>
-      <c r="AJ12" s="197"/>
-      <c r="AK12" s="197"/>
-      <c r="AL12" s="197"/>
-      <c r="AM12" s="197"/>
-      <c r="AN12" s="197"/>
-      <c r="AO12" s="197"/>
-      <c r="AP12" s="197"/>
-      <c r="AQ12" s="197"/>
-      <c r="AR12" s="197"/>
-      <c r="AS12" s="197"/>
-      <c r="AT12" s="197"/>
-      <c r="AU12" s="197"/>
-      <c r="AV12" s="197"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="198">
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="203"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="203"/>
+      <c r="W12" s="203"/>
+      <c r="X12" s="203"/>
+      <c r="Y12" s="203"/>
+      <c r="Z12" s="203"/>
+      <c r="AA12" s="203"/>
+      <c r="AB12" s="203"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="203"/>
+      <c r="AE12" s="203"/>
+      <c r="AF12" s="203"/>
+      <c r="AG12" s="203"/>
+      <c r="AH12" s="203"/>
+      <c r="AI12" s="203"/>
+      <c r="AJ12" s="203"/>
+      <c r="AK12" s="203"/>
+      <c r="AL12" s="203"/>
+      <c r="AM12" s="203"/>
+      <c r="AN12" s="203"/>
+      <c r="AO12" s="203"/>
+      <c r="AP12" s="203"/>
+      <c r="AQ12" s="203"/>
+      <c r="AR12" s="203"/>
+      <c r="AS12" s="203"/>
+      <c r="AT12" s="203"/>
+      <c r="AU12" s="203"/>
+      <c r="AV12" s="203"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="200">
         <v>11</v>
       </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="197"/>
-      <c r="V13" s="197"/>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="197"/>
-      <c r="AI13" s="197"/>
-      <c r="AJ13" s="197"/>
-      <c r="AK13" s="197"/>
-      <c r="AL13" s="197"/>
-      <c r="AM13" s="197"/>
-      <c r="AN13" s="197"/>
-      <c r="AO13" s="197"/>
-      <c r="AP13" s="197"/>
-      <c r="AQ13" s="197"/>
-      <c r="AR13" s="197"/>
-      <c r="AS13" s="197"/>
-      <c r="AT13" s="197"/>
-      <c r="AU13" s="197"/>
-      <c r="AV13" s="197"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="198">
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="203"/>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="203"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="203"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="203"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="203"/>
+      <c r="AK13" s="203"/>
+      <c r="AL13" s="203"/>
+      <c r="AM13" s="203"/>
+      <c r="AN13" s="203"/>
+      <c r="AO13" s="203"/>
+      <c r="AP13" s="203"/>
+      <c r="AQ13" s="203"/>
+      <c r="AR13" s="203"/>
+      <c r="AS13" s="203"/>
+      <c r="AT13" s="203"/>
+      <c r="AU13" s="203"/>
+      <c r="AV13" s="203"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" s="200">
         <v>12</v>
       </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="197"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="197"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="197"/>
-      <c r="AH14" s="197"/>
-      <c r="AI14" s="197"/>
-      <c r="AJ14" s="197"/>
-      <c r="AK14" s="197"/>
-      <c r="AL14" s="197"/>
-      <c r="AM14" s="197"/>
-      <c r="AN14" s="197"/>
-      <c r="AO14" s="197"/>
-      <c r="AP14" s="197"/>
-      <c r="AQ14" s="197"/>
-      <c r="AR14" s="197"/>
-      <c r="AS14" s="197"/>
-      <c r="AT14" s="197"/>
-      <c r="AU14" s="197"/>
-      <c r="AV14" s="197"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="198">
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="203"/>
+      <c r="W14" s="203"/>
+      <c r="X14" s="203"/>
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="203"/>
+      <c r="AA14" s="203"/>
+      <c r="AB14" s="203"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="203"/>
+      <c r="AE14" s="203"/>
+      <c r="AF14" s="203"/>
+      <c r="AG14" s="203"/>
+      <c r="AH14" s="203"/>
+      <c r="AI14" s="203"/>
+      <c r="AJ14" s="203"/>
+      <c r="AK14" s="203"/>
+      <c r="AL14" s="203"/>
+      <c r="AM14" s="203"/>
+      <c r="AN14" s="203"/>
+      <c r="AO14" s="203"/>
+      <c r="AP14" s="203"/>
+      <c r="AQ14" s="203"/>
+      <c r="AR14" s="203"/>
+      <c r="AS14" s="203"/>
+      <c r="AT14" s="203"/>
+      <c r="AU14" s="203"/>
+      <c r="AV14" s="203"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" s="200">
         <v>13</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="197"/>
-      <c r="AJ15" s="197"/>
-      <c r="AK15" s="197"/>
-      <c r="AL15" s="197"/>
-      <c r="AM15" s="197"/>
-      <c r="AN15" s="197"/>
-      <c r="AO15" s="197"/>
-      <c r="AP15" s="197"/>
-      <c r="AQ15" s="197"/>
-      <c r="AR15" s="197"/>
-      <c r="AS15" s="197"/>
-      <c r="AT15" s="197"/>
-      <c r="AU15" s="197"/>
-      <c r="AV15" s="197"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="198">
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="203"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="203"/>
+      <c r="AE15" s="203"/>
+      <c r="AF15" s="203"/>
+      <c r="AG15" s="203"/>
+      <c r="AH15" s="203"/>
+      <c r="AI15" s="203"/>
+      <c r="AJ15" s="203"/>
+      <c r="AK15" s="203"/>
+      <c r="AL15" s="203"/>
+      <c r="AM15" s="203"/>
+      <c r="AN15" s="203"/>
+      <c r="AO15" s="203"/>
+      <c r="AP15" s="203"/>
+      <c r="AQ15" s="203"/>
+      <c r="AR15" s="203"/>
+      <c r="AS15" s="203"/>
+      <c r="AT15" s="203"/>
+      <c r="AU15" s="203"/>
+      <c r="AV15" s="203"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="200">
         <v>14</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="197"/>
-      <c r="AJ16" s="197"/>
-      <c r="AK16" s="197"/>
-      <c r="AL16" s="197"/>
-      <c r="AM16" s="197"/>
-      <c r="AN16" s="197"/>
-      <c r="AO16" s="197"/>
-      <c r="AP16" s="197"/>
-      <c r="AQ16" s="197"/>
-      <c r="AR16" s="197"/>
-      <c r="AS16" s="197"/>
-      <c r="AT16" s="197"/>
-      <c r="AU16" s="197"/>
-      <c r="AV16" s="197"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="198">
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
+      <c r="V16" s="203"/>
+      <c r="W16" s="203"/>
+      <c r="X16" s="203"/>
+      <c r="Y16" s="203"/>
+      <c r="Z16" s="203"/>
+      <c r="AA16" s="203"/>
+      <c r="AB16" s="203"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="203"/>
+      <c r="AE16" s="203"/>
+      <c r="AF16" s="203"/>
+      <c r="AG16" s="203"/>
+      <c r="AH16" s="203"/>
+      <c r="AI16" s="203"/>
+      <c r="AJ16" s="203"/>
+      <c r="AK16" s="203"/>
+      <c r="AL16" s="203"/>
+      <c r="AM16" s="203"/>
+      <c r="AN16" s="203"/>
+      <c r="AO16" s="203"/>
+      <c r="AP16" s="203"/>
+      <c r="AQ16" s="203"/>
+      <c r="AR16" s="203"/>
+      <c r="AS16" s="203"/>
+      <c r="AT16" s="203"/>
+      <c r="AU16" s="203"/>
+      <c r="AV16" s="203"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="200">
         <v>15</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
       <c r="M17" s="205"/>
       <c r="N17" s="205"/>
       <c r="O17" s="205"/>
@@ -7485,48 +7482,48 @@
       <c r="T17" s="205"/>
       <c r="U17" s="205"/>
       <c r="V17" s="205"/>
-      <c r="W17" s="197"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
-      <c r="AB17" s="197"/>
-      <c r="AC17" s="197"/>
-      <c r="AD17" s="197"/>
-      <c r="AE17" s="197"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="197"/>
-      <c r="AH17" s="197"/>
-      <c r="AI17" s="197"/>
-      <c r="AJ17" s="197"/>
-      <c r="AK17" s="197"/>
-      <c r="AL17" s="197"/>
-      <c r="AM17" s="197"/>
-      <c r="AN17" s="197"/>
-      <c r="AO17" s="197"/>
-      <c r="AP17" s="197"/>
-      <c r="AQ17" s="197"/>
-      <c r="AR17" s="197"/>
-      <c r="AS17" s="197"/>
-      <c r="AT17" s="197"/>
-      <c r="AU17" s="197"/>
-      <c r="AV17" s="197"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="198">
+      <c r="W17" s="203"/>
+      <c r="X17" s="203"/>
+      <c r="Y17" s="203"/>
+      <c r="Z17" s="203"/>
+      <c r="AA17" s="203"/>
+      <c r="AB17" s="203"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="203"/>
+      <c r="AE17" s="203"/>
+      <c r="AF17" s="203"/>
+      <c r="AG17" s="203"/>
+      <c r="AH17" s="203"/>
+      <c r="AI17" s="203"/>
+      <c r="AJ17" s="203"/>
+      <c r="AK17" s="203"/>
+      <c r="AL17" s="203"/>
+      <c r="AM17" s="203"/>
+      <c r="AN17" s="203"/>
+      <c r="AO17" s="203"/>
+      <c r="AP17" s="203"/>
+      <c r="AQ17" s="203"/>
+      <c r="AR17" s="203"/>
+      <c r="AS17" s="203"/>
+      <c r="AT17" s="203"/>
+      <c r="AU17" s="203"/>
+      <c r="AV17" s="203"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="200">
         <v>16</v>
       </c>
-      <c r="B18" s="198"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
       <c r="M18" s="205"/>
       <c r="N18" s="205"/>
       <c r="O18" s="205"/>
@@ -7537,48 +7534,48 @@
       <c r="T18" s="205"/>
       <c r="U18" s="205"/>
       <c r="V18" s="205"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-      <c r="AC18" s="197"/>
-      <c r="AD18" s="197"/>
-      <c r="AE18" s="197"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="197"/>
-      <c r="AH18" s="197"/>
-      <c r="AI18" s="197"/>
-      <c r="AJ18" s="197"/>
-      <c r="AK18" s="197"/>
-      <c r="AL18" s="197"/>
-      <c r="AM18" s="197"/>
-      <c r="AN18" s="197"/>
-      <c r="AO18" s="197"/>
-      <c r="AP18" s="197"/>
-      <c r="AQ18" s="197"/>
-      <c r="AR18" s="197"/>
-      <c r="AS18" s="197"/>
-      <c r="AT18" s="197"/>
-      <c r="AU18" s="197"/>
-      <c r="AV18" s="197"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="198">
+      <c r="W18" s="203"/>
+      <c r="X18" s="203"/>
+      <c r="Y18" s="203"/>
+      <c r="Z18" s="203"/>
+      <c r="AA18" s="203"/>
+      <c r="AB18" s="203"/>
+      <c r="AC18" s="203"/>
+      <c r="AD18" s="203"/>
+      <c r="AE18" s="203"/>
+      <c r="AF18" s="203"/>
+      <c r="AG18" s="203"/>
+      <c r="AH18" s="203"/>
+      <c r="AI18" s="203"/>
+      <c r="AJ18" s="203"/>
+      <c r="AK18" s="203"/>
+      <c r="AL18" s="203"/>
+      <c r="AM18" s="203"/>
+      <c r="AN18" s="203"/>
+      <c r="AO18" s="203"/>
+      <c r="AP18" s="203"/>
+      <c r="AQ18" s="203"/>
+      <c r="AR18" s="203"/>
+      <c r="AS18" s="203"/>
+      <c r="AT18" s="203"/>
+      <c r="AU18" s="203"/>
+      <c r="AV18" s="203"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="200">
         <v>17</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="204"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="205"/>
       <c r="N19" s="205"/>
       <c r="O19" s="205"/>
@@ -7589,272 +7586,191 @@
       <c r="T19" s="205"/>
       <c r="U19" s="205"/>
       <c r="V19" s="205"/>
-      <c r="W19" s="206"/>
-      <c r="X19" s="207"/>
-      <c r="Y19" s="207"/>
-      <c r="Z19" s="207"/>
-      <c r="AA19" s="207"/>
-      <c r="AB19" s="207"/>
-      <c r="AC19" s="207"/>
-      <c r="AD19" s="207"/>
-      <c r="AE19" s="207"/>
-      <c r="AF19" s="207"/>
-      <c r="AG19" s="207"/>
-      <c r="AH19" s="207"/>
-      <c r="AI19" s="207"/>
-      <c r="AJ19" s="207"/>
-      <c r="AK19" s="207"/>
-      <c r="AL19" s="207"/>
-      <c r="AM19" s="207"/>
-      <c r="AN19" s="207"/>
-      <c r="AO19" s="207"/>
-      <c r="AP19" s="207"/>
-      <c r="AQ19" s="207"/>
-      <c r="AR19" s="207"/>
-      <c r="AS19" s="207"/>
-      <c r="AT19" s="207"/>
-      <c r="AU19" s="207"/>
-      <c r="AV19" s="208"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="198">
+      <c r="W19" s="212"/>
+      <c r="X19" s="213"/>
+      <c r="Y19" s="213"/>
+      <c r="Z19" s="213"/>
+      <c r="AA19" s="213"/>
+      <c r="AB19" s="213"/>
+      <c r="AC19" s="213"/>
+      <c r="AD19" s="213"/>
+      <c r="AE19" s="213"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="213"/>
+      <c r="AH19" s="213"/>
+      <c r="AI19" s="213"/>
+      <c r="AJ19" s="213"/>
+      <c r="AK19" s="213"/>
+      <c r="AL19" s="213"/>
+      <c r="AM19" s="213"/>
+      <c r="AN19" s="213"/>
+      <c r="AO19" s="213"/>
+      <c r="AP19" s="213"/>
+      <c r="AQ19" s="213"/>
+      <c r="AR19" s="213"/>
+      <c r="AS19" s="213"/>
+      <c r="AT19" s="213"/>
+      <c r="AU19" s="213"/>
+      <c r="AV19" s="214"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="200">
         <v>18</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207"/>
-      <c r="U20" s="207"/>
-      <c r="V20" s="208"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="207"/>
-      <c r="Y20" s="207"/>
-      <c r="Z20" s="207"/>
-      <c r="AA20" s="207"/>
-      <c r="AB20" s="207"/>
-      <c r="AC20" s="207"/>
-      <c r="AD20" s="207"/>
-      <c r="AE20" s="207"/>
-      <c r="AF20" s="207"/>
-      <c r="AG20" s="207"/>
-      <c r="AH20" s="207"/>
-      <c r="AI20" s="207"/>
-      <c r="AJ20" s="207"/>
-      <c r="AK20" s="207"/>
-      <c r="AL20" s="207"/>
-      <c r="AM20" s="207"/>
-      <c r="AN20" s="207"/>
-      <c r="AO20" s="207"/>
-      <c r="AP20" s="207"/>
-      <c r="AQ20" s="207"/>
-      <c r="AR20" s="207"/>
-      <c r="AS20" s="207"/>
-      <c r="AT20" s="207"/>
-      <c r="AU20" s="207"/>
-      <c r="AV20" s="208"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="198">
+      <c r="B20" s="200"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="214"/>
+      <c r="W20" s="212"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="213"/>
+      <c r="AA20" s="213"/>
+      <c r="AB20" s="213"/>
+      <c r="AC20" s="213"/>
+      <c r="AD20" s="213"/>
+      <c r="AE20" s="213"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="213"/>
+      <c r="AH20" s="213"/>
+      <c r="AI20" s="213"/>
+      <c r="AJ20" s="213"/>
+      <c r="AK20" s="213"/>
+      <c r="AL20" s="213"/>
+      <c r="AM20" s="213"/>
+      <c r="AN20" s="213"/>
+      <c r="AO20" s="213"/>
+      <c r="AP20" s="213"/>
+      <c r="AQ20" s="213"/>
+      <c r="AR20" s="213"/>
+      <c r="AS20" s="213"/>
+      <c r="AT20" s="213"/>
+      <c r="AU20" s="213"/>
+      <c r="AV20" s="214"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="200">
         <v>19</v>
       </c>
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="206"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="207"/>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
-      <c r="S21" s="207"/>
-      <c r="T21" s="207"/>
-      <c r="U21" s="207"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="206"/>
-      <c r="X21" s="207"/>
-      <c r="Y21" s="207"/>
-      <c r="Z21" s="207"/>
-      <c r="AA21" s="207"/>
-      <c r="AB21" s="207"/>
-      <c r="AC21" s="207"/>
-      <c r="AD21" s="207"/>
-      <c r="AE21" s="207"/>
-      <c r="AF21" s="207"/>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="207"/>
-      <c r="AI21" s="207"/>
-      <c r="AJ21" s="207"/>
-      <c r="AK21" s="207"/>
-      <c r="AL21" s="207"/>
-      <c r="AM21" s="207"/>
-      <c r="AN21" s="207"/>
-      <c r="AO21" s="207"/>
-      <c r="AP21" s="207"/>
-      <c r="AQ21" s="207"/>
-      <c r="AR21" s="207"/>
-      <c r="AS21" s="207"/>
-      <c r="AT21" s="207"/>
-      <c r="AU21" s="207"/>
-      <c r="AV21" s="208"/>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="197">
+      <c r="B21" s="200"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="212"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="213"/>
+      <c r="S21" s="213"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="214"/>
+      <c r="W21" s="212"/>
+      <c r="X21" s="213"/>
+      <c r="Y21" s="213"/>
+      <c r="Z21" s="213"/>
+      <c r="AA21" s="213"/>
+      <c r="AB21" s="213"/>
+      <c r="AC21" s="213"/>
+      <c r="AD21" s="213"/>
+      <c r="AE21" s="213"/>
+      <c r="AF21" s="213"/>
+      <c r="AG21" s="213"/>
+      <c r="AH21" s="213"/>
+      <c r="AI21" s="213"/>
+      <c r="AJ21" s="213"/>
+      <c r="AK21" s="213"/>
+      <c r="AL21" s="213"/>
+      <c r="AM21" s="213"/>
+      <c r="AN21" s="213"/>
+      <c r="AO21" s="213"/>
+      <c r="AP21" s="213"/>
+      <c r="AQ21" s="213"/>
+      <c r="AR21" s="213"/>
+      <c r="AS21" s="213"/>
+      <c r="AT21" s="213"/>
+      <c r="AU21" s="213"/>
+      <c r="AV21" s="214"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="203">
         <v>20</v>
       </c>
-      <c r="B22" s="197"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="207"/>
-      <c r="S22" s="207"/>
-      <c r="T22" s="207"/>
-      <c r="U22" s="207"/>
-      <c r="V22" s="208"/>
-      <c r="W22" s="206"/>
-      <c r="X22" s="207"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="207"/>
-      <c r="AC22" s="207"/>
-      <c r="AD22" s="207"/>
-      <c r="AE22" s="207"/>
-      <c r="AF22" s="207"/>
-      <c r="AG22" s="207"/>
-      <c r="AH22" s="207"/>
-      <c r="AI22" s="207"/>
-      <c r="AJ22" s="207"/>
-      <c r="AK22" s="207"/>
-      <c r="AL22" s="207"/>
-      <c r="AM22" s="207"/>
-      <c r="AN22" s="207"/>
-      <c r="AO22" s="207"/>
-      <c r="AP22" s="207"/>
-      <c r="AQ22" s="207"/>
-      <c r="AR22" s="207"/>
-      <c r="AS22" s="207"/>
-      <c r="AT22" s="207"/>
-      <c r="AU22" s="207"/>
-      <c r="AV22" s="208"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="212"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="212"/>
+      <c r="X22" s="213"/>
+      <c r="Y22" s="213"/>
+      <c r="Z22" s="213"/>
+      <c r="AA22" s="213"/>
+      <c r="AB22" s="213"/>
+      <c r="AC22" s="213"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="213"/>
+      <c r="AH22" s="213"/>
+      <c r="AI22" s="213"/>
+      <c r="AJ22" s="213"/>
+      <c r="AK22" s="213"/>
+      <c r="AL22" s="213"/>
+      <c r="AM22" s="213"/>
+      <c r="AN22" s="213"/>
+      <c r="AO22" s="213"/>
+      <c r="AP22" s="213"/>
+      <c r="AQ22" s="213"/>
+      <c r="AR22" s="213"/>
+      <c r="AS22" s="213"/>
+      <c r="AT22" s="213"/>
+      <c r="AU22" s="213"/>
+      <c r="AV22" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="W2:AV2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="W3:AV3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:V4"/>
-    <mergeCell ref="W4:AV4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:V5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="W7:AV7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="W8:AV8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="W10:AV10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="W11:AV11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:V12"/>
-    <mergeCell ref="W12:AV12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:AV13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:V14"/>
-    <mergeCell ref="W14:AV14"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:V17"/>
-    <mergeCell ref="W17:AV17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="W18:AV18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:V15"/>
-    <mergeCell ref="W15:AV15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:V16"/>
-    <mergeCell ref="W16:AV16"/>
     <mergeCell ref="W5:AV5"/>
     <mergeCell ref="W6:AV6"/>
     <mergeCell ref="A19:B19"/>
@@ -7879,6 +7795,87 @@
     <mergeCell ref="W21:AV21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:V17"/>
+    <mergeCell ref="W17:AV17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="W18:AV18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="W15:AV15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="W16:AV16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:AV13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="W14:AV14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="W11:AV11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="W12:AV12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:V10"/>
+    <mergeCell ref="W10:AV10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="W7:AV7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="W8:AV8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:V5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="W2:AV2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="W3:AV3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="W4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7889,15 +7886,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
@@ -7906,6 +7894,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8104,20 +8101,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
     <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E978F8-E57C-4908-93B2-B820E09D2243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A25EB-A5B4-4E34-A56E-47C456794654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="22032" windowHeight="9396" firstSheet="1" activeTab="8" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="198">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -899,9 +899,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0：差し戻し　1：承認待ち　2：承認済み</t>
-  </si>
-  <si>
     <t>理由</t>
     <rPh sb="0" eb="2">
       <t>リユウ</t>
@@ -1104,6 +1101,34 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0：差し戻し　1：承認待ち　2：承認済み　3：キャンセル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉新</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシアラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[月末申請、打刻修正申請.ステータス]</t>
+    <rPh sb="1" eb="5">
+      <t>ゲツマツシンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ダコクシュウセイシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（4：キャンセル）の追加</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1890,6 +1915,234 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1899,234 +2152,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2163,8 +2188,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2183,28 +2227,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -2548,25 +2573,25 @@
       <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="50" max="50" width="29.69921875" customWidth="1"/>
+    <col min="50" max="50" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A2" s="170" t="s">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2582,53 +2607,53 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="173" t="s">
+      <c r="T2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="176" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="173" t="s">
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="179">
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="122">
         <v>45447</v>
       </c>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="180"/>
-      <c r="AO2" s="180"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="181"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="124"/>
       <c r="AT2" s="95"/>
       <c r="AU2" s="95"/>
       <c r="AV2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="A3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
@@ -2644,36 +2669,36 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="173" t="s">
+      <c r="T3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="173" t="s">
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
-      <c r="AN3" s="183"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="183"/>
-      <c r="AQ3" s="184"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="126"/>
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="127"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2717,1106 +2742,1144 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="159" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="159" t="s">
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="159" t="s">
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="159" t="s">
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="159" t="s">
+      <c r="W5" s="111"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="159" t="s">
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="161"/>
-      <c r="AO5" s="159" t="s">
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="161"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="112"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="109" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="109" t="s">
+      <c r="Q6" s="166"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="110"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="109">
+      <c r="T6" s="166"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="165">
         <v>100</v>
       </c>
-      <c r="W6" s="110"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="109" t="s">
+      <c r="W6" s="166"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="150"/>
+      <c r="AJ6" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="108"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="182"/>
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="183"/>
+      <c r="AT6" s="183"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="183"/>
+      <c r="AW6" s="183"/>
+      <c r="AX6" s="184"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="112" t="s">
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="109" t="s">
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="109" t="s">
+      <c r="Q7" s="166"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="110"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="109">
+      <c r="T7" s="166"/>
+      <c r="U7" s="167"/>
+      <c r="V7" s="165">
         <v>10000</v>
       </c>
-      <c r="W7" s="110"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="114"/>
-      <c r="AJ7" s="109" t="s">
+      <c r="W7" s="166"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="110"/>
-      <c r="AL7" s="110"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="108"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK7" s="166"/>
+      <c r="AL7" s="166"/>
+      <c r="AM7" s="166"/>
+      <c r="AN7" s="167"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="183"/>
+      <c r="AQ7" s="183"/>
+      <c r="AR7" s="183"/>
+      <c r="AS7" s="183"/>
+      <c r="AT7" s="183"/>
+      <c r="AU7" s="183"/>
+      <c r="AV7" s="183"/>
+      <c r="AW7" s="183"/>
+      <c r="AX7" s="184"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="112" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="109" t="s">
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="109" t="s">
+      <c r="Q8" s="166"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="110"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="109">
+      <c r="T8" s="166"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="165">
         <v>500</v>
       </c>
-      <c r="W8" s="110"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="109" t="s">
+      <c r="W8" s="166"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
+      <c r="AJ8" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="108"/>
-    </row>
-    <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="167"/>
+      <c r="AO8" s="182"/>
+      <c r="AP8" s="183"/>
+      <c r="AQ8" s="183"/>
+      <c r="AR8" s="183"/>
+      <c r="AS8" s="183"/>
+      <c r="AT8" s="183"/>
+      <c r="AU8" s="183"/>
+      <c r="AV8" s="183"/>
+      <c r="AW8" s="183"/>
+      <c r="AX8" s="184"/>
+    </row>
+    <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="125" t="s">
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="128" t="s">
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="128" t="s">
+      <c r="Q9" s="132"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="129"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="128">
+      <c r="T9" s="132"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="131">
         <v>500</v>
       </c>
-      <c r="W9" s="129"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="128" t="s">
+      <c r="W9" s="132"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="147"/>
+      <c r="AJ9" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="129"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="108"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK9" s="132"/>
+      <c r="AL9" s="132"/>
+      <c r="AM9" s="132"/>
+      <c r="AN9" s="133"/>
+      <c r="AO9" s="182"/>
+      <c r="AP9" s="183"/>
+      <c r="AQ9" s="183"/>
+      <c r="AR9" s="183"/>
+      <c r="AS9" s="183"/>
+      <c r="AT9" s="183"/>
+      <c r="AU9" s="183"/>
+      <c r="AV9" s="183"/>
+      <c r="AW9" s="183"/>
+      <c r="AX9" s="184"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128" t="s">
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="128" t="s">
+      <c r="Q10" s="132"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="129"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="109">
+      <c r="T10" s="132"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="165">
         <v>10000</v>
       </c>
-      <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="128" t="s">
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="150"/>
+      <c r="AJ10" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="152"/>
-      <c r="AQ10" s="152"/>
-      <c r="AR10" s="152"/>
-      <c r="AS10" s="152"/>
-      <c r="AT10" s="152"/>
-      <c r="AU10" s="152"/>
-      <c r="AV10" s="152"/>
-      <c r="AW10" s="152"/>
-      <c r="AX10" s="153"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="133"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="129"/>
+      <c r="AQ10" s="129"/>
+      <c r="AR10" s="129"/>
+      <c r="AS10" s="129"/>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="129"/>
+      <c r="AV10" s="129"/>
+      <c r="AW10" s="129"/>
+      <c r="AX10" s="130"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11" s="98">
         <v>6</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="136" t="s">
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="139" t="s">
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="139" t="s">
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="140"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="164">
+      <c r="T11" s="157"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="159">
         <v>10000</v>
       </c>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="138"/>
-      <c r="AJ11" s="139" t="s">
+      <c r="W11" s="160"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="155"/>
+      <c r="AJ11" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="140"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="140"/>
-      <c r="AN11" s="141"/>
-      <c r="AO11" s="142"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
-      <c r="AX11" s="144"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK11" s="157"/>
+      <c r="AL11" s="157"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="158"/>
+      <c r="AO11" s="168"/>
+      <c r="AP11" s="169"/>
+      <c r="AQ11" s="169"/>
+      <c r="AR11" s="169"/>
+      <c r="AS11" s="169"/>
+      <c r="AT11" s="169"/>
+      <c r="AU11" s="169"/>
+      <c r="AV11" s="169"/>
+      <c r="AW11" s="169"/>
+      <c r="AX11" s="170"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A12" s="99">
         <v>7</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="133" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="145" t="s">
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="145" t="s">
+      <c r="Q12" s="140"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="146"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="156">
+      <c r="T12" s="140"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="142">
         <v>500</v>
       </c>
-      <c r="W12" s="157"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="145" t="s">
+      <c r="W12" s="143"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="138"/>
+      <c r="AJ12" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="147"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="149"/>
-      <c r="AQ12" s="149"/>
-      <c r="AR12" s="149"/>
-      <c r="AS12" s="149"/>
-      <c r="AT12" s="149"/>
-      <c r="AU12" s="149"/>
-      <c r="AV12" s="149"/>
-      <c r="AW12" s="149"/>
-      <c r="AX12" s="150"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="140"/>
+      <c r="AM12" s="140"/>
+      <c r="AN12" s="141"/>
+      <c r="AO12" s="171"/>
+      <c r="AP12" s="172"/>
+      <c r="AQ12" s="172"/>
+      <c r="AR12" s="172"/>
+      <c r="AS12" s="172"/>
+      <c r="AT12" s="172"/>
+      <c r="AU12" s="172"/>
+      <c r="AV12" s="172"/>
+      <c r="AW12" s="172"/>
+      <c r="AX12" s="173"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="118"/>
-      <c r="AW13" s="118"/>
-      <c r="AX13" s="118"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="109"/>
+      <c r="AM13" s="109"/>
+      <c r="AN13" s="109"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="118"/>
-      <c r="AU14" s="118"/>
-      <c r="AV14" s="118"/>
-      <c r="AW14" s="118"/>
-      <c r="AX14" s="118"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="109"/>
+      <c r="AM14" s="109"/>
+      <c r="AN14" s="109"/>
+      <c r="AO14" s="106"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="106"/>
+      <c r="AU14" s="106"/>
+      <c r="AV14" s="106"/>
+      <c r="AW14" s="106"/>
+      <c r="AX14" s="106"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="108"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="108"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="109"/>
+      <c r="AM15" s="109"/>
+      <c r="AN15" s="109"/>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="106"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="106"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="119"/>
-      <c r="AL16" s="119"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="119"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="109"/>
+      <c r="AM16" s="109"/>
+      <c r="AN16" s="109"/>
+      <c r="AO16" s="106"/>
+      <c r="AP16" s="106"/>
+      <c r="AQ16" s="106"/>
+      <c r="AR16" s="106"/>
+      <c r="AS16" s="106"/>
+      <c r="AT16" s="106"/>
+      <c r="AU16" s="106"/>
+      <c r="AV16" s="106"/>
+      <c r="AW16" s="106"/>
+      <c r="AX16" s="106"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="118"/>
-      <c r="AU17" s="118"/>
-      <c r="AV17" s="118"/>
-      <c r="AW17" s="118"/>
-      <c r="AX17" s="118"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="109"/>
+      <c r="AM17" s="109"/>
+      <c r="AN17" s="109"/>
+      <c r="AO17" s="106"/>
+      <c r="AP17" s="106"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="106"/>
+      <c r="AU17" s="106"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="106"/>
+      <c r="AX17" s="106"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="119"/>
-      <c r="AL18" s="119"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="119"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="118"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="118"/>
-      <c r="AW18" s="118"/>
-      <c r="AX18" s="118"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="109"/>
+      <c r="AK18" s="109"/>
+      <c r="AL18" s="109"/>
+      <c r="AM18" s="109"/>
+      <c r="AN18" s="109"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="119"/>
-      <c r="AL19" s="119"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="118"/>
-      <c r="AT19" s="118"/>
-      <c r="AU19" s="118"/>
-      <c r="AV19" s="118"/>
-      <c r="AW19" s="118"/>
-      <c r="AX19" s="118"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="108"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="109"/>
+      <c r="AK19" s="109"/>
+      <c r="AL19" s="109"/>
+      <c r="AM19" s="109"/>
+      <c r="AN19" s="109"/>
+      <c r="AO19" s="106"/>
+      <c r="AP19" s="106"/>
+      <c r="AQ19" s="106"/>
+      <c r="AR19" s="106"/>
+      <c r="AS19" s="106"/>
+      <c r="AT19" s="106"/>
+      <c r="AU19" s="106"/>
+      <c r="AV19" s="106"/>
+      <c r="AW19" s="106"/>
+      <c r="AX19" s="106"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A20" s="17"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="119"/>
-      <c r="AL20" s="119"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="118"/>
-      <c r="AU20" s="118"/>
-      <c r="AV20" s="118"/>
-      <c r="AW20" s="118"/>
-      <c r="AX20" s="118"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="109"/>
+      <c r="AM20" s="109"/>
+      <c r="AN20" s="109"/>
+      <c r="AO20" s="106"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="106"/>
+      <c r="AR20" s="106"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="106"/>
+      <c r="AU20" s="106"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="106"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="119"/>
-      <c r="AK21" s="119"/>
-      <c r="AL21" s="119"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="118"/>
-      <c r="AU21" s="118"/>
-      <c r="AV21" s="118"/>
-      <c r="AW21" s="118"/>
-      <c r="AX21" s="118"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="109"/>
+      <c r="AM21" s="109"/>
+      <c r="AN21" s="109"/>
+      <c r="AO21" s="106"/>
+      <c r="AP21" s="106"/>
+      <c r="AQ21" s="106"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="106"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="106"/>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A22" s="17"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="119"/>
-      <c r="AK22" s="119"/>
-      <c r="AL22" s="119"/>
-      <c r="AM22" s="119"/>
-      <c r="AN22" s="119"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
-      <c r="AS22" s="118"/>
-      <c r="AT22" s="118"/>
-      <c r="AU22" s="118"/>
-      <c r="AV22" s="118"/>
-      <c r="AW22" s="118"/>
-      <c r="AX22" s="118"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="109"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="109"/>
+      <c r="AM22" s="109"/>
+      <c r="AN22" s="109"/>
+      <c r="AO22" s="106"/>
+      <c r="AP22" s="106"/>
+      <c r="AQ22" s="106"/>
+      <c r="AR22" s="106"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="106"/>
+      <c r="AU22" s="106"/>
+      <c r="AV22" s="106"/>
+      <c r="AW22" s="106"/>
+      <c r="AX22" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="AO20:AX20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AI21"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AX21"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
-    <mergeCell ref="AO19:AX19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AX18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO5:AX5"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO9:AX9"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AO7:AX7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="Y7:AI7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AX6"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="AO8:AX8"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO22:AX22"/>
+    <mergeCell ref="AJ15:AN15"/>
+    <mergeCell ref="AO15:AX15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="AO13:AX13"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AI13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AI22"/>
+    <mergeCell ref="AJ22:AN22"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="Y19:AI19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AI17"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="Y12:AI12"/>
+    <mergeCell ref="Y11:AI11"/>
+    <mergeCell ref="AO16:AX16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AO17:AX17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AI16"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AX11"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AX12"/>
+    <mergeCell ref="Y15:AI15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AI14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AX14"/>
     <mergeCell ref="AO10:AX10"/>
     <mergeCell ref="AJ10:AN10"/>
     <mergeCell ref="B12:H12"/>
@@ -3841,90 +3904,52 @@
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AX11"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AX12"/>
-    <mergeCell ref="Y15:AI15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AI14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AX14"/>
-    <mergeCell ref="AO16:AX16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AO17:AX17"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AI16"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="Y19:AI19"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AI17"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="Y12:AI12"/>
-    <mergeCell ref="Y11:AI11"/>
-    <mergeCell ref="AO22:AX22"/>
-    <mergeCell ref="AJ15:AN15"/>
-    <mergeCell ref="AO15:AX15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="AO13:AX13"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AI13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AI22"/>
-    <mergeCell ref="AJ22:AN22"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="AO8:AX8"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AO9:AX9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AO7:AX7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="Y7:AI7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Y6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AX6"/>
+    <mergeCell ref="AO5:AX5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO19:AX19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AX18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO20:AX20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AI21"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AX21"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3951,19 +3976,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.8984375" customWidth="1"/>
-    <col min="9" max="11" width="5.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="9" max="11" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3977,7 +4002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -3999,13 +4024,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -4021,7 +4046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>41</v>
       </c>
@@ -4035,7 +4060,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4045,7 +4070,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -4071,7 +4096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -4080,13 +4105,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -4098,7 +4123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <f>ROW()-6</f>
         <v>2</v>
@@ -4119,7 +4144,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <f t="shared" ref="A9:A18" si="0">ROW()-6</f>
         <v>3</v>
@@ -4140,7 +4165,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4161,13 +4186,13 @@
       <c r="G10" s="21"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>62</v>
@@ -4182,7 +4207,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4191,7 +4216,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>57</v>
@@ -4203,7 +4228,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="104"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4226,7 +4251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <f>ROW()-6</f>
         <v>8</v>
@@ -4251,7 +4276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
         <f>ROW()-6</f>
         <v>9</v>
@@ -4272,7 +4297,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <f>ROW()-6</f>
         <v>10</v>
@@ -4293,7 +4318,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4302,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>66</v>
@@ -4314,7 +4339,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4323,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>66</v>
@@ -4359,20 +4384,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.09765625" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4386,7 +4411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -4408,7 +4433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -4430,7 +4455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -4444,7 +4469,7 @@
       <c r="G4" s="196"/>
       <c r="H4" s="196"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="77"/>
@@ -4454,7 +4479,7 @@
       <c r="G5" s="77"/>
       <c r="H5" s="77"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -4480,7 +4505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -4507,7 +4532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f t="shared" ref="A8:A13" si="0">ROW()-6</f>
         <v>2</v>
@@ -4516,7 +4541,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>51</v>
@@ -4528,7 +4553,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="53"/>
     </row>
-    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>3</v>
       </c>
@@ -4550,7 +4575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4573,7 +4598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4594,7 +4619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4617,7 +4642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4667,19 +4692,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.69921875" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4693,7 +4718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -4713,7 +4738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -4733,7 +4758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -4747,7 +4772,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4757,7 +4782,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -4783,7 +4808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -4810,7 +4835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <f t="shared" ref="A8:A14" si="0">ROW()-6</f>
         <v>2</v>
@@ -4831,7 +4856,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4852,7 +4877,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4871,7 +4896,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4892,7 +4917,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4913,7 +4938,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="78">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4922,7 +4947,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>66</v>
@@ -4934,7 +4959,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="84">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4943,7 +4968,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>66</v>
@@ -4955,7 +4980,7 @@
       <c r="G14" s="59"/>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="79"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -4965,25 +4990,25 @@
       <c r="G15" s="17"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="79"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="79"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="F18" s="82"/>
       <c r="G18" s="82"/>
       <c r="H18" s="83"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="81"/>
       <c r="F19" s="82"/>
       <c r="G19" s="82"/>
@@ -5014,20 +5039,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="11" width="5.69921875" customWidth="1"/>
+    <col min="9" max="11" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -5041,7 +5066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -5063,7 +5088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -5085,7 +5110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -5099,7 +5124,7 @@
       <c r="G4" s="193"/>
       <c r="H4" s="193"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5109,7 +5134,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -5135,7 +5160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -5150,7 +5175,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -5162,7 +5187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f>ROW()-6</f>
         <v>2</v>
@@ -5171,7 +5196,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
@@ -5183,7 +5208,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <f t="shared" ref="A9:A13" si="0">ROW()-6</f>
         <v>3</v>
@@ -5206,7 +5231,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5227,7 +5252,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5248,7 +5273,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="78">
         <v>8</v>
       </c>
@@ -5256,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>66</v>
@@ -5269,7 +5294,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="87">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5278,7 +5303,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>66</v>
@@ -5291,29 +5316,29 @@
       <c r="G13" s="90"/>
       <c r="H13" s="89"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="79"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="79"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="13"/>
@@ -5322,17 +5347,17 @@
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -5363,20 +5388,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="11" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -5390,7 +5415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -5412,7 +5437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -5428,14 +5453,14 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">NOW()</f>
-        <v>45450.562381481483</v>
+        <v>45453.677357175926</v>
       </c>
       <c r="J3" s="97"/>
       <c r="K3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -5449,7 +5474,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5459,7 +5484,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -5485,7 +5510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f t="shared" ref="A7:A13" si="0">ROW()-6</f>
         <v>1</v>
@@ -5494,7 +5519,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5512,7 +5537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5533,7 +5558,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5559,7 +5584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5582,7 +5607,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5603,7 +5628,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5624,7 +5649,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5645,7 +5670,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>8</v>
       </c>
@@ -5665,7 +5690,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
         <f>ROW()-6</f>
         <v>9</v>
@@ -5686,7 +5711,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="78">
         <f>ROW()-6</f>
         <v>10</v>
@@ -5695,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>66</v>
@@ -5707,7 +5732,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="84">
         <f>ROW()-6</f>
         <v>11</v>
@@ -5716,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>66</v>
@@ -5728,19 +5753,19 @@
       <c r="G17" s="59"/>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="79"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="79"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="79"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -5769,23 +5794,23 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="11" width="5.8984375" customWidth="1"/>
+    <col min="9" max="11" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +5846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
@@ -5843,7 +5868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
@@ -5857,7 +5882,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5867,7 +5892,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -5893,7 +5918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
@@ -5902,7 +5927,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5920,7 +5945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f>ROW()-6</f>
         <v>2</v>
@@ -5929,7 +5954,7 @@
         <v>143</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>66</v>
@@ -5941,7 +5966,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="64"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>3</v>
       </c>
@@ -5949,7 +5974,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -5961,7 +5986,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="66"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f>ROW()-6</f>
         <v>4</v>
@@ -5980,30 +6005,30 @@
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H10" s="42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f>ROW()-6</f>
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="D11" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f>ROW()-6</f>
         <v>6</v>
@@ -6024,7 +6049,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="66"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f>ROW()-6</f>
         <v>7</v>
@@ -6045,7 +6070,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="66"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="78">
         <f>ROW()-6</f>
         <v>8</v>
@@ -6054,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6066,7 +6091,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="93"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="84">
         <v>8</v>
       </c>
@@ -6074,7 +6099,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6086,7 +6111,7 @@
       <c r="G15" s="59"/>
       <c r="H15" s="94"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="81"/>
       <c r="B16" s="91"/>
       <c r="C16" s="91"/>
@@ -6096,7 +6121,7 @@
       <c r="G16" s="82"/>
       <c r="H16" s="92"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="81"/>
       <c r="B17" s="91"/>
       <c r="C17" s="91"/>
@@ -6106,7 +6131,7 @@
       <c r="G17" s="82"/>
       <c r="H17" s="92"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="83"/>
       <c r="C18" s="91"/>
@@ -6116,7 +6141,7 @@
       <c r="G18" s="82"/>
       <c r="H18" s="92"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="81"/>
       <c r="B19" s="83"/>
       <c r="C19" s="91"/>
@@ -6126,7 +6151,7 @@
       <c r="G19" s="82"/>
       <c r="H19" s="92"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="81"/>
       <c r="B20" s="83"/>
       <c r="C20" s="91"/>
@@ -6136,7 +6161,7 @@
       <c r="G20" s="82"/>
       <c r="H20" s="92"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="83"/>
       <c r="C21" s="91"/>
@@ -6146,13 +6171,13 @@
       <c r="G21" s="82"/>
       <c r="H21" s="92"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F24" s="96"/>
       <c r="G24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F25" s="97"/>
       <c r="G25" t="s">
         <v>40</v>
@@ -6180,23 +6205,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="11" width="6.09765625" customWidth="1"/>
+    <col min="9" max="11" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -6210,7 +6235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>12</v>
       </c>
@@ -6225,20 +6250,20 @@
         <v>109</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="189" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -6254,13 +6279,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="185" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -6268,7 +6293,7 @@
       <c r="G4" s="194"/>
       <c r="H4" s="195"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6278,7 +6303,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -6304,25 +6329,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>155</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>157</v>
       </c>
       <c r="G7" s="33">
         <v>1</v>
@@ -6331,36 +6356,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <f>ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>159</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>3</v>
       </c>
       <c r="B9" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -6372,49 +6397,49 @@
       <c r="G9" s="21"/>
       <c r="H9" s="66"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f>ROW()-6</f>
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>162</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>163</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f>ROW()-6</f>
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="D11" s="42" t="s">
         <v>165</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>166</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="62"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <f>ROW()-6</f>
         <v>6</v>
@@ -6435,7 +6460,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <f>ROW()-6</f>
         <v>7</v>
@@ -6456,7 +6481,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="78">
         <f>ROW()-6</f>
         <v>8</v>
@@ -6465,7 +6490,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6477,7 +6502,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="84">
         <v>8</v>
       </c>
@@ -6485,7 +6510,7 @@
         <v>110</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6497,7 +6522,7 @@
       <c r="G15" s="59"/>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="79"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -6507,7 +6532,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="79"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -6517,7 +6542,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="79"/>
       <c r="B18" s="13"/>
       <c r="C18" s="80"/>
@@ -6527,7 +6552,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="79"/>
       <c r="B19" s="13"/>
       <c r="C19" s="80"/>
@@ -6537,7 +6562,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="79"/>
       <c r="B20" s="83"/>
       <c r="C20" s="80"/>
@@ -6547,7 +6572,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="79"/>
       <c r="B21" s="83"/>
       <c r="C21" s="80"/>
@@ -6580,17 +6605,17 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G9:L10"/>
+      <selection activeCell="S9" sqref="W9:AV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="48" width="2.69921875" customWidth="1"/>
+    <col min="1" max="48" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6642,839 +6667,847 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="212" t="s">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A2" s="197" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="199"/>
+      <c r="C2" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="212" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="197" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="212" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="212" t="s">
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="212" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="198"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="198"/>
+      <c r="AR2" s="198"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="198"/>
+      <c r="AV2" s="199"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3" s="200">
+        <v>1</v>
+      </c>
+      <c r="B3" s="200"/>
+      <c r="C3" s="201">
+        <v>45446</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="202" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="203" t="s">
         <v>172</v>
       </c>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="214"/>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="214"/>
-      <c r="AK2" s="214"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="214"/>
-      <c r="AQ2" s="214"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="214"/>
-      <c r="AT2" s="214"/>
-      <c r="AU2" s="214"/>
-      <c r="AV2" s="213"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="198">
-        <v>1</v>
-      </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="209">
-        <v>45446</v>
-      </c>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="211" t="s">
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="203"/>
+      <c r="AK3" s="203"/>
+      <c r="AL3" s="203"/>
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203"/>
+      <c r="AS3" s="203"/>
+      <c r="AT3" s="203"/>
+      <c r="AU3" s="203"/>
+      <c r="AV3" s="203"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" s="200">
+        <v>2</v>
+      </c>
+      <c r="B4" s="200"/>
+      <c r="C4" s="201">
+        <v>45447</v>
+      </c>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="202" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203" t="s">
+        <v>186</v>
+      </c>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203"/>
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="203"/>
+      <c r="AF4" s="203"/>
+      <c r="AG4" s="203"/>
+      <c r="AH4" s="203"/>
+      <c r="AI4" s="203"/>
+      <c r="AJ4" s="203"/>
+      <c r="AK4" s="203"/>
+      <c r="AL4" s="203"/>
+      <c r="AM4" s="203"/>
+      <c r="AN4" s="203"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="203"/>
+      <c r="AQ4" s="203"/>
+      <c r="AR4" s="203"/>
+      <c r="AS4" s="203"/>
+      <c r="AT4" s="203"/>
+      <c r="AU4" s="203"/>
+      <c r="AV4" s="203"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" s="200">
+        <v>3</v>
+      </c>
+      <c r="B5" s="200"/>
+      <c r="C5" s="201">
+        <v>45448</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="203" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="197"/>
-      <c r="AM3" s="197"/>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197"/>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="197"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="198">
-        <v>2</v>
-      </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="209">
-        <v>45447</v>
-      </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="211" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="197" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197" t="s">
-        <v>187</v>
-      </c>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="197"/>
-      <c r="AF4" s="197"/>
-      <c r="AG4" s="197"/>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="197"/>
-      <c r="AM4" s="197"/>
-      <c r="AN4" s="197"/>
-      <c r="AO4" s="197"/>
-      <c r="AP4" s="197"/>
-      <c r="AQ4" s="197"/>
-      <c r="AR4" s="197"/>
-      <c r="AS4" s="197"/>
-      <c r="AT4" s="197"/>
-      <c r="AU4" s="197"/>
-      <c r="AV4" s="197"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="198">
-        <v>3</v>
-      </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="209">
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203" t="s">
+        <v>190</v>
+      </c>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="203"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="203"/>
+      <c r="AO5" s="203"/>
+      <c r="AP5" s="203"/>
+      <c r="AQ5" s="203"/>
+      <c r="AR5" s="203"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="203"/>
+      <c r="AU5" s="203"/>
+      <c r="AV5" s="203"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6" s="200">
+        <v>4</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="201">
         <v>45448</v>
       </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="211" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="197" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197" t="s">
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="202" t="s">
         <v>191</v>
       </c>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="197"/>
-      <c r="AF5" s="197"/>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="197"/>
-      <c r="AM5" s="197"/>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="197"/>
-      <c r="AT5" s="197"/>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="198">
-        <v>4</v>
-      </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="209">
-        <v>45448</v>
-      </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="211" t="s">
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="197" t="s">
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="197"/>
-      <c r="AI6" s="197"/>
-      <c r="AJ6" s="197"/>
-      <c r="AK6" s="197"/>
-      <c r="AL6" s="197"/>
-      <c r="AM6" s="197"/>
-      <c r="AN6" s="197"/>
-      <c r="AO6" s="197"/>
-      <c r="AP6" s="197"/>
-      <c r="AQ6" s="197"/>
-      <c r="AR6" s="197"/>
-      <c r="AS6" s="197"/>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="197"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="198">
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="203"/>
+      <c r="AE6" s="203"/>
+      <c r="AF6" s="203"/>
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" s="200">
         <v>5</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="197"/>
-      <c r="AA7" s="197"/>
-      <c r="AB7" s="197"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="197"/>
-      <c r="AE7" s="197"/>
-      <c r="AF7" s="197"/>
-      <c r="AG7" s="197"/>
-      <c r="AH7" s="197"/>
-      <c r="AI7" s="197"/>
-      <c r="AJ7" s="197"/>
-      <c r="AK7" s="197"/>
-      <c r="AL7" s="197"/>
-      <c r="AM7" s="197"/>
-      <c r="AN7" s="197"/>
-      <c r="AO7" s="197"/>
-      <c r="AP7" s="197"/>
-      <c r="AQ7" s="197"/>
-      <c r="AR7" s="197"/>
-      <c r="AS7" s="197"/>
-      <c r="AT7" s="197"/>
-      <c r="AU7" s="197"/>
-      <c r="AV7" s="197"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="198">
+      <c r="B7" s="200"/>
+      <c r="C7" s="201">
+        <v>45453</v>
+      </c>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="203" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="203"/>
+      <c r="AK7" s="203"/>
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="203"/>
+      <c r="AQ7" s="203"/>
+      <c r="AR7" s="203"/>
+      <c r="AS7" s="203"/>
+      <c r="AT7" s="203"/>
+      <c r="AU7" s="203"/>
+      <c r="AV7" s="203"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" s="200">
         <v>6</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="197"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="197"/>
-      <c r="Z8" s="197"/>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="197"/>
-      <c r="AF8" s="197"/>
-      <c r="AG8" s="197"/>
-      <c r="AH8" s="197"/>
-      <c r="AI8" s="197"/>
-      <c r="AJ8" s="197"/>
-      <c r="AK8" s="197"/>
-      <c r="AL8" s="197"/>
-      <c r="AM8" s="197"/>
-      <c r="AN8" s="197"/>
-      <c r="AO8" s="197"/>
-      <c r="AP8" s="197"/>
-      <c r="AQ8" s="197"/>
-      <c r="AR8" s="197"/>
-      <c r="AS8" s="197"/>
-      <c r="AT8" s="197"/>
-      <c r="AU8" s="197"/>
-      <c r="AV8" s="197"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="198">
+      <c r="B8" s="200"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="203"/>
+      <c r="AH8" s="203"/>
+      <c r="AI8" s="203"/>
+      <c r="AJ8" s="203"/>
+      <c r="AK8" s="203"/>
+      <c r="AL8" s="203"/>
+      <c r="AM8" s="203"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="203"/>
+      <c r="AP8" s="203"/>
+      <c r="AQ8" s="203"/>
+      <c r="AR8" s="203"/>
+      <c r="AS8" s="203"/>
+      <c r="AT8" s="203"/>
+      <c r="AU8" s="203"/>
+      <c r="AV8" s="203"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" s="200">
         <v>7</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AA9" s="197"/>
-      <c r="AB9" s="197"/>
-      <c r="AC9" s="197"/>
-      <c r="AD9" s="197"/>
-      <c r="AE9" s="197"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="197"/>
-      <c r="AH9" s="197"/>
-      <c r="AI9" s="197"/>
-      <c r="AJ9" s="197"/>
-      <c r="AK9" s="197"/>
-      <c r="AL9" s="197"/>
-      <c r="AM9" s="197"/>
-      <c r="AN9" s="197"/>
-      <c r="AO9" s="197"/>
-      <c r="AP9" s="197"/>
-      <c r="AQ9" s="197"/>
-      <c r="AR9" s="197"/>
-      <c r="AS9" s="197"/>
-      <c r="AT9" s="197"/>
-      <c r="AU9" s="197"/>
-      <c r="AV9" s="197"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="198">
+      <c r="B9" s="200"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="203"/>
+      <c r="S9" s="203"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="203"/>
+      <c r="W9" s="203"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="203"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="203"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="203"/>
+      <c r="AJ9" s="203"/>
+      <c r="AK9" s="203"/>
+      <c r="AL9" s="203"/>
+      <c r="AM9" s="203"/>
+      <c r="AN9" s="203"/>
+      <c r="AO9" s="203"/>
+      <c r="AP9" s="203"/>
+      <c r="AQ9" s="203"/>
+      <c r="AR9" s="203"/>
+      <c r="AS9" s="203"/>
+      <c r="AT9" s="203"/>
+      <c r="AU9" s="203"/>
+      <c r="AV9" s="203"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" s="200">
         <v>8</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
-      <c r="AA10" s="197"/>
-      <c r="AB10" s="197"/>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="197"/>
-      <c r="AE10" s="197"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="197"/>
-      <c r="AJ10" s="197"/>
-      <c r="AK10" s="197"/>
-      <c r="AL10" s="197"/>
-      <c r="AM10" s="197"/>
-      <c r="AN10" s="197"/>
-      <c r="AO10" s="197"/>
-      <c r="AP10" s="197"/>
-      <c r="AQ10" s="197"/>
-      <c r="AR10" s="197"/>
-      <c r="AS10" s="197"/>
-      <c r="AT10" s="197"/>
-      <c r="AU10" s="197"/>
-      <c r="AV10" s="197"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="198">
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="203"/>
+      <c r="V10" s="203"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="203"/>
+      <c r="Z10" s="203"/>
+      <c r="AA10" s="203"/>
+      <c r="AB10" s="203"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="203"/>
+      <c r="AE10" s="203"/>
+      <c r="AF10" s="203"/>
+      <c r="AG10" s="203"/>
+      <c r="AH10" s="203"/>
+      <c r="AI10" s="203"/>
+      <c r="AJ10" s="203"/>
+      <c r="AK10" s="203"/>
+      <c r="AL10" s="203"/>
+      <c r="AM10" s="203"/>
+      <c r="AN10" s="203"/>
+      <c r="AO10" s="203"/>
+      <c r="AP10" s="203"/>
+      <c r="AQ10" s="203"/>
+      <c r="AR10" s="203"/>
+      <c r="AS10" s="203"/>
+      <c r="AT10" s="203"/>
+      <c r="AU10" s="203"/>
+      <c r="AV10" s="203"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="200">
         <v>9</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="197"/>
-      <c r="AE11" s="197"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="197"/>
-      <c r="AH11" s="197"/>
-      <c r="AI11" s="197"/>
-      <c r="AJ11" s="197"/>
-      <c r="AK11" s="197"/>
-      <c r="AL11" s="197"/>
-      <c r="AM11" s="197"/>
-      <c r="AN11" s="197"/>
-      <c r="AO11" s="197"/>
-      <c r="AP11" s="197"/>
-      <c r="AQ11" s="197"/>
-      <c r="AR11" s="197"/>
-      <c r="AS11" s="197"/>
-      <c r="AT11" s="197"/>
-      <c r="AU11" s="197"/>
-      <c r="AV11" s="197"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="198">
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="203"/>
+      <c r="V11" s="203"/>
+      <c r="W11" s="203"/>
+      <c r="X11" s="203"/>
+      <c r="Y11" s="203"/>
+      <c r="Z11" s="203"/>
+      <c r="AA11" s="203"/>
+      <c r="AB11" s="203"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="203"/>
+      <c r="AE11" s="203"/>
+      <c r="AF11" s="203"/>
+      <c r="AG11" s="203"/>
+      <c r="AH11" s="203"/>
+      <c r="AI11" s="203"/>
+      <c r="AJ11" s="203"/>
+      <c r="AK11" s="203"/>
+      <c r="AL11" s="203"/>
+      <c r="AM11" s="203"/>
+      <c r="AN11" s="203"/>
+      <c r="AO11" s="203"/>
+      <c r="AP11" s="203"/>
+      <c r="AQ11" s="203"/>
+      <c r="AR11" s="203"/>
+      <c r="AS11" s="203"/>
+      <c r="AT11" s="203"/>
+      <c r="AU11" s="203"/>
+      <c r="AV11" s="203"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" s="200">
         <v>10</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="197"/>
-      <c r="AJ12" s="197"/>
-      <c r="AK12" s="197"/>
-      <c r="AL12" s="197"/>
-      <c r="AM12" s="197"/>
-      <c r="AN12" s="197"/>
-      <c r="AO12" s="197"/>
-      <c r="AP12" s="197"/>
-      <c r="AQ12" s="197"/>
-      <c r="AR12" s="197"/>
-      <c r="AS12" s="197"/>
-      <c r="AT12" s="197"/>
-      <c r="AU12" s="197"/>
-      <c r="AV12" s="197"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="198">
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="203"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="203"/>
+      <c r="W12" s="203"/>
+      <c r="X12" s="203"/>
+      <c r="Y12" s="203"/>
+      <c r="Z12" s="203"/>
+      <c r="AA12" s="203"/>
+      <c r="AB12" s="203"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="203"/>
+      <c r="AE12" s="203"/>
+      <c r="AF12" s="203"/>
+      <c r="AG12" s="203"/>
+      <c r="AH12" s="203"/>
+      <c r="AI12" s="203"/>
+      <c r="AJ12" s="203"/>
+      <c r="AK12" s="203"/>
+      <c r="AL12" s="203"/>
+      <c r="AM12" s="203"/>
+      <c r="AN12" s="203"/>
+      <c r="AO12" s="203"/>
+      <c r="AP12" s="203"/>
+      <c r="AQ12" s="203"/>
+      <c r="AR12" s="203"/>
+      <c r="AS12" s="203"/>
+      <c r="AT12" s="203"/>
+      <c r="AU12" s="203"/>
+      <c r="AV12" s="203"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="200">
         <v>11</v>
       </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="197"/>
-      <c r="V13" s="197"/>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="197"/>
-      <c r="AI13" s="197"/>
-      <c r="AJ13" s="197"/>
-      <c r="AK13" s="197"/>
-      <c r="AL13" s="197"/>
-      <c r="AM13" s="197"/>
-      <c r="AN13" s="197"/>
-      <c r="AO13" s="197"/>
-      <c r="AP13" s="197"/>
-      <c r="AQ13" s="197"/>
-      <c r="AR13" s="197"/>
-      <c r="AS13" s="197"/>
-      <c r="AT13" s="197"/>
-      <c r="AU13" s="197"/>
-      <c r="AV13" s="197"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="198">
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="203"/>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="203"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="203"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="203"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="203"/>
+      <c r="AK13" s="203"/>
+      <c r="AL13" s="203"/>
+      <c r="AM13" s="203"/>
+      <c r="AN13" s="203"/>
+      <c r="AO13" s="203"/>
+      <c r="AP13" s="203"/>
+      <c r="AQ13" s="203"/>
+      <c r="AR13" s="203"/>
+      <c r="AS13" s="203"/>
+      <c r="AT13" s="203"/>
+      <c r="AU13" s="203"/>
+      <c r="AV13" s="203"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" s="200">
         <v>12</v>
       </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="197"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="197"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="197"/>
-      <c r="AH14" s="197"/>
-      <c r="AI14" s="197"/>
-      <c r="AJ14" s="197"/>
-      <c r="AK14" s="197"/>
-      <c r="AL14" s="197"/>
-      <c r="AM14" s="197"/>
-      <c r="AN14" s="197"/>
-      <c r="AO14" s="197"/>
-      <c r="AP14" s="197"/>
-      <c r="AQ14" s="197"/>
-      <c r="AR14" s="197"/>
-      <c r="AS14" s="197"/>
-      <c r="AT14" s="197"/>
-      <c r="AU14" s="197"/>
-      <c r="AV14" s="197"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="198">
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="203"/>
+      <c r="W14" s="203"/>
+      <c r="X14" s="203"/>
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="203"/>
+      <c r="AA14" s="203"/>
+      <c r="AB14" s="203"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="203"/>
+      <c r="AE14" s="203"/>
+      <c r="AF14" s="203"/>
+      <c r="AG14" s="203"/>
+      <c r="AH14" s="203"/>
+      <c r="AI14" s="203"/>
+      <c r="AJ14" s="203"/>
+      <c r="AK14" s="203"/>
+      <c r="AL14" s="203"/>
+      <c r="AM14" s="203"/>
+      <c r="AN14" s="203"/>
+      <c r="AO14" s="203"/>
+      <c r="AP14" s="203"/>
+      <c r="AQ14" s="203"/>
+      <c r="AR14" s="203"/>
+      <c r="AS14" s="203"/>
+      <c r="AT14" s="203"/>
+      <c r="AU14" s="203"/>
+      <c r="AV14" s="203"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" s="200">
         <v>13</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="197"/>
-      <c r="AJ15" s="197"/>
-      <c r="AK15" s="197"/>
-      <c r="AL15" s="197"/>
-      <c r="AM15" s="197"/>
-      <c r="AN15" s="197"/>
-      <c r="AO15" s="197"/>
-      <c r="AP15" s="197"/>
-      <c r="AQ15" s="197"/>
-      <c r="AR15" s="197"/>
-      <c r="AS15" s="197"/>
-      <c r="AT15" s="197"/>
-      <c r="AU15" s="197"/>
-      <c r="AV15" s="197"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="198">
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="203"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="203"/>
+      <c r="AE15" s="203"/>
+      <c r="AF15" s="203"/>
+      <c r="AG15" s="203"/>
+      <c r="AH15" s="203"/>
+      <c r="AI15" s="203"/>
+      <c r="AJ15" s="203"/>
+      <c r="AK15" s="203"/>
+      <c r="AL15" s="203"/>
+      <c r="AM15" s="203"/>
+      <c r="AN15" s="203"/>
+      <c r="AO15" s="203"/>
+      <c r="AP15" s="203"/>
+      <c r="AQ15" s="203"/>
+      <c r="AR15" s="203"/>
+      <c r="AS15" s="203"/>
+      <c r="AT15" s="203"/>
+      <c r="AU15" s="203"/>
+      <c r="AV15" s="203"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="200">
         <v>14</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="197"/>
-      <c r="AJ16" s="197"/>
-      <c r="AK16" s="197"/>
-      <c r="AL16" s="197"/>
-      <c r="AM16" s="197"/>
-      <c r="AN16" s="197"/>
-      <c r="AO16" s="197"/>
-      <c r="AP16" s="197"/>
-      <c r="AQ16" s="197"/>
-      <c r="AR16" s="197"/>
-      <c r="AS16" s="197"/>
-      <c r="AT16" s="197"/>
-      <c r="AU16" s="197"/>
-      <c r="AV16" s="197"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="198">
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
+      <c r="V16" s="203"/>
+      <c r="W16" s="203"/>
+      <c r="X16" s="203"/>
+      <c r="Y16" s="203"/>
+      <c r="Z16" s="203"/>
+      <c r="AA16" s="203"/>
+      <c r="AB16" s="203"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="203"/>
+      <c r="AE16" s="203"/>
+      <c r="AF16" s="203"/>
+      <c r="AG16" s="203"/>
+      <c r="AH16" s="203"/>
+      <c r="AI16" s="203"/>
+      <c r="AJ16" s="203"/>
+      <c r="AK16" s="203"/>
+      <c r="AL16" s="203"/>
+      <c r="AM16" s="203"/>
+      <c r="AN16" s="203"/>
+      <c r="AO16" s="203"/>
+      <c r="AP16" s="203"/>
+      <c r="AQ16" s="203"/>
+      <c r="AR16" s="203"/>
+      <c r="AS16" s="203"/>
+      <c r="AT16" s="203"/>
+      <c r="AU16" s="203"/>
+      <c r="AV16" s="203"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="200">
         <v>15</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
       <c r="M17" s="205"/>
       <c r="N17" s="205"/>
       <c r="O17" s="205"/>
@@ -7485,48 +7518,48 @@
       <c r="T17" s="205"/>
       <c r="U17" s="205"/>
       <c r="V17" s="205"/>
-      <c r="W17" s="197"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
-      <c r="AB17" s="197"/>
-      <c r="AC17" s="197"/>
-      <c r="AD17" s="197"/>
-      <c r="AE17" s="197"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="197"/>
-      <c r="AH17" s="197"/>
-      <c r="AI17" s="197"/>
-      <c r="AJ17" s="197"/>
-      <c r="AK17" s="197"/>
-      <c r="AL17" s="197"/>
-      <c r="AM17" s="197"/>
-      <c r="AN17" s="197"/>
-      <c r="AO17" s="197"/>
-      <c r="AP17" s="197"/>
-      <c r="AQ17" s="197"/>
-      <c r="AR17" s="197"/>
-      <c r="AS17" s="197"/>
-      <c r="AT17" s="197"/>
-      <c r="AU17" s="197"/>
-      <c r="AV17" s="197"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="198">
+      <c r="W17" s="203"/>
+      <c r="X17" s="203"/>
+      <c r="Y17" s="203"/>
+      <c r="Z17" s="203"/>
+      <c r="AA17" s="203"/>
+      <c r="AB17" s="203"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="203"/>
+      <c r="AE17" s="203"/>
+      <c r="AF17" s="203"/>
+      <c r="AG17" s="203"/>
+      <c r="AH17" s="203"/>
+      <c r="AI17" s="203"/>
+      <c r="AJ17" s="203"/>
+      <c r="AK17" s="203"/>
+      <c r="AL17" s="203"/>
+      <c r="AM17" s="203"/>
+      <c r="AN17" s="203"/>
+      <c r="AO17" s="203"/>
+      <c r="AP17" s="203"/>
+      <c r="AQ17" s="203"/>
+      <c r="AR17" s="203"/>
+      <c r="AS17" s="203"/>
+      <c r="AT17" s="203"/>
+      <c r="AU17" s="203"/>
+      <c r="AV17" s="203"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="200">
         <v>16</v>
       </c>
-      <c r="B18" s="198"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
       <c r="M18" s="205"/>
       <c r="N18" s="205"/>
       <c r="O18" s="205"/>
@@ -7537,48 +7570,48 @@
       <c r="T18" s="205"/>
       <c r="U18" s="205"/>
       <c r="V18" s="205"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-      <c r="AC18" s="197"/>
-      <c r="AD18" s="197"/>
-      <c r="AE18" s="197"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="197"/>
-      <c r="AH18" s="197"/>
-      <c r="AI18" s="197"/>
-      <c r="AJ18" s="197"/>
-      <c r="AK18" s="197"/>
-      <c r="AL18" s="197"/>
-      <c r="AM18" s="197"/>
-      <c r="AN18" s="197"/>
-      <c r="AO18" s="197"/>
-      <c r="AP18" s="197"/>
-      <c r="AQ18" s="197"/>
-      <c r="AR18" s="197"/>
-      <c r="AS18" s="197"/>
-      <c r="AT18" s="197"/>
-      <c r="AU18" s="197"/>
-      <c r="AV18" s="197"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="198">
+      <c r="W18" s="203"/>
+      <c r="X18" s="203"/>
+      <c r="Y18" s="203"/>
+      <c r="Z18" s="203"/>
+      <c r="AA18" s="203"/>
+      <c r="AB18" s="203"/>
+      <c r="AC18" s="203"/>
+      <c r="AD18" s="203"/>
+      <c r="AE18" s="203"/>
+      <c r="AF18" s="203"/>
+      <c r="AG18" s="203"/>
+      <c r="AH18" s="203"/>
+      <c r="AI18" s="203"/>
+      <c r="AJ18" s="203"/>
+      <c r="AK18" s="203"/>
+      <c r="AL18" s="203"/>
+      <c r="AM18" s="203"/>
+      <c r="AN18" s="203"/>
+      <c r="AO18" s="203"/>
+      <c r="AP18" s="203"/>
+      <c r="AQ18" s="203"/>
+      <c r="AR18" s="203"/>
+      <c r="AS18" s="203"/>
+      <c r="AT18" s="203"/>
+      <c r="AU18" s="203"/>
+      <c r="AV18" s="203"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="200">
         <v>17</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="204"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="205"/>
       <c r="N19" s="205"/>
       <c r="O19" s="205"/>
@@ -7589,272 +7622,191 @@
       <c r="T19" s="205"/>
       <c r="U19" s="205"/>
       <c r="V19" s="205"/>
-      <c r="W19" s="206"/>
-      <c r="X19" s="207"/>
-      <c r="Y19" s="207"/>
-      <c r="Z19" s="207"/>
-      <c r="AA19" s="207"/>
-      <c r="AB19" s="207"/>
-      <c r="AC19" s="207"/>
-      <c r="AD19" s="207"/>
-      <c r="AE19" s="207"/>
-      <c r="AF19" s="207"/>
-      <c r="AG19" s="207"/>
-      <c r="AH19" s="207"/>
-      <c r="AI19" s="207"/>
-      <c r="AJ19" s="207"/>
-      <c r="AK19" s="207"/>
-      <c r="AL19" s="207"/>
-      <c r="AM19" s="207"/>
-      <c r="AN19" s="207"/>
-      <c r="AO19" s="207"/>
-      <c r="AP19" s="207"/>
-      <c r="AQ19" s="207"/>
-      <c r="AR19" s="207"/>
-      <c r="AS19" s="207"/>
-      <c r="AT19" s="207"/>
-      <c r="AU19" s="207"/>
-      <c r="AV19" s="208"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="198">
+      <c r="W19" s="212"/>
+      <c r="X19" s="213"/>
+      <c r="Y19" s="213"/>
+      <c r="Z19" s="213"/>
+      <c r="AA19" s="213"/>
+      <c r="AB19" s="213"/>
+      <c r="AC19" s="213"/>
+      <c r="AD19" s="213"/>
+      <c r="AE19" s="213"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="213"/>
+      <c r="AH19" s="213"/>
+      <c r="AI19" s="213"/>
+      <c r="AJ19" s="213"/>
+      <c r="AK19" s="213"/>
+      <c r="AL19" s="213"/>
+      <c r="AM19" s="213"/>
+      <c r="AN19" s="213"/>
+      <c r="AO19" s="213"/>
+      <c r="AP19" s="213"/>
+      <c r="AQ19" s="213"/>
+      <c r="AR19" s="213"/>
+      <c r="AS19" s="213"/>
+      <c r="AT19" s="213"/>
+      <c r="AU19" s="213"/>
+      <c r="AV19" s="214"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="200">
         <v>18</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207"/>
-      <c r="U20" s="207"/>
-      <c r="V20" s="208"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="207"/>
-      <c r="Y20" s="207"/>
-      <c r="Z20" s="207"/>
-      <c r="AA20" s="207"/>
-      <c r="AB20" s="207"/>
-      <c r="AC20" s="207"/>
-      <c r="AD20" s="207"/>
-      <c r="AE20" s="207"/>
-      <c r="AF20" s="207"/>
-      <c r="AG20" s="207"/>
-      <c r="AH20" s="207"/>
-      <c r="AI20" s="207"/>
-      <c r="AJ20" s="207"/>
-      <c r="AK20" s="207"/>
-      <c r="AL20" s="207"/>
-      <c r="AM20" s="207"/>
-      <c r="AN20" s="207"/>
-      <c r="AO20" s="207"/>
-      <c r="AP20" s="207"/>
-      <c r="AQ20" s="207"/>
-      <c r="AR20" s="207"/>
-      <c r="AS20" s="207"/>
-      <c r="AT20" s="207"/>
-      <c r="AU20" s="207"/>
-      <c r="AV20" s="208"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="198">
+      <c r="B20" s="200"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="214"/>
+      <c r="W20" s="212"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="213"/>
+      <c r="AA20" s="213"/>
+      <c r="AB20" s="213"/>
+      <c r="AC20" s="213"/>
+      <c r="AD20" s="213"/>
+      <c r="AE20" s="213"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="213"/>
+      <c r="AH20" s="213"/>
+      <c r="AI20" s="213"/>
+      <c r="AJ20" s="213"/>
+      <c r="AK20" s="213"/>
+      <c r="AL20" s="213"/>
+      <c r="AM20" s="213"/>
+      <c r="AN20" s="213"/>
+      <c r="AO20" s="213"/>
+      <c r="AP20" s="213"/>
+      <c r="AQ20" s="213"/>
+      <c r="AR20" s="213"/>
+      <c r="AS20" s="213"/>
+      <c r="AT20" s="213"/>
+      <c r="AU20" s="213"/>
+      <c r="AV20" s="214"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="200">
         <v>19</v>
       </c>
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="206"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="207"/>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
-      <c r="S21" s="207"/>
-      <c r="T21" s="207"/>
-      <c r="U21" s="207"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="206"/>
-      <c r="X21" s="207"/>
-      <c r="Y21" s="207"/>
-      <c r="Z21" s="207"/>
-      <c r="AA21" s="207"/>
-      <c r="AB21" s="207"/>
-      <c r="AC21" s="207"/>
-      <c r="AD21" s="207"/>
-      <c r="AE21" s="207"/>
-      <c r="AF21" s="207"/>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="207"/>
-      <c r="AI21" s="207"/>
-      <c r="AJ21" s="207"/>
-      <c r="AK21" s="207"/>
-      <c r="AL21" s="207"/>
-      <c r="AM21" s="207"/>
-      <c r="AN21" s="207"/>
-      <c r="AO21" s="207"/>
-      <c r="AP21" s="207"/>
-      <c r="AQ21" s="207"/>
-      <c r="AR21" s="207"/>
-      <c r="AS21" s="207"/>
-      <c r="AT21" s="207"/>
-      <c r="AU21" s="207"/>
-      <c r="AV21" s="208"/>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="197">
+      <c r="B21" s="200"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="212"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="213"/>
+      <c r="S21" s="213"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="214"/>
+      <c r="W21" s="212"/>
+      <c r="X21" s="213"/>
+      <c r="Y21" s="213"/>
+      <c r="Z21" s="213"/>
+      <c r="AA21" s="213"/>
+      <c r="AB21" s="213"/>
+      <c r="AC21" s="213"/>
+      <c r="AD21" s="213"/>
+      <c r="AE21" s="213"/>
+      <c r="AF21" s="213"/>
+      <c r="AG21" s="213"/>
+      <c r="AH21" s="213"/>
+      <c r="AI21" s="213"/>
+      <c r="AJ21" s="213"/>
+      <c r="AK21" s="213"/>
+      <c r="AL21" s="213"/>
+      <c r="AM21" s="213"/>
+      <c r="AN21" s="213"/>
+      <c r="AO21" s="213"/>
+      <c r="AP21" s="213"/>
+      <c r="AQ21" s="213"/>
+      <c r="AR21" s="213"/>
+      <c r="AS21" s="213"/>
+      <c r="AT21" s="213"/>
+      <c r="AU21" s="213"/>
+      <c r="AV21" s="214"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="203">
         <v>20</v>
       </c>
-      <c r="B22" s="197"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="207"/>
-      <c r="S22" s="207"/>
-      <c r="T22" s="207"/>
-      <c r="U22" s="207"/>
-      <c r="V22" s="208"/>
-      <c r="W22" s="206"/>
-      <c r="X22" s="207"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="207"/>
-      <c r="AC22" s="207"/>
-      <c r="AD22" s="207"/>
-      <c r="AE22" s="207"/>
-      <c r="AF22" s="207"/>
-      <c r="AG22" s="207"/>
-      <c r="AH22" s="207"/>
-      <c r="AI22" s="207"/>
-      <c r="AJ22" s="207"/>
-      <c r="AK22" s="207"/>
-      <c r="AL22" s="207"/>
-      <c r="AM22" s="207"/>
-      <c r="AN22" s="207"/>
-      <c r="AO22" s="207"/>
-      <c r="AP22" s="207"/>
-      <c r="AQ22" s="207"/>
-      <c r="AR22" s="207"/>
-      <c r="AS22" s="207"/>
-      <c r="AT22" s="207"/>
-      <c r="AU22" s="207"/>
-      <c r="AV22" s="208"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="212"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="212"/>
+      <c r="X22" s="213"/>
+      <c r="Y22" s="213"/>
+      <c r="Z22" s="213"/>
+      <c r="AA22" s="213"/>
+      <c r="AB22" s="213"/>
+      <c r="AC22" s="213"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="213"/>
+      <c r="AH22" s="213"/>
+      <c r="AI22" s="213"/>
+      <c r="AJ22" s="213"/>
+      <c r="AK22" s="213"/>
+      <c r="AL22" s="213"/>
+      <c r="AM22" s="213"/>
+      <c r="AN22" s="213"/>
+      <c r="AO22" s="213"/>
+      <c r="AP22" s="213"/>
+      <c r="AQ22" s="213"/>
+      <c r="AR22" s="213"/>
+      <c r="AS22" s="213"/>
+      <c r="AT22" s="213"/>
+      <c r="AU22" s="213"/>
+      <c r="AV22" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="W2:AV2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="W3:AV3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:V4"/>
-    <mergeCell ref="W4:AV4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:V5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="W7:AV7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="W8:AV8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="W10:AV10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="W11:AV11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:V12"/>
-    <mergeCell ref="W12:AV12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:AV13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:V14"/>
-    <mergeCell ref="W14:AV14"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:V17"/>
-    <mergeCell ref="W17:AV17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="W18:AV18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:V15"/>
-    <mergeCell ref="W15:AV15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:V16"/>
-    <mergeCell ref="W16:AV16"/>
     <mergeCell ref="W5:AV5"/>
     <mergeCell ref="W6:AV6"/>
     <mergeCell ref="A19:B19"/>
@@ -7879,6 +7831,87 @@
     <mergeCell ref="W21:AV21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:V17"/>
+    <mergeCell ref="W17:AV17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="W18:AV18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="W15:AV15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="W16:AV16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:AV13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="W14:AV14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="W11:AV11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="W12:AV12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:V10"/>
+    <mergeCell ref="W10:AV10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="W7:AV7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="W8:AV8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:V5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="W2:AV2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="W3:AV3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="W4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7889,15 +7922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
@@ -7906,6 +7930,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8104,20 +8137,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
     <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A25EB-A5B4-4E34-A56E-47C456794654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31D5EA-7553-4520-BC10-A5E967A4C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="200">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1129,6 +1129,35 @@
     <t>（4：キャンセル）の追加</t>
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[打刻.出勤時刻、補正出勤時刻]</t>
+    <rPh sb="1" eb="3">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュッキンジコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL制約を削除</t>
+    <rPh sb="8" eb="10">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1915,16 +1944,163 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +2112,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1981,177 +2181,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2188,27 +2217,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2227,9 +2237,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -2584,14 +2613,14 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2607,38 +2636,38 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="116" t="s">
+      <c r="T2" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="119" t="s">
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="116" t="s">
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="122">
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="179">
         <v>45447</v>
       </c>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="124"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="181"/>
       <c r="AT2" s="95"/>
       <c r="AU2" s="95"/>
       <c r="AV2" t="s">
@@ -2646,14 +2675,14 @@
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
@@ -2669,34 +2698,34 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="116" t="s">
+      <c r="T3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="116" t="s">
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="118"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="127"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="184"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
@@ -2746,1078 +2775,1164 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="110" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="110" t="s">
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="110" t="s">
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="110" t="s">
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="111"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="110" t="s">
+      <c r="W5" s="160"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="111"/>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="111"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="110" t="s">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="160"/>
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="111"/>
-      <c r="AM5" s="111"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="110" t="s">
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="160"/>
+      <c r="AN5" s="161"/>
+      <c r="AO5" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="112"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="161"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="148" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="165" t="s">
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="165" t="s">
+      <c r="Q6" s="110"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="166"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="165">
+      <c r="T6" s="110"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="109">
         <v>100</v>
       </c>
-      <c r="W6" s="166"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="148"/>
-      <c r="Z6" s="149"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="149"/>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="149"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="150"/>
-      <c r="AJ6" s="165" t="s">
+      <c r="W6" s="110"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="167"/>
-      <c r="AO6" s="182"/>
-      <c r="AP6" s="183"/>
-      <c r="AQ6" s="183"/>
-      <c r="AR6" s="183"/>
-      <c r="AS6" s="183"/>
-      <c r="AT6" s="183"/>
-      <c r="AU6" s="183"/>
-      <c r="AV6" s="183"/>
-      <c r="AW6" s="183"/>
-      <c r="AX6" s="184"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="108"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="148" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="165" t="s">
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="165" t="s">
+      <c r="Q7" s="110"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="166"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="165">
+      <c r="T7" s="110"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="109">
         <v>10000</v>
       </c>
-      <c r="W7" s="166"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="149"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="165" t="s">
+      <c r="W7" s="110"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="166"/>
-      <c r="AL7" s="166"/>
-      <c r="AM7" s="166"/>
-      <c r="AN7" s="167"/>
-      <c r="AO7" s="182"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183"/>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="184"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="108"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="148" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="165" t="s">
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="165" t="s">
+      <c r="Q8" s="110"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="166"/>
-      <c r="U8" s="167"/>
-      <c r="V8" s="165">
+      <c r="T8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="109">
         <v>500</v>
       </c>
-      <c r="W8" s="166"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="149"/>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="150"/>
-      <c r="AJ8" s="165" t="s">
+      <c r="W8" s="110"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
+      <c r="AJ8" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="166"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="166"/>
-      <c r="AN8" s="167"/>
-      <c r="AO8" s="182"/>
-      <c r="AP8" s="183"/>
-      <c r="AQ8" s="183"/>
-      <c r="AR8" s="183"/>
-      <c r="AS8" s="183"/>
-      <c r="AT8" s="183"/>
-      <c r="AU8" s="183"/>
-      <c r="AV8" s="183"/>
-      <c r="AW8" s="183"/>
-      <c r="AX8" s="184"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="108"/>
     </row>
     <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="145" t="s">
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="131" t="s">
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="131" t="s">
+      <c r="Q9" s="129"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="132"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="131">
+      <c r="T9" s="129"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="128">
         <v>500</v>
       </c>
-      <c r="W9" s="132"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="146"/>
-      <c r="AF9" s="146"/>
-      <c r="AG9" s="146"/>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="131" t="s">
+      <c r="W9" s="129"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="132"/>
-      <c r="AL9" s="132"/>
-      <c r="AM9" s="132"/>
-      <c r="AN9" s="133"/>
-      <c r="AO9" s="182"/>
-      <c r="AP9" s="183"/>
-      <c r="AQ9" s="183"/>
-      <c r="AR9" s="183"/>
-      <c r="AS9" s="183"/>
-      <c r="AT9" s="183"/>
-      <c r="AU9" s="183"/>
-      <c r="AV9" s="183"/>
-      <c r="AW9" s="183"/>
-      <c r="AX9" s="184"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="130"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="108"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="145" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="131" t="s">
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="131" t="s">
+      <c r="Q10" s="129"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="132"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="165">
+      <c r="T10" s="129"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="109">
         <v>10000</v>
       </c>
-      <c r="W10" s="166"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="149"/>
-      <c r="AA10" s="149"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="149"/>
-      <c r="AH10" s="149"/>
-      <c r="AI10" s="150"/>
-      <c r="AJ10" s="131" t="s">
+      <c r="W10" s="110"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="132"/>
-      <c r="AL10" s="132"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="133"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="129"/>
-      <c r="AQ10" s="129"/>
-      <c r="AR10" s="129"/>
-      <c r="AS10" s="129"/>
-      <c r="AT10" s="129"/>
-      <c r="AU10" s="129"/>
-      <c r="AV10" s="129"/>
-      <c r="AW10" s="129"/>
-      <c r="AX10" s="130"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
+      <c r="AX10" s="153"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11" s="98">
         <v>6</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153" t="s">
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="156" t="s">
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="156" t="s">
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="157"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="159">
+      <c r="T11" s="140"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="164">
         <v>10000</v>
       </c>
-      <c r="W11" s="160"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="154"/>
-      <c r="AH11" s="154"/>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="156" t="s">
+      <c r="W11" s="165"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="138"/>
+      <c r="AJ11" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="157"/>
-      <c r="AL11" s="157"/>
-      <c r="AM11" s="157"/>
-      <c r="AN11" s="158"/>
-      <c r="AO11" s="168"/>
-      <c r="AP11" s="169"/>
-      <c r="AQ11" s="169"/>
-      <c r="AR11" s="169"/>
-      <c r="AS11" s="169"/>
-      <c r="AT11" s="169"/>
-      <c r="AU11" s="169"/>
-      <c r="AV11" s="169"/>
-      <c r="AW11" s="169"/>
-      <c r="AX11" s="170"/>
+      <c r="AK11" s="140"/>
+      <c r="AL11" s="140"/>
+      <c r="AM11" s="140"/>
+      <c r="AN11" s="141"/>
+      <c r="AO11" s="142"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
+      <c r="AX11" s="144"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A12" s="99">
         <v>7</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139" t="s">
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="139" t="s">
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="140"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="142">
+      <c r="T12" s="146"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="156">
         <v>500</v>
       </c>
-      <c r="W12" s="143"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="137"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="137"/>
-      <c r="AH12" s="137"/>
-      <c r="AI12" s="138"/>
-      <c r="AJ12" s="139" t="s">
+      <c r="W12" s="157"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="140"/>
-      <c r="AL12" s="140"/>
-      <c r="AM12" s="140"/>
-      <c r="AN12" s="141"/>
-      <c r="AO12" s="171"/>
-      <c r="AP12" s="172"/>
-      <c r="AQ12" s="172"/>
-      <c r="AR12" s="172"/>
-      <c r="AS12" s="172"/>
-      <c r="AT12" s="172"/>
-      <c r="AU12" s="172"/>
-      <c r="AV12" s="172"/>
-      <c r="AW12" s="172"/>
-      <c r="AX12" s="173"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="148"/>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="149"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
+      <c r="AX12" s="150"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="109"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="106"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="119"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="118"/>
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="108"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="109"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="106"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="106"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="106"/>
-      <c r="AU14" s="106"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="106"/>
-      <c r="AX14" s="106"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="121"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="119"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="118"/>
+      <c r="AU14" s="118"/>
+      <c r="AV14" s="118"/>
+      <c r="AW14" s="118"/>
+      <c r="AX14" s="118"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="108"/>
-      <c r="Z15" s="108"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="108"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="108"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="109"/>
-      <c r="AN15" s="109"/>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="106"/>
-      <c r="AU15" s="106"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="106"/>
-      <c r="AX15" s="106"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="119"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="108"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="109"/>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="106"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="106"/>
-      <c r="AR16" s="106"/>
-      <c r="AS16" s="106"/>
-      <c r="AT16" s="106"/>
-      <c r="AU16" s="106"/>
-      <c r="AV16" s="106"/>
-      <c r="AW16" s="106"/>
-      <c r="AX16" s="106"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="119"/>
+      <c r="AL16" s="119"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="108"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="108"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="109"/>
-      <c r="AM17" s="109"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="106"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="106"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="108"/>
-      <c r="AJ18" s="109"/>
-      <c r="AK18" s="109"/>
-      <c r="AL18" s="109"/>
-      <c r="AM18" s="109"/>
-      <c r="AN18" s="109"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="121"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="118"/>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="108"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="108"/>
-      <c r="AE19" s="108"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="108"/>
-      <c r="AJ19" s="109"/>
-      <c r="AK19" s="109"/>
-      <c r="AL19" s="109"/>
-      <c r="AM19" s="109"/>
-      <c r="AN19" s="109"/>
-      <c r="AO19" s="106"/>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
-      <c r="AR19" s="106"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="106"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="106"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="118"/>
+      <c r="AU19" s="118"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="118"/>
+      <c r="AX19" s="118"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A20" s="17"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="108"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="108"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="109"/>
-      <c r="AM20" s="109"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="106"/>
-      <c r="AP20" s="106"/>
-      <c r="AQ20" s="106"/>
-      <c r="AR20" s="106"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="106"/>
-      <c r="AU20" s="106"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="106"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="119"/>
+      <c r="AK20" s="119"/>
+      <c r="AL20" s="119"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="108"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="108"/>
-      <c r="AJ21" s="109"/>
-      <c r="AK21" s="109"/>
-      <c r="AL21" s="109"/>
-      <c r="AM21" s="109"/>
-      <c r="AN21" s="109"/>
-      <c r="AO21" s="106"/>
-      <c r="AP21" s="106"/>
-      <c r="AQ21" s="106"/>
-      <c r="AR21" s="106"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="106"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
-      <c r="AX21" s="106"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="119"/>
+      <c r="AL21" s="119"/>
+      <c r="AM21" s="119"/>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="118"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="118"/>
+      <c r="AU21" s="118"/>
+      <c r="AV21" s="118"/>
+      <c r="AW21" s="118"/>
+      <c r="AX21" s="118"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A22" s="17"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="108"/>
-      <c r="AJ22" s="109"/>
-      <c r="AK22" s="109"/>
-      <c r="AL22" s="109"/>
-      <c r="AM22" s="109"/>
-      <c r="AN22" s="109"/>
-      <c r="AO22" s="106"/>
-      <c r="AP22" s="106"/>
-      <c r="AQ22" s="106"/>
-      <c r="AR22" s="106"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="106"/>
-      <c r="AU22" s="106"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="106"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="119"/>
+      <c r="AM22" s="119"/>
+      <c r="AN22" s="119"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
+      <c r="AS22" s="118"/>
+      <c r="AT22" s="118"/>
+      <c r="AU22" s="118"/>
+      <c r="AV22" s="118"/>
+      <c r="AW22" s="118"/>
+      <c r="AX22" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="AO9:AX9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AO7:AX7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="Y7:AI7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Y6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AX6"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="AO8:AX8"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO20:AX20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AI21"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AX21"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="AO19:AX19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AX18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO5:AX5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO10:AX10"/>
+    <mergeCell ref="AJ10:AN10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="Y5:AI5"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="Y9:AI9"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="Y10:AI10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AX11"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AX12"/>
+    <mergeCell ref="Y15:AI15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AI14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AX14"/>
+    <mergeCell ref="AO16:AX16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AO17:AX17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AI16"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="Y19:AI19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AI17"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="Y12:AI12"/>
+    <mergeCell ref="Y11:AI11"/>
     <mergeCell ref="AO22:AX22"/>
     <mergeCell ref="AJ15:AN15"/>
     <mergeCell ref="AO15:AX15"/>
@@ -3842,114 +3957,28 @@
     <mergeCell ref="Y22:AI22"/>
     <mergeCell ref="AJ22:AN22"/>
     <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="Y19:AI19"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AI17"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="Y12:AI12"/>
-    <mergeCell ref="Y11:AI11"/>
-    <mergeCell ref="AO16:AX16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AO17:AX17"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AI16"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AX11"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AX12"/>
-    <mergeCell ref="Y15:AI15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AI14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AX14"/>
-    <mergeCell ref="AO10:AX10"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="Y5:AI5"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="Y9:AI9"/>
-    <mergeCell ref="AJ9:AN9"/>
-    <mergeCell ref="Y10:AI10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AO5:AX5"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="AO19:AX19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AX18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO20:AX20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AI21"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AX21"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="AO8:AX8"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO9:AX9"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AO7:AX7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="Y7:AI7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AX6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -4381,7 +4410,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4589,9 +4618,7 @@
       <c r="D10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="15" t="s">
@@ -4633,9 +4660,7 @@
       <c r="D12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="40" t="s">
@@ -5453,7 +5478,7 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">NOW()</f>
-        <v>45453.677357175926</v>
+        <v>45453.682158912037</v>
       </c>
       <c r="J3" s="97"/>
       <c r="K3" t="s">
@@ -6605,7 +6630,7 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="W9:AV9"/>
+      <selection activeCell="W9" sqref="W9:AV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6668,846 +6693,854 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="197" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="212" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="197" t="s">
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="197" t="s">
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="197" t="s">
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="198"/>
-      <c r="AJ2" s="198"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="198"/>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="198"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="198"/>
-      <c r="AV2" s="199"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="214"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="214"/>
+      <c r="AK2" s="214"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="214"/>
+      <c r="AQ2" s="214"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="214"/>
+      <c r="AT2" s="214"/>
+      <c r="AU2" s="214"/>
+      <c r="AV2" s="213"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="200">
+      <c r="A3" s="198">
         <v>1</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="201">
+      <c r="B3" s="198"/>
+      <c r="C3" s="209">
         <v>45446</v>
       </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="202" t="s">
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="211" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="203" t="s">
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="197" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="203"/>
-      <c r="AJ3" s="203"/>
-      <c r="AK3" s="203"/>
-      <c r="AL3" s="203"/>
-      <c r="AM3" s="203"/>
-      <c r="AN3" s="203"/>
-      <c r="AO3" s="203"/>
-      <c r="AP3" s="203"/>
-      <c r="AQ3" s="203"/>
-      <c r="AR3" s="203"/>
-      <c r="AS3" s="203"/>
-      <c r="AT3" s="203"/>
-      <c r="AU3" s="203"/>
-      <c r="AV3" s="203"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197"/>
+      <c r="AK3" s="197"/>
+      <c r="AL3" s="197"/>
+      <c r="AM3" s="197"/>
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="197"/>
+      <c r="AP3" s="197"/>
+      <c r="AQ3" s="197"/>
+      <c r="AR3" s="197"/>
+      <c r="AS3" s="197"/>
+      <c r="AT3" s="197"/>
+      <c r="AU3" s="197"/>
+      <c r="AV3" s="197"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="200">
+      <c r="A4" s="198">
         <v>2</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="201">
+      <c r="B4" s="198"/>
+      <c r="C4" s="209">
         <v>45447</v>
       </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="202" t="s">
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="211" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="203" t="s">
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="203"/>
-      <c r="V4" s="203"/>
-      <c r="W4" s="203" t="s">
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="X4" s="203"/>
-      <c r="Y4" s="203"/>
-      <c r="Z4" s="203"/>
-      <c r="AA4" s="203"/>
-      <c r="AB4" s="203"/>
-      <c r="AC4" s="203"/>
-      <c r="AD4" s="203"/>
-      <c r="AE4" s="203"/>
-      <c r="AF4" s="203"/>
-      <c r="AG4" s="203"/>
-      <c r="AH4" s="203"/>
-      <c r="AI4" s="203"/>
-      <c r="AJ4" s="203"/>
-      <c r="AK4" s="203"/>
-      <c r="AL4" s="203"/>
-      <c r="AM4" s="203"/>
-      <c r="AN4" s="203"/>
-      <c r="AO4" s="203"/>
-      <c r="AP4" s="203"/>
-      <c r="AQ4" s="203"/>
-      <c r="AR4" s="203"/>
-      <c r="AS4" s="203"/>
-      <c r="AT4" s="203"/>
-      <c r="AU4" s="203"/>
-      <c r="AV4" s="203"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="197"/>
+      <c r="AT4" s="197"/>
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="197"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="200">
+      <c r="A5" s="198">
         <v>3</v>
       </c>
-      <c r="B5" s="200"/>
-      <c r="C5" s="201">
+      <c r="B5" s="198"/>
+      <c r="C5" s="209">
         <v>45448</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="202" t="s">
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="211" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="203" t="s">
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="197" t="s">
         <v>189</v>
       </c>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="203" t="s">
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="X5" s="203"/>
-      <c r="Y5" s="203"/>
-      <c r="Z5" s="203"/>
-      <c r="AA5" s="203"/>
-      <c r="AB5" s="203"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="203"/>
-      <c r="AE5" s="203"/>
-      <c r="AF5" s="203"/>
-      <c r="AG5" s="203"/>
-      <c r="AH5" s="203"/>
-      <c r="AI5" s="203"/>
-      <c r="AJ5" s="203"/>
-      <c r="AK5" s="203"/>
-      <c r="AL5" s="203"/>
-      <c r="AM5" s="203"/>
-      <c r="AN5" s="203"/>
-      <c r="AO5" s="203"/>
-      <c r="AP5" s="203"/>
-      <c r="AQ5" s="203"/>
-      <c r="AR5" s="203"/>
-      <c r="AS5" s="203"/>
-      <c r="AT5" s="203"/>
-      <c r="AU5" s="203"/>
-      <c r="AV5" s="203"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="197"/>
+      <c r="AT5" s="197"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="200">
+      <c r="A6" s="198">
         <v>4</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="201">
+      <c r="B6" s="198"/>
+      <c r="C6" s="209">
         <v>45448</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="202" t="s">
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="211" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="203" t="s">
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="203"/>
-      <c r="V6" s="203"/>
-      <c r="W6" s="203" t="s">
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="X6" s="203"/>
-      <c r="Y6" s="203"/>
-      <c r="Z6" s="203"/>
-      <c r="AA6" s="203"/>
-      <c r="AB6" s="203"/>
-      <c r="AC6" s="203"/>
-      <c r="AD6" s="203"/>
-      <c r="AE6" s="203"/>
-      <c r="AF6" s="203"/>
-      <c r="AG6" s="203"/>
-      <c r="AH6" s="203"/>
-      <c r="AI6" s="203"/>
-      <c r="AJ6" s="203"/>
-      <c r="AK6" s="203"/>
-      <c r="AL6" s="203"/>
-      <c r="AM6" s="203"/>
-      <c r="AN6" s="203"/>
-      <c r="AO6" s="203"/>
-      <c r="AP6" s="203"/>
-      <c r="AQ6" s="203"/>
-      <c r="AR6" s="203"/>
-      <c r="AS6" s="203"/>
-      <c r="AT6" s="203"/>
-      <c r="AU6" s="203"/>
-      <c r="AV6" s="203"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="197"/>
+      <c r="AI6" s="197"/>
+      <c r="AJ6" s="197"/>
+      <c r="AK6" s="197"/>
+      <c r="AL6" s="197"/>
+      <c r="AM6" s="197"/>
+      <c r="AN6" s="197"/>
+      <c r="AO6" s="197"/>
+      <c r="AP6" s="197"/>
+      <c r="AQ6" s="197"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="197"/>
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="197"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="200">
+      <c r="A7" s="198">
         <v>5</v>
       </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="201">
+      <c r="B7" s="198"/>
+      <c r="C7" s="209">
         <v>45453</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="202" t="s">
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="211" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="203" t="s">
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="197" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203" t="s">
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="197"/>
+      <c r="Q7" s="197"/>
+      <c r="R7" s="197"/>
+      <c r="S7" s="197"/>
+      <c r="T7" s="197"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197" t="s">
         <v>197</v>
       </c>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="203"/>
-      <c r="AF7" s="203"/>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="203"/>
-      <c r="AJ7" s="203"/>
-      <c r="AK7" s="203"/>
-      <c r="AL7" s="203"/>
-      <c r="AM7" s="203"/>
-      <c r="AN7" s="203"/>
-      <c r="AO7" s="203"/>
-      <c r="AP7" s="203"/>
-      <c r="AQ7" s="203"/>
-      <c r="AR7" s="203"/>
-      <c r="AS7" s="203"/>
-      <c r="AT7" s="203"/>
-      <c r="AU7" s="203"/>
-      <c r="AV7" s="203"/>
+      <c r="X7" s="197"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="197"/>
+      <c r="AA7" s="197"/>
+      <c r="AB7" s="197"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="197"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
+      <c r="AH7" s="197"/>
+      <c r="AI7" s="197"/>
+      <c r="AJ7" s="197"/>
+      <c r="AK7" s="197"/>
+      <c r="AL7" s="197"/>
+      <c r="AM7" s="197"/>
+      <c r="AN7" s="197"/>
+      <c r="AO7" s="197"/>
+      <c r="AP7" s="197"/>
+      <c r="AQ7" s="197"/>
+      <c r="AR7" s="197"/>
+      <c r="AS7" s="197"/>
+      <c r="AT7" s="197"/>
+      <c r="AU7" s="197"/>
+      <c r="AV7" s="197"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="200">
+      <c r="A8" s="198">
         <v>6</v>
       </c>
-      <c r="B8" s="200"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="203"/>
-      <c r="AF8" s="203"/>
-      <c r="AG8" s="203"/>
-      <c r="AH8" s="203"/>
-      <c r="AI8" s="203"/>
-      <c r="AJ8" s="203"/>
-      <c r="AK8" s="203"/>
-      <c r="AL8" s="203"/>
-      <c r="AM8" s="203"/>
-      <c r="AN8" s="203"/>
-      <c r="AO8" s="203"/>
-      <c r="AP8" s="203"/>
-      <c r="AQ8" s="203"/>
-      <c r="AR8" s="203"/>
-      <c r="AS8" s="203"/>
-      <c r="AT8" s="203"/>
-      <c r="AU8" s="203"/>
-      <c r="AV8" s="203"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="209">
+        <v>45453</v>
+      </c>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="211" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="197" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197" t="s">
+        <v>199</v>
+      </c>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="197"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="197"/>
+      <c r="AH8" s="197"/>
+      <c r="AI8" s="197"/>
+      <c r="AJ8" s="197"/>
+      <c r="AK8" s="197"/>
+      <c r="AL8" s="197"/>
+      <c r="AM8" s="197"/>
+      <c r="AN8" s="197"/>
+      <c r="AO8" s="197"/>
+      <c r="AP8" s="197"/>
+      <c r="AQ8" s="197"/>
+      <c r="AR8" s="197"/>
+      <c r="AS8" s="197"/>
+      <c r="AT8" s="197"/>
+      <c r="AU8" s="197"/>
+      <c r="AV8" s="197"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="200">
+      <c r="A9" s="198">
         <v>7</v>
       </c>
-      <c r="B9" s="200"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="203"/>
-      <c r="R9" s="203"/>
-      <c r="S9" s="203"/>
-      <c r="T9" s="203"/>
-      <c r="U9" s="203"/>
-      <c r="V9" s="203"/>
-      <c r="W9" s="203"/>
-      <c r="X9" s="203"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="203"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="203"/>
-      <c r="AE9" s="203"/>
-      <c r="AF9" s="203"/>
-      <c r="AG9" s="203"/>
-      <c r="AH9" s="203"/>
-      <c r="AI9" s="203"/>
-      <c r="AJ9" s="203"/>
-      <c r="AK9" s="203"/>
-      <c r="AL9" s="203"/>
-      <c r="AM9" s="203"/>
-      <c r="AN9" s="203"/>
-      <c r="AO9" s="203"/>
-      <c r="AP9" s="203"/>
-      <c r="AQ9" s="203"/>
-      <c r="AR9" s="203"/>
-      <c r="AS9" s="203"/>
-      <c r="AT9" s="203"/>
-      <c r="AU9" s="203"/>
-      <c r="AV9" s="203"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197"/>
+      <c r="Q9" s="197"/>
+      <c r="R9" s="197"/>
+      <c r="S9" s="197"/>
+      <c r="T9" s="197"/>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="197"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="197"/>
+      <c r="AH9" s="197"/>
+      <c r="AI9" s="197"/>
+      <c r="AJ9" s="197"/>
+      <c r="AK9" s="197"/>
+      <c r="AL9" s="197"/>
+      <c r="AM9" s="197"/>
+      <c r="AN9" s="197"/>
+      <c r="AO9" s="197"/>
+      <c r="AP9" s="197"/>
+      <c r="AQ9" s="197"/>
+      <c r="AR9" s="197"/>
+      <c r="AS9" s="197"/>
+      <c r="AT9" s="197"/>
+      <c r="AU9" s="197"/>
+      <c r="AV9" s="197"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="200">
+      <c r="A10" s="198">
         <v>8</v>
       </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203"/>
-      <c r="U10" s="203"/>
-      <c r="V10" s="203"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203"/>
-      <c r="Z10" s="203"/>
-      <c r="AA10" s="203"/>
-      <c r="AB10" s="203"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="203"/>
-      <c r="AE10" s="203"/>
-      <c r="AF10" s="203"/>
-      <c r="AG10" s="203"/>
-      <c r="AH10" s="203"/>
-      <c r="AI10" s="203"/>
-      <c r="AJ10" s="203"/>
-      <c r="AK10" s="203"/>
-      <c r="AL10" s="203"/>
-      <c r="AM10" s="203"/>
-      <c r="AN10" s="203"/>
-      <c r="AO10" s="203"/>
-      <c r="AP10" s="203"/>
-      <c r="AQ10" s="203"/>
-      <c r="AR10" s="203"/>
-      <c r="AS10" s="203"/>
-      <c r="AT10" s="203"/>
-      <c r="AU10" s="203"/>
-      <c r="AV10" s="203"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="197"/>
+      <c r="AI10" s="197"/>
+      <c r="AJ10" s="197"/>
+      <c r="AK10" s="197"/>
+      <c r="AL10" s="197"/>
+      <c r="AM10" s="197"/>
+      <c r="AN10" s="197"/>
+      <c r="AO10" s="197"/>
+      <c r="AP10" s="197"/>
+      <c r="AQ10" s="197"/>
+      <c r="AR10" s="197"/>
+      <c r="AS10" s="197"/>
+      <c r="AT10" s="197"/>
+      <c r="AU10" s="197"/>
+      <c r="AV10" s="197"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11" s="200">
+      <c r="A11" s="198">
         <v>9</v>
       </c>
-      <c r="B11" s="200"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="203"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="203"/>
-      <c r="T11" s="203"/>
-      <c r="U11" s="203"/>
-      <c r="V11" s="203"/>
-      <c r="W11" s="203"/>
-      <c r="X11" s="203"/>
-      <c r="Y11" s="203"/>
-      <c r="Z11" s="203"/>
-      <c r="AA11" s="203"/>
-      <c r="AB11" s="203"/>
-      <c r="AC11" s="203"/>
-      <c r="AD11" s="203"/>
-      <c r="AE11" s="203"/>
-      <c r="AF11" s="203"/>
-      <c r="AG11" s="203"/>
-      <c r="AH11" s="203"/>
-      <c r="AI11" s="203"/>
-      <c r="AJ11" s="203"/>
-      <c r="AK11" s="203"/>
-      <c r="AL11" s="203"/>
-      <c r="AM11" s="203"/>
-      <c r="AN11" s="203"/>
-      <c r="AO11" s="203"/>
-      <c r="AP11" s="203"/>
-      <c r="AQ11" s="203"/>
-      <c r="AR11" s="203"/>
-      <c r="AS11" s="203"/>
-      <c r="AT11" s="203"/>
-      <c r="AU11" s="203"/>
-      <c r="AV11" s="203"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="197"/>
+      <c r="AI11" s="197"/>
+      <c r="AJ11" s="197"/>
+      <c r="AK11" s="197"/>
+      <c r="AL11" s="197"/>
+      <c r="AM11" s="197"/>
+      <c r="AN11" s="197"/>
+      <c r="AO11" s="197"/>
+      <c r="AP11" s="197"/>
+      <c r="AQ11" s="197"/>
+      <c r="AR11" s="197"/>
+      <c r="AS11" s="197"/>
+      <c r="AT11" s="197"/>
+      <c r="AU11" s="197"/>
+      <c r="AV11" s="197"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="200">
+      <c r="A12" s="198">
         <v>10</v>
       </c>
-      <c r="B12" s="200"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="203"/>
-      <c r="P12" s="203"/>
-      <c r="Q12" s="203"/>
-      <c r="R12" s="203"/>
-      <c r="S12" s="203"/>
-      <c r="T12" s="203"/>
-      <c r="U12" s="203"/>
-      <c r="V12" s="203"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="203"/>
-      <c r="Y12" s="203"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="203"/>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="203"/>
-      <c r="AE12" s="203"/>
-      <c r="AF12" s="203"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="203"/>
-      <c r="AJ12" s="203"/>
-      <c r="AK12" s="203"/>
-      <c r="AL12" s="203"/>
-      <c r="AM12" s="203"/>
-      <c r="AN12" s="203"/>
-      <c r="AO12" s="203"/>
-      <c r="AP12" s="203"/>
-      <c r="AQ12" s="203"/>
-      <c r="AR12" s="203"/>
-      <c r="AS12" s="203"/>
-      <c r="AT12" s="203"/>
-      <c r="AU12" s="203"/>
-      <c r="AV12" s="203"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="197"/>
+      <c r="AI12" s="197"/>
+      <c r="AJ12" s="197"/>
+      <c r="AK12" s="197"/>
+      <c r="AL12" s="197"/>
+      <c r="AM12" s="197"/>
+      <c r="AN12" s="197"/>
+      <c r="AO12" s="197"/>
+      <c r="AP12" s="197"/>
+      <c r="AQ12" s="197"/>
+      <c r="AR12" s="197"/>
+      <c r="AS12" s="197"/>
+      <c r="AT12" s="197"/>
+      <c r="AU12" s="197"/>
+      <c r="AV12" s="197"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="200">
+      <c r="A13" s="198">
         <v>11</v>
       </c>
-      <c r="B13" s="200"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="203"/>
-      <c r="R13" s="203"/>
-      <c r="S13" s="203"/>
-      <c r="T13" s="203"/>
-      <c r="U13" s="203"/>
-      <c r="V13" s="203"/>
-      <c r="W13" s="203"/>
-      <c r="X13" s="203"/>
-      <c r="Y13" s="203"/>
-      <c r="Z13" s="203"/>
-      <c r="AA13" s="203"/>
-      <c r="AB13" s="203"/>
-      <c r="AC13" s="203"/>
-      <c r="AD13" s="203"/>
-      <c r="AE13" s="203"/>
-      <c r="AF13" s="203"/>
-      <c r="AG13" s="203"/>
-      <c r="AH13" s="203"/>
-      <c r="AI13" s="203"/>
-      <c r="AJ13" s="203"/>
-      <c r="AK13" s="203"/>
-      <c r="AL13" s="203"/>
-      <c r="AM13" s="203"/>
-      <c r="AN13" s="203"/>
-      <c r="AO13" s="203"/>
-      <c r="AP13" s="203"/>
-      <c r="AQ13" s="203"/>
-      <c r="AR13" s="203"/>
-      <c r="AS13" s="203"/>
-      <c r="AT13" s="203"/>
-      <c r="AU13" s="203"/>
-      <c r="AV13" s="203"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="197"/>
+      <c r="R13" s="197"/>
+      <c r="S13" s="197"/>
+      <c r="T13" s="197"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
+      <c r="W13" s="197"/>
+      <c r="X13" s="197"/>
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="197"/>
+      <c r="AB13" s="197"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="197"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="197"/>
+      <c r="AG13" s="197"/>
+      <c r="AH13" s="197"/>
+      <c r="AI13" s="197"/>
+      <c r="AJ13" s="197"/>
+      <c r="AK13" s="197"/>
+      <c r="AL13" s="197"/>
+      <c r="AM13" s="197"/>
+      <c r="AN13" s="197"/>
+      <c r="AO13" s="197"/>
+      <c r="AP13" s="197"/>
+      <c r="AQ13" s="197"/>
+      <c r="AR13" s="197"/>
+      <c r="AS13" s="197"/>
+      <c r="AT13" s="197"/>
+      <c r="AU13" s="197"/>
+      <c r="AV13" s="197"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="200">
+      <c r="A14" s="198">
         <v>12</v>
       </c>
-      <c r="B14" s="200"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="203"/>
-      <c r="S14" s="203"/>
-      <c r="T14" s="203"/>
-      <c r="U14" s="203"/>
-      <c r="V14" s="203"/>
-      <c r="W14" s="203"/>
-      <c r="X14" s="203"/>
-      <c r="Y14" s="203"/>
-      <c r="Z14" s="203"/>
-      <c r="AA14" s="203"/>
-      <c r="AB14" s="203"/>
-      <c r="AC14" s="203"/>
-      <c r="AD14" s="203"/>
-      <c r="AE14" s="203"/>
-      <c r="AF14" s="203"/>
-      <c r="AG14" s="203"/>
-      <c r="AH14" s="203"/>
-      <c r="AI14" s="203"/>
-      <c r="AJ14" s="203"/>
-      <c r="AK14" s="203"/>
-      <c r="AL14" s="203"/>
-      <c r="AM14" s="203"/>
-      <c r="AN14" s="203"/>
-      <c r="AO14" s="203"/>
-      <c r="AP14" s="203"/>
-      <c r="AQ14" s="203"/>
-      <c r="AR14" s="203"/>
-      <c r="AS14" s="203"/>
-      <c r="AT14" s="203"/>
-      <c r="AU14" s="203"/>
-      <c r="AV14" s="203"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="197"/>
+      <c r="R14" s="197"/>
+      <c r="S14" s="197"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="197"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="197"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="197"/>
+      <c r="AD14" s="197"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="197"/>
+      <c r="AG14" s="197"/>
+      <c r="AH14" s="197"/>
+      <c r="AI14" s="197"/>
+      <c r="AJ14" s="197"/>
+      <c r="AK14" s="197"/>
+      <c r="AL14" s="197"/>
+      <c r="AM14" s="197"/>
+      <c r="AN14" s="197"/>
+      <c r="AO14" s="197"/>
+      <c r="AP14" s="197"/>
+      <c r="AQ14" s="197"/>
+      <c r="AR14" s="197"/>
+      <c r="AS14" s="197"/>
+      <c r="AT14" s="197"/>
+      <c r="AU14" s="197"/>
+      <c r="AV14" s="197"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="200">
+      <c r="A15" s="198">
         <v>13</v>
       </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="203"/>
-      <c r="T15" s="203"/>
-      <c r="U15" s="203"/>
-      <c r="V15" s="203"/>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="203"/>
-      <c r="AE15" s="203"/>
-      <c r="AF15" s="203"/>
-      <c r="AG15" s="203"/>
-      <c r="AH15" s="203"/>
-      <c r="AI15" s="203"/>
-      <c r="AJ15" s="203"/>
-      <c r="AK15" s="203"/>
-      <c r="AL15" s="203"/>
-      <c r="AM15" s="203"/>
-      <c r="AN15" s="203"/>
-      <c r="AO15" s="203"/>
-      <c r="AP15" s="203"/>
-      <c r="AQ15" s="203"/>
-      <c r="AR15" s="203"/>
-      <c r="AS15" s="203"/>
-      <c r="AT15" s="203"/>
-      <c r="AU15" s="203"/>
-      <c r="AV15" s="203"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="197"/>
+      <c r="AJ15" s="197"/>
+      <c r="AK15" s="197"/>
+      <c r="AL15" s="197"/>
+      <c r="AM15" s="197"/>
+      <c r="AN15" s="197"/>
+      <c r="AO15" s="197"/>
+      <c r="AP15" s="197"/>
+      <c r="AQ15" s="197"/>
+      <c r="AR15" s="197"/>
+      <c r="AS15" s="197"/>
+      <c r="AT15" s="197"/>
+      <c r="AU15" s="197"/>
+      <c r="AV15" s="197"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="200">
+      <c r="A16" s="198">
         <v>14</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="203"/>
-      <c r="R16" s="203"/>
-      <c r="S16" s="203"/>
-      <c r="T16" s="203"/>
-      <c r="U16" s="203"/>
-      <c r="V16" s="203"/>
-      <c r="W16" s="203"/>
-      <c r="X16" s="203"/>
-      <c r="Y16" s="203"/>
-      <c r="Z16" s="203"/>
-      <c r="AA16" s="203"/>
-      <c r="AB16" s="203"/>
-      <c r="AC16" s="203"/>
-      <c r="AD16" s="203"/>
-      <c r="AE16" s="203"/>
-      <c r="AF16" s="203"/>
-      <c r="AG16" s="203"/>
-      <c r="AH16" s="203"/>
-      <c r="AI16" s="203"/>
-      <c r="AJ16" s="203"/>
-      <c r="AK16" s="203"/>
-      <c r="AL16" s="203"/>
-      <c r="AM16" s="203"/>
-      <c r="AN16" s="203"/>
-      <c r="AO16" s="203"/>
-      <c r="AP16" s="203"/>
-      <c r="AQ16" s="203"/>
-      <c r="AR16" s="203"/>
-      <c r="AS16" s="203"/>
-      <c r="AT16" s="203"/>
-      <c r="AU16" s="203"/>
-      <c r="AV16" s="203"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="197"/>
+      <c r="AJ16" s="197"/>
+      <c r="AK16" s="197"/>
+      <c r="AL16" s="197"/>
+      <c r="AM16" s="197"/>
+      <c r="AN16" s="197"/>
+      <c r="AO16" s="197"/>
+      <c r="AP16" s="197"/>
+      <c r="AQ16" s="197"/>
+      <c r="AR16" s="197"/>
+      <c r="AS16" s="197"/>
+      <c r="AT16" s="197"/>
+      <c r="AU16" s="197"/>
+      <c r="AV16" s="197"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="200">
+      <c r="A17" s="198">
         <v>15</v>
       </c>
-      <c r="B17" s="200"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="205"/>
       <c r="N17" s="205"/>
       <c r="O17" s="205"/>
@@ -7518,48 +7551,48 @@
       <c r="T17" s="205"/>
       <c r="U17" s="205"/>
       <c r="V17" s="205"/>
-      <c r="W17" s="203"/>
-      <c r="X17" s="203"/>
-      <c r="Y17" s="203"/>
-      <c r="Z17" s="203"/>
-      <c r="AA17" s="203"/>
-      <c r="AB17" s="203"/>
-      <c r="AC17" s="203"/>
-      <c r="AD17" s="203"/>
-      <c r="AE17" s="203"/>
-      <c r="AF17" s="203"/>
-      <c r="AG17" s="203"/>
-      <c r="AH17" s="203"/>
-      <c r="AI17" s="203"/>
-      <c r="AJ17" s="203"/>
-      <c r="AK17" s="203"/>
-      <c r="AL17" s="203"/>
-      <c r="AM17" s="203"/>
-      <c r="AN17" s="203"/>
-      <c r="AO17" s="203"/>
-      <c r="AP17" s="203"/>
-      <c r="AQ17" s="203"/>
-      <c r="AR17" s="203"/>
-      <c r="AS17" s="203"/>
-      <c r="AT17" s="203"/>
-      <c r="AU17" s="203"/>
-      <c r="AV17" s="203"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="197"/>
+      <c r="AI17" s="197"/>
+      <c r="AJ17" s="197"/>
+      <c r="AK17" s="197"/>
+      <c r="AL17" s="197"/>
+      <c r="AM17" s="197"/>
+      <c r="AN17" s="197"/>
+      <c r="AO17" s="197"/>
+      <c r="AP17" s="197"/>
+      <c r="AQ17" s="197"/>
+      <c r="AR17" s="197"/>
+      <c r="AS17" s="197"/>
+      <c r="AT17" s="197"/>
+      <c r="AU17" s="197"/>
+      <c r="AV17" s="197"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="200">
+      <c r="A18" s="198">
         <v>16</v>
       </c>
-      <c r="B18" s="200"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="210"/>
       <c r="M18" s="205"/>
       <c r="N18" s="205"/>
       <c r="O18" s="205"/>
@@ -7570,48 +7603,48 @@
       <c r="T18" s="205"/>
       <c r="U18" s="205"/>
       <c r="V18" s="205"/>
-      <c r="W18" s="203"/>
-      <c r="X18" s="203"/>
-      <c r="Y18" s="203"/>
-      <c r="Z18" s="203"/>
-      <c r="AA18" s="203"/>
-      <c r="AB18" s="203"/>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="203"/>
-      <c r="AE18" s="203"/>
-      <c r="AF18" s="203"/>
-      <c r="AG18" s="203"/>
-      <c r="AH18" s="203"/>
-      <c r="AI18" s="203"/>
-      <c r="AJ18" s="203"/>
-      <c r="AK18" s="203"/>
-      <c r="AL18" s="203"/>
-      <c r="AM18" s="203"/>
-      <c r="AN18" s="203"/>
-      <c r="AO18" s="203"/>
-      <c r="AP18" s="203"/>
-      <c r="AQ18" s="203"/>
-      <c r="AR18" s="203"/>
-      <c r="AS18" s="203"/>
-      <c r="AT18" s="203"/>
-      <c r="AU18" s="203"/>
-      <c r="AV18" s="203"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="197"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="197"/>
+      <c r="AI18" s="197"/>
+      <c r="AJ18" s="197"/>
+      <c r="AK18" s="197"/>
+      <c r="AL18" s="197"/>
+      <c r="AM18" s="197"/>
+      <c r="AN18" s="197"/>
+      <c r="AO18" s="197"/>
+      <c r="AP18" s="197"/>
+      <c r="AQ18" s="197"/>
+      <c r="AR18" s="197"/>
+      <c r="AS18" s="197"/>
+      <c r="AT18" s="197"/>
+      <c r="AU18" s="197"/>
+      <c r="AV18" s="197"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19" s="200">
+      <c r="A19" s="198">
         <v>17</v>
       </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="211"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="204"/>
       <c r="M19" s="205"/>
       <c r="N19" s="205"/>
       <c r="O19" s="205"/>
@@ -7622,191 +7655,272 @@
       <c r="T19" s="205"/>
       <c r="U19" s="205"/>
       <c r="V19" s="205"/>
-      <c r="W19" s="212"/>
-      <c r="X19" s="213"/>
-      <c r="Y19" s="213"/>
-      <c r="Z19" s="213"/>
-      <c r="AA19" s="213"/>
-      <c r="AB19" s="213"/>
-      <c r="AC19" s="213"/>
-      <c r="AD19" s="213"/>
-      <c r="AE19" s="213"/>
-      <c r="AF19" s="213"/>
-      <c r="AG19" s="213"/>
-      <c r="AH19" s="213"/>
-      <c r="AI19" s="213"/>
-      <c r="AJ19" s="213"/>
-      <c r="AK19" s="213"/>
-      <c r="AL19" s="213"/>
-      <c r="AM19" s="213"/>
-      <c r="AN19" s="213"/>
-      <c r="AO19" s="213"/>
-      <c r="AP19" s="213"/>
-      <c r="AQ19" s="213"/>
-      <c r="AR19" s="213"/>
-      <c r="AS19" s="213"/>
-      <c r="AT19" s="213"/>
-      <c r="AU19" s="213"/>
-      <c r="AV19" s="214"/>
+      <c r="W19" s="206"/>
+      <c r="X19" s="207"/>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="207"/>
+      <c r="AC19" s="207"/>
+      <c r="AD19" s="207"/>
+      <c r="AE19" s="207"/>
+      <c r="AF19" s="207"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="207"/>
+      <c r="AJ19" s="207"/>
+      <c r="AK19" s="207"/>
+      <c r="AL19" s="207"/>
+      <c r="AM19" s="207"/>
+      <c r="AN19" s="207"/>
+      <c r="AO19" s="207"/>
+      <c r="AP19" s="207"/>
+      <c r="AQ19" s="207"/>
+      <c r="AR19" s="207"/>
+      <c r="AS19" s="207"/>
+      <c r="AT19" s="207"/>
+      <c r="AU19" s="207"/>
+      <c r="AV19" s="208"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20" s="200">
+      <c r="A20" s="198">
         <v>18</v>
       </c>
-      <c r="B20" s="200"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
-      <c r="P20" s="213"/>
-      <c r="Q20" s="213"/>
-      <c r="R20" s="213"/>
-      <c r="S20" s="213"/>
-      <c r="T20" s="213"/>
-      <c r="U20" s="213"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="212"/>
-      <c r="X20" s="213"/>
-      <c r="Y20" s="213"/>
-      <c r="Z20" s="213"/>
-      <c r="AA20" s="213"/>
-      <c r="AB20" s="213"/>
-      <c r="AC20" s="213"/>
-      <c r="AD20" s="213"/>
-      <c r="AE20" s="213"/>
-      <c r="AF20" s="213"/>
-      <c r="AG20" s="213"/>
-      <c r="AH20" s="213"/>
-      <c r="AI20" s="213"/>
-      <c r="AJ20" s="213"/>
-      <c r="AK20" s="213"/>
-      <c r="AL20" s="213"/>
-      <c r="AM20" s="213"/>
-      <c r="AN20" s="213"/>
-      <c r="AO20" s="213"/>
-      <c r="AP20" s="213"/>
-      <c r="AQ20" s="213"/>
-      <c r="AR20" s="213"/>
-      <c r="AS20" s="213"/>
-      <c r="AT20" s="213"/>
-      <c r="AU20" s="213"/>
-      <c r="AV20" s="214"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="206"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="208"/>
+      <c r="W20" s="206"/>
+      <c r="X20" s="207"/>
+      <c r="Y20" s="207"/>
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="207"/>
+      <c r="AB20" s="207"/>
+      <c r="AC20" s="207"/>
+      <c r="AD20" s="207"/>
+      <c r="AE20" s="207"/>
+      <c r="AF20" s="207"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="207"/>
+      <c r="AI20" s="207"/>
+      <c r="AJ20" s="207"/>
+      <c r="AK20" s="207"/>
+      <c r="AL20" s="207"/>
+      <c r="AM20" s="207"/>
+      <c r="AN20" s="207"/>
+      <c r="AO20" s="207"/>
+      <c r="AP20" s="207"/>
+      <c r="AQ20" s="207"/>
+      <c r="AR20" s="207"/>
+      <c r="AS20" s="207"/>
+      <c r="AT20" s="207"/>
+      <c r="AU20" s="207"/>
+      <c r="AV20" s="208"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="200">
+      <c r="A21" s="198">
         <v>19</v>
       </c>
-      <c r="B21" s="200"/>
-      <c r="C21" s="206"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="210"/>
-      <c r="K21" s="210"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="212"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="213"/>
-      <c r="P21" s="213"/>
-      <c r="Q21" s="213"/>
-      <c r="R21" s="213"/>
-      <c r="S21" s="213"/>
-      <c r="T21" s="213"/>
-      <c r="U21" s="213"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="212"/>
-      <c r="X21" s="213"/>
-      <c r="Y21" s="213"/>
-      <c r="Z21" s="213"/>
-      <c r="AA21" s="213"/>
-      <c r="AB21" s="213"/>
-      <c r="AC21" s="213"/>
-      <c r="AD21" s="213"/>
-      <c r="AE21" s="213"/>
-      <c r="AF21" s="213"/>
-      <c r="AG21" s="213"/>
-      <c r="AH21" s="213"/>
-      <c r="AI21" s="213"/>
-      <c r="AJ21" s="213"/>
-      <c r="AK21" s="213"/>
-      <c r="AL21" s="213"/>
-      <c r="AM21" s="213"/>
-      <c r="AN21" s="213"/>
-      <c r="AO21" s="213"/>
-      <c r="AP21" s="213"/>
-      <c r="AQ21" s="213"/>
-      <c r="AR21" s="213"/>
-      <c r="AS21" s="213"/>
-      <c r="AT21" s="213"/>
-      <c r="AU21" s="213"/>
-      <c r="AV21" s="214"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+      <c r="S21" s="207"/>
+      <c r="T21" s="207"/>
+      <c r="U21" s="207"/>
+      <c r="V21" s="208"/>
+      <c r="W21" s="206"/>
+      <c r="X21" s="207"/>
+      <c r="Y21" s="207"/>
+      <c r="Z21" s="207"/>
+      <c r="AA21" s="207"/>
+      <c r="AB21" s="207"/>
+      <c r="AC21" s="207"/>
+      <c r="AD21" s="207"/>
+      <c r="AE21" s="207"/>
+      <c r="AF21" s="207"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="207"/>
+      <c r="AJ21" s="207"/>
+      <c r="AK21" s="207"/>
+      <c r="AL21" s="207"/>
+      <c r="AM21" s="207"/>
+      <c r="AN21" s="207"/>
+      <c r="AO21" s="207"/>
+      <c r="AP21" s="207"/>
+      <c r="AQ21" s="207"/>
+      <c r="AR21" s="207"/>
+      <c r="AS21" s="207"/>
+      <c r="AT21" s="207"/>
+      <c r="AU21" s="207"/>
+      <c r="AV21" s="208"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22" s="203">
+      <c r="A22" s="197">
         <v>20</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="212"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="213"/>
-      <c r="S22" s="213"/>
-      <c r="T22" s="213"/>
-      <c r="U22" s="213"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="212"/>
-      <c r="X22" s="213"/>
-      <c r="Y22" s="213"/>
-      <c r="Z22" s="213"/>
-      <c r="AA22" s="213"/>
-      <c r="AB22" s="213"/>
-      <c r="AC22" s="213"/>
-      <c r="AD22" s="213"/>
-      <c r="AE22" s="213"/>
-      <c r="AF22" s="213"/>
-      <c r="AG22" s="213"/>
-      <c r="AH22" s="213"/>
-      <c r="AI22" s="213"/>
-      <c r="AJ22" s="213"/>
-      <c r="AK22" s="213"/>
-      <c r="AL22" s="213"/>
-      <c r="AM22" s="213"/>
-      <c r="AN22" s="213"/>
-      <c r="AO22" s="213"/>
-      <c r="AP22" s="213"/>
-      <c r="AQ22" s="213"/>
-      <c r="AR22" s="213"/>
-      <c r="AS22" s="213"/>
-      <c r="AT22" s="213"/>
-      <c r="AU22" s="213"/>
-      <c r="AV22" s="214"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="207"/>
+      <c r="Q22" s="207"/>
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207"/>
+      <c r="U22" s="207"/>
+      <c r="V22" s="208"/>
+      <c r="W22" s="206"/>
+      <c r="X22" s="207"/>
+      <c r="Y22" s="207"/>
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="207"/>
+      <c r="AB22" s="207"/>
+      <c r="AC22" s="207"/>
+      <c r="AD22" s="207"/>
+      <c r="AE22" s="207"/>
+      <c r="AF22" s="207"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="207"/>
+      <c r="AI22" s="207"/>
+      <c r="AJ22" s="207"/>
+      <c r="AK22" s="207"/>
+      <c r="AL22" s="207"/>
+      <c r="AM22" s="207"/>
+      <c r="AN22" s="207"/>
+      <c r="AO22" s="207"/>
+      <c r="AP22" s="207"/>
+      <c r="AQ22" s="207"/>
+      <c r="AR22" s="207"/>
+      <c r="AS22" s="207"/>
+      <c r="AT22" s="207"/>
+      <c r="AU22" s="207"/>
+      <c r="AV22" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="W2:AV2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="W3:AV3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="W4:AV4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:V5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="W7:AV7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="W8:AV8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:V10"/>
+    <mergeCell ref="W10:AV10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="W11:AV11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="W12:AV12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:AV13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="W14:AV14"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:V17"/>
+    <mergeCell ref="W17:AV17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="W18:AV18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="W15:AV15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="W16:AV16"/>
     <mergeCell ref="W5:AV5"/>
     <mergeCell ref="W6:AV6"/>
     <mergeCell ref="A19:B19"/>
@@ -7831,87 +7945,6 @@
     <mergeCell ref="W21:AV21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:V17"/>
-    <mergeCell ref="W17:AV17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="W18:AV18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:V15"/>
-    <mergeCell ref="W15:AV15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:V16"/>
-    <mergeCell ref="W16:AV16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:AV13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:V14"/>
-    <mergeCell ref="W14:AV14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="W11:AV11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:V12"/>
-    <mergeCell ref="W12:AV12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="W10:AV10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="W7:AV7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="W8:AV8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:V5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="W2:AV2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="W3:AV3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:V4"/>
-    <mergeCell ref="W4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7922,26 +7955,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -8136,26 +8149,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC442933-C3C2-4B5D-A049-FC5092D86F83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8172,4 +8186,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/テーブル一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31D5EA-7553-4520-BC10-A5E967A4C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337FF3B5-BD84-48CA-9646-D643E1E4974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
+    <workbookView xWindow="-25125" yWindow="-330" windowWidth="20490" windowHeight="7425" firstSheet="2" activeTab="2" xr2:uid="{BFD85DD5-5963-410A-A42F-F6F692E4B5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="203">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -541,9 +541,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>stump_date</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -1159,6 +1156,28 @@
     <rPh sb="11" eb="13">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stamp_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタンプの綴り</t>
+    <rPh sb="5" eb="6">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stump→stamp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1944,6 +1963,234 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1953,234 +2200,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2217,8 +2236,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2237,28 +2275,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -2613,14 +2632,14 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2636,38 +2655,38 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="173" t="s">
+      <c r="T2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="176" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="173" t="s">
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="179">
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="122">
         <v>45447</v>
       </c>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="180"/>
-      <c r="AO2" s="180"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="181"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="124"/>
       <c r="AT2" s="95"/>
       <c r="AU2" s="95"/>
       <c r="AV2" t="s">
@@ -2675,14 +2694,14 @@
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
@@ -2698,34 +2717,34 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="173" t="s">
+      <c r="T3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="173" t="s">
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
-      <c r="AN3" s="183"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="183"/>
-      <c r="AQ3" s="184"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="126"/>
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="127"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
@@ -2775,1102 +2794,1140 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="159" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="159" t="s">
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="159" t="s">
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="159" t="s">
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="159" t="s">
+      <c r="W5" s="111"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="159" t="s">
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="161"/>
-      <c r="AO5" s="159" t="s">
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="161"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="112"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="109" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="148" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="109" t="s">
+      <c r="Q6" s="166"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="110"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="109">
+      <c r="T6" s="166"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="165">
         <v>100</v>
       </c>
-      <c r="W6" s="110"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="109" t="s">
+      <c r="W6" s="166"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="150"/>
+      <c r="AJ6" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="108"/>
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="182"/>
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="183"/>
+      <c r="AT6" s="183"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="183"/>
+      <c r="AW6" s="183"/>
+      <c r="AX6" s="184"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="112" t="s">
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="109" t="s">
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="109" t="s">
+      <c r="Q7" s="166"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="110"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="109">
+      <c r="T7" s="166"/>
+      <c r="U7" s="167"/>
+      <c r="V7" s="165">
         <v>10000</v>
       </c>
-      <c r="W7" s="110"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="114"/>
-      <c r="AJ7" s="109" t="s">
+      <c r="W7" s="166"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="110"/>
-      <c r="AL7" s="110"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="108"/>
+      <c r="AK7" s="166"/>
+      <c r="AL7" s="166"/>
+      <c r="AM7" s="166"/>
+      <c r="AN7" s="167"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="183"/>
+      <c r="AQ7" s="183"/>
+      <c r="AR7" s="183"/>
+      <c r="AS7" s="183"/>
+      <c r="AT7" s="183"/>
+      <c r="AU7" s="183"/>
+      <c r="AV7" s="183"/>
+      <c r="AW7" s="183"/>
+      <c r="AX7" s="184"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="112" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="109" t="s">
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="109" t="s">
+      <c r="Q8" s="166"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="110"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="109">
+      <c r="T8" s="166"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="165">
         <v>500</v>
       </c>
-      <c r="W8" s="110"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="109" t="s">
+      <c r="W8" s="166"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
+      <c r="AJ8" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="108"/>
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="167"/>
+      <c r="AO8" s="182"/>
+      <c r="AP8" s="183"/>
+      <c r="AQ8" s="183"/>
+      <c r="AR8" s="183"/>
+      <c r="AS8" s="183"/>
+      <c r="AT8" s="183"/>
+      <c r="AU8" s="183"/>
+      <c r="AV8" s="183"/>
+      <c r="AW8" s="183"/>
+      <c r="AX8" s="184"/>
     </row>
     <row r="9" spans="1:50" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="125" t="s">
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="128" t="s">
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="128" t="s">
+      <c r="Q9" s="132"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="129"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="128">
+      <c r="T9" s="132"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="131">
         <v>500</v>
       </c>
-      <c r="W9" s="129"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="128" t="s">
+      <c r="W9" s="132"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="147"/>
+      <c r="AJ9" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="129"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="108"/>
+      <c r="AK9" s="132"/>
+      <c r="AL9" s="132"/>
+      <c r="AM9" s="132"/>
+      <c r="AN9" s="133"/>
+      <c r="AO9" s="182"/>
+      <c r="AP9" s="183"/>
+      <c r="AQ9" s="183"/>
+      <c r="AR9" s="183"/>
+      <c r="AS9" s="183"/>
+      <c r="AT9" s="183"/>
+      <c r="AU9" s="183"/>
+      <c r="AV9" s="183"/>
+      <c r="AW9" s="183"/>
+      <c r="AX9" s="184"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128" t="s">
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="128" t="s">
+      <c r="Q10" s="132"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="129"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="109">
+      <c r="T10" s="132"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="165">
         <v>10000</v>
       </c>
-      <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="128" t="s">
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="150"/>
+      <c r="AJ10" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="152"/>
-      <c r="AQ10" s="152"/>
-      <c r="AR10" s="152"/>
-      <c r="AS10" s="152"/>
-      <c r="AT10" s="152"/>
-      <c r="AU10" s="152"/>
-      <c r="AV10" s="152"/>
-      <c r="AW10" s="152"/>
-      <c r="AX10" s="153"/>
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="133"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="129"/>
+      <c r="AQ10" s="129"/>
+      <c r="AR10" s="129"/>
+      <c r="AS10" s="129"/>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="129"/>
+      <c r="AV10" s="129"/>
+      <c r="AW10" s="129"/>
+      <c r="AX10" s="130"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11" s="98">
         <v>6</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="136" t="s">
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="139" t="s">
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="139" t="s">
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="140"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="164">
+      <c r="T11" s="157"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="159">
         <v>10000</v>
       </c>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="138"/>
-      <c r="AJ11" s="139" t="s">
+      <c r="W11" s="160"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="155"/>
+      <c r="AJ11" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="140"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="140"/>
-      <c r="AN11" s="141"/>
-      <c r="AO11" s="142"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
-      <c r="AX11" s="144"/>
+      <c r="AK11" s="157"/>
+      <c r="AL11" s="157"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="158"/>
+      <c r="AO11" s="168"/>
+      <c r="AP11" s="169"/>
+      <c r="AQ11" s="169"/>
+      <c r="AR11" s="169"/>
+      <c r="AS11" s="169"/>
+      <c r="AT11" s="169"/>
+      <c r="AU11" s="169"/>
+      <c r="AV11" s="169"/>
+      <c r="AW11" s="169"/>
+      <c r="AX11" s="170"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A12" s="99">
         <v>7</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="133" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="145" t="s">
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="145" t="s">
+      <c r="Q12" s="140"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="146"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="156">
+      <c r="T12" s="140"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="142">
         <v>500</v>
       </c>
-      <c r="W12" s="157"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="145" t="s">
+      <c r="W12" s="143"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="138"/>
+      <c r="AJ12" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="147"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="149"/>
-      <c r="AQ12" s="149"/>
-      <c r="AR12" s="149"/>
-      <c r="AS12" s="149"/>
-      <c r="AT12" s="149"/>
-      <c r="AU12" s="149"/>
-      <c r="AV12" s="149"/>
-      <c r="AW12" s="149"/>
-      <c r="AX12" s="150"/>
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="140"/>
+      <c r="AM12" s="140"/>
+      <c r="AN12" s="141"/>
+      <c r="AO12" s="171"/>
+      <c r="AP12" s="172"/>
+      <c r="AQ12" s="172"/>
+      <c r="AR12" s="172"/>
+      <c r="AS12" s="172"/>
+      <c r="AT12" s="172"/>
+      <c r="AU12" s="172"/>
+      <c r="AV12" s="172"/>
+      <c r="AW12" s="172"/>
+      <c r="AX12" s="173"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="118"/>
-      <c r="AW13" s="118"/>
-      <c r="AX13" s="118"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="109"/>
+      <c r="AM13" s="109"/>
+      <c r="AN13" s="109"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="118"/>
-      <c r="AU14" s="118"/>
-      <c r="AV14" s="118"/>
-      <c r="AW14" s="118"/>
-      <c r="AX14" s="118"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="109"/>
+      <c r="AM14" s="109"/>
+      <c r="AN14" s="109"/>
+      <c r="AO14" s="106"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="106"/>
+      <c r="AU14" s="106"/>
+      <c r="AV14" s="106"/>
+      <c r="AW14" s="106"/>
+      <c r="AX14" s="106"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="108"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="108"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="109"/>
+      <c r="AM15" s="109"/>
+      <c r="AN15" s="109"/>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="106"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="106"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="119"/>
-      <c r="AL16" s="119"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="119"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="109"/>
+      <c r="AM16" s="109"/>
+      <c r="AN16" s="109"/>
+      <c r="AO16" s="106"/>
+      <c r="AP16" s="106"/>
+      <c r="AQ16" s="106"/>
+      <c r="AR16" s="106"/>
+      <c r="AS16" s="106"/>
+      <c r="AT16" s="106"/>
+      <c r="AU16" s="106"/>
+      <c r="AV16" s="106"/>
+      <c r="AW16" s="106"/>
+      <c r="AX16" s="106"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="118"/>
-      <c r="AU17" s="118"/>
-      <c r="AV17" s="118"/>
-      <c r="AW17" s="118"/>
-      <c r="AX17" s="118"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="109"/>
+      <c r="AM17" s="109"/>
+      <c r="AN17" s="109"/>
+      <c r="AO17" s="106"/>
+      <c r="AP17" s="106"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="106"/>
+      <c r="AU17" s="106"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="106"/>
+      <c r="AX17" s="106"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="119"/>
-      <c r="AL18" s="119"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="119"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="118"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="118"/>
-      <c r="AW18" s="118"/>
-      <c r="AX18" s="118"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="109"/>
+      <c r="AK18" s="109"/>
+      <c r="AL18" s="109"/>
+      <c r="AM18" s="109"/>
+      <c r="AN18" s="109"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="119"/>
-      <c r="AL19" s="119"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="118"/>
-      <c r="AT19" s="118"/>
-      <c r="AU19" s="118"/>
-      <c r="AV19" s="118"/>
-      <c r="AW19" s="118"/>
-      <c r="AX19" s="118"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="108"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="109"/>
+      <c r="AK19" s="109"/>
+      <c r="AL19" s="109"/>
+      <c r="AM19" s="109"/>
+      <c r="AN19" s="109"/>
+      <c r="AO19" s="106"/>
+      <c r="AP19" s="106"/>
+      <c r="AQ19" s="106"/>
+      <c r="AR19" s="106"/>
+      <c r="AS19" s="106"/>
+      <c r="AT19" s="106"/>
+      <c r="AU19" s="106"/>
+      <c r="AV19" s="106"/>
+      <c r="AW19" s="106"/>
+      <c r="AX19" s="106"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A20" s="17"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="119"/>
-      <c r="AL20" s="119"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="118"/>
-      <c r="AU20" s="118"/>
-      <c r="AV20" s="118"/>
-      <c r="AW20" s="118"/>
-      <c r="AX20" s="118"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="109"/>
+      <c r="AM20" s="109"/>
+      <c r="AN20" s="109"/>
+      <c r="AO20" s="106"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="106"/>
+      <c r="AR20" s="106"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="106"/>
+      <c r="AU20" s="106"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="106"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="119"/>
-      <c r="AK21" s="119"/>
-      <c r="AL21" s="119"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="118"/>
-      <c r="AU21" s="118"/>
-      <c r="AV21" s="118"/>
-      <c r="AW21" s="118"/>
-      <c r="AX21" s="118"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="109"/>
+      <c r="AM21" s="109"/>
+      <c r="AN21" s="109"/>
+      <c r="AO21" s="106"/>
+      <c r="AP21" s="106"/>
+      <c r="AQ21" s="106"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="106"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="106"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A22" s="17"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="119"/>
-      <c r="AK22" s="119"/>
-      <c r="AL22" s="119"/>
-      <c r="AM22" s="119"/>
-      <c r="AN22" s="119"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
-      <c r="AS22" s="118"/>
-      <c r="AT22" s="118"/>
-      <c r="AU22" s="118"/>
-      <c r="AV22" s="118"/>
-      <c r="AW22" s="118"/>
-      <c r="AX22" s="118"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="109"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="109"/>
+      <c r="AM22" s="109"/>
+      <c r="AN22" s="109"/>
+      <c r="AO22" s="106"/>
+      <c r="AP22" s="106"/>
+      <c r="AQ22" s="106"/>
+      <c r="AR22" s="106"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="106"/>
+      <c r="AU22" s="106"/>
+      <c r="AV22" s="106"/>
+      <c r="AW22" s="106"/>
+      <c r="AX22" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="AO20:AX20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AI21"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AX21"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
-    <mergeCell ref="AO19:AX19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AX18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO5:AX5"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO9:AX9"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AO7:AX7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="Y7:AI7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Y6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AX6"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="AO8:AX8"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AO22:AX22"/>
+    <mergeCell ref="AJ15:AN15"/>
+    <mergeCell ref="AO15:AX15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="AO13:AX13"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AI13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AI22"/>
+    <mergeCell ref="AJ22:AN22"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="Y19:AI19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AI17"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="Y12:AI12"/>
+    <mergeCell ref="Y11:AI11"/>
+    <mergeCell ref="AO16:AX16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="AO17:AX17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AI16"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AX11"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AX12"/>
+    <mergeCell ref="Y15:AI15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AI14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AX14"/>
     <mergeCell ref="AO10:AX10"/>
     <mergeCell ref="AJ10:AN10"/>
     <mergeCell ref="B12:H12"/>
@@ -3895,90 +3952,52 @@
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AX11"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AX12"/>
-    <mergeCell ref="Y15:AI15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AI14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AX14"/>
-    <mergeCell ref="AO16:AX16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="AO17:AX17"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AI16"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="Y19:AI19"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AI17"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="Y12:AI12"/>
-    <mergeCell ref="Y11:AI11"/>
-    <mergeCell ref="AO22:AX22"/>
-    <mergeCell ref="AJ15:AN15"/>
-    <mergeCell ref="AO15:AX15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="AO13:AX13"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AI13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AI22"/>
-    <mergeCell ref="AJ22:AN22"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="AO8:AX8"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AO9:AX9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AO7:AX7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="Y7:AI7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Y6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AX6"/>
+    <mergeCell ref="AO5:AX5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="AO19:AX19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AX18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO20:AX20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AI21"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AX21"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -4059,7 +4078,7 @@
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -4134,13 +4153,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -4221,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>62</v>
@@ -4245,7 +4264,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>57</v>
@@ -4356,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>66</v>
@@ -4377,7 +4396,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>66</v>
@@ -4409,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02D2903-17A4-480E-9017-FBAD9E0BC6DB}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4570,7 +4589,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>51</v>
@@ -4590,10 +4609,10 @@
         <v>83</v>
       </c>
       <c r="C9" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>52</v>
@@ -4601,7 +4620,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -4610,19 +4629,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -4631,19 +4650,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -4652,19 +4671,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -4673,19 +4692,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>97</v>
-      </c>
       <c r="D13" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4769,7 +4788,7 @@
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -4789,7 +4808,7 @@
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -4839,10 +4858,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>101</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
@@ -4869,10 +4888,10 @@
         <v>83</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>52</v>
@@ -4887,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>66</v>
@@ -4911,10 +4930,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -4927,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>73</v>
@@ -4948,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>76</v>
@@ -4969,10 +4988,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>66</v>
@@ -4990,10 +5009,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>66</v>
@@ -5103,10 +5122,10 @@
       <c r="E2" s="191"/>
       <c r="F2" s="191"/>
       <c r="G2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -5119,13 +5138,13 @@
       </c>
       <c r="B3" s="189"/>
       <c r="C3" s="191" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="191"/>
       <c r="E3" s="191"/>
       <c r="F3" s="191"/>
       <c r="G3" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="28">
         <v>45447</v>
@@ -5141,7 +5160,7 @@
       </c>
       <c r="B4" s="185"/>
       <c r="C4" s="193" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="193"/>
       <c r="E4" s="193"/>
@@ -5191,16 +5210,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>53</v>
@@ -5221,7 +5240,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
@@ -5239,13 +5258,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>52</v>
@@ -5253,7 +5272,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -5306,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>66</v>
@@ -5328,7 +5347,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>66</v>
@@ -5374,17 +5393,17 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5446,16 +5465,16 @@
       </c>
       <c r="B2" s="186"/>
       <c r="C2" s="191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="192"/>
       <c r="E2" s="192"/>
       <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>126</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -5468,7 +5487,7 @@
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
@@ -5478,7 +5497,7 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">NOW()</f>
-        <v>45453.682158912037</v>
+        <v>45463.42817013889</v>
       </c>
       <c r="J3" s="97"/>
       <c r="K3" t="s">
@@ -5491,7 +5510,7 @@
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -5541,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5568,10 +5587,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>131</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>66</v>
@@ -5589,13 +5608,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>52</v>
@@ -5603,10 +5622,10 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
         <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -5615,13 +5634,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>52</v>
@@ -5629,7 +5648,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -5638,13 +5657,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>52</v>
@@ -5659,10 +5678,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>66</v>
@@ -5683,10 +5702,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>52</v>
@@ -5745,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>66</v>
@@ -5766,7 +5785,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>66</v>
@@ -5864,7 +5883,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -5899,7 +5918,7 @@
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -5949,10 +5968,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
@@ -5976,10 +5995,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>66</v>
@@ -5996,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -6017,10 +6036,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>66</v>
@@ -6031,7 +6050,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -6040,13 +6059,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="D11" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
@@ -6104,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6124,7 +6143,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6272,10 +6291,10 @@
       <c r="E2" s="192"/>
       <c r="F2" s="192"/>
       <c r="G2" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" t="s">
@@ -6288,13 +6307,13 @@
       </c>
       <c r="B3" s="190"/>
       <c r="C3" s="191" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="192"/>
       <c r="E3" s="192"/>
       <c r="F3" s="192"/>
       <c r="G3" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="28">
         <v>45447</v>
@@ -6310,7 +6329,7 @@
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="193" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -6360,19 +6379,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>154</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>156</v>
       </c>
       <c r="G7" s="33">
         <v>1</v>
@@ -6387,16 +6406,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>157</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>158</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
@@ -6407,10 +6426,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
@@ -6428,21 +6447,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>162</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -6451,13 +6470,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="D11" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="43"/>
@@ -6470,7 +6489,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>73</v>
@@ -6491,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>76</v>
@@ -6512,10 +6531,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>66</v>
@@ -6532,10 +6551,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>66</v>
@@ -6629,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778408FD-760C-4653-9194-01F5F203D923}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="W9" sqref="W9:AV9"/>
     </sheetView>
   </sheetViews>
@@ -6640,7 +6659,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6693,854 +6712,862 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="197" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="199"/>
+      <c r="C2" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="212" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="212" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="197" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="212" t="s">
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="212" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="198"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="198"/>
+      <c r="AR2" s="198"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="198"/>
+      <c r="AV2" s="199"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3" s="200">
+        <v>1</v>
+      </c>
+      <c r="B3" s="200"/>
+      <c r="C3" s="201">
+        <v>45446</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="202" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="203" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="214"/>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="214"/>
-      <c r="AK2" s="214"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="214"/>
-      <c r="AQ2" s="214"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="214"/>
-      <c r="AT2" s="214"/>
-      <c r="AU2" s="214"/>
-      <c r="AV2" s="213"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="198">
-        <v>1</v>
-      </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="209">
-        <v>45446</v>
-      </c>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="211" t="s">
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="203"/>
+      <c r="AK3" s="203"/>
+      <c r="AL3" s="203"/>
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203"/>
+      <c r="AS3" s="203"/>
+      <c r="AT3" s="203"/>
+      <c r="AU3" s="203"/>
+      <c r="AV3" s="203"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" s="200">
+        <v>2</v>
+      </c>
+      <c r="B4" s="200"/>
+      <c r="C4" s="201">
+        <v>45447</v>
+      </c>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="203" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203" t="s">
+        <v>185</v>
+      </c>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203"/>
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="203"/>
+      <c r="AF4" s="203"/>
+      <c r="AG4" s="203"/>
+      <c r="AH4" s="203"/>
+      <c r="AI4" s="203"/>
+      <c r="AJ4" s="203"/>
+      <c r="AK4" s="203"/>
+      <c r="AL4" s="203"/>
+      <c r="AM4" s="203"/>
+      <c r="AN4" s="203"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="203"/>
+      <c r="AQ4" s="203"/>
+      <c r="AR4" s="203"/>
+      <c r="AS4" s="203"/>
+      <c r="AT4" s="203"/>
+      <c r="AU4" s="203"/>
+      <c r="AV4" s="203"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" s="200">
+        <v>3</v>
+      </c>
+      <c r="B5" s="200"/>
+      <c r="C5" s="201">
+        <v>45448</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="203" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="197" t="s">
-        <v>172</v>
-      </c>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="197"/>
-      <c r="AM3" s="197"/>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197"/>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="197"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="198">
-        <v>2</v>
-      </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="209">
-        <v>45447</v>
-      </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="211" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="197" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="197"/>
-      <c r="AF4" s="197"/>
-      <c r="AG4" s="197"/>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="197"/>
-      <c r="AM4" s="197"/>
-      <c r="AN4" s="197"/>
-      <c r="AO4" s="197"/>
-      <c r="AP4" s="197"/>
-      <c r="AQ4" s="197"/>
-      <c r="AR4" s="197"/>
-      <c r="AS4" s="197"/>
-      <c r="AT4" s="197"/>
-      <c r="AU4" s="197"/>
-      <c r="AV4" s="197"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="198">
-        <v>3</v>
-      </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="209">
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="203"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="203"/>
+      <c r="AO5" s="203"/>
+      <c r="AP5" s="203"/>
+      <c r="AQ5" s="203"/>
+      <c r="AR5" s="203"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="203"/>
+      <c r="AU5" s="203"/>
+      <c r="AV5" s="203"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6" s="200">
+        <v>4</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="201">
         <v>45448</v>
       </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="211" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="197" t="s">
-        <v>189</v>
-      </c>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197" t="s">
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="202" t="s">
         <v>190</v>
       </c>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="197"/>
-      <c r="AF5" s="197"/>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="197"/>
-      <c r="AM5" s="197"/>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="197"/>
-      <c r="AT5" s="197"/>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="198">
-        <v>4</v>
-      </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="209">
-        <v>45448</v>
-      </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="211" t="s">
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="197" t="s">
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="197"/>
-      <c r="AI6" s="197"/>
-      <c r="AJ6" s="197"/>
-      <c r="AK6" s="197"/>
-      <c r="AL6" s="197"/>
-      <c r="AM6" s="197"/>
-      <c r="AN6" s="197"/>
-      <c r="AO6" s="197"/>
-      <c r="AP6" s="197"/>
-      <c r="AQ6" s="197"/>
-      <c r="AR6" s="197"/>
-      <c r="AS6" s="197"/>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="197"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="203"/>
+      <c r="AE6" s="203"/>
+      <c r="AF6" s="203"/>
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="198">
+      <c r="A7" s="200">
         <v>5</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="209">
+      <c r="B7" s="200"/>
+      <c r="C7" s="201">
         <v>45453</v>
       </c>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="211" t="s">
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="202" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="203" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="197" t="s">
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197" t="s">
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="203"/>
+      <c r="AK7" s="203"/>
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="203"/>
+      <c r="AQ7" s="203"/>
+      <c r="AR7" s="203"/>
+      <c r="AS7" s="203"/>
+      <c r="AT7" s="203"/>
+      <c r="AU7" s="203"/>
+      <c r="AV7" s="203"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" s="200">
+        <v>6</v>
+      </c>
+      <c r="B8" s="200"/>
+      <c r="C8" s="201">
+        <v>45453</v>
+      </c>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="202" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="197"/>
-      <c r="AA7" s="197"/>
-      <c r="AB7" s="197"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="197"/>
-      <c r="AE7" s="197"/>
-      <c r="AF7" s="197"/>
-      <c r="AG7" s="197"/>
-      <c r="AH7" s="197"/>
-      <c r="AI7" s="197"/>
-      <c r="AJ7" s="197"/>
-      <c r="AK7" s="197"/>
-      <c r="AL7" s="197"/>
-      <c r="AM7" s="197"/>
-      <c r="AN7" s="197"/>
-      <c r="AO7" s="197"/>
-      <c r="AP7" s="197"/>
-      <c r="AQ7" s="197"/>
-      <c r="AR7" s="197"/>
-      <c r="AS7" s="197"/>
-      <c r="AT7" s="197"/>
-      <c r="AU7" s="197"/>
-      <c r="AV7" s="197"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="198">
-        <v>6</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="209">
-        <v>45453</v>
-      </c>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="211" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="197" t="s">
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="197"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197" t="s">
-        <v>199</v>
-      </c>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="197"/>
-      <c r="Z8" s="197"/>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="197"/>
-      <c r="AF8" s="197"/>
-      <c r="AG8" s="197"/>
-      <c r="AH8" s="197"/>
-      <c r="AI8" s="197"/>
-      <c r="AJ8" s="197"/>
-      <c r="AK8" s="197"/>
-      <c r="AL8" s="197"/>
-      <c r="AM8" s="197"/>
-      <c r="AN8" s="197"/>
-      <c r="AO8" s="197"/>
-      <c r="AP8" s="197"/>
-      <c r="AQ8" s="197"/>
-      <c r="AR8" s="197"/>
-      <c r="AS8" s="197"/>
-      <c r="AT8" s="197"/>
-      <c r="AU8" s="197"/>
-      <c r="AV8" s="197"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="203"/>
+      <c r="AH8" s="203"/>
+      <c r="AI8" s="203"/>
+      <c r="AJ8" s="203"/>
+      <c r="AK8" s="203"/>
+      <c r="AL8" s="203"/>
+      <c r="AM8" s="203"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="203"/>
+      <c r="AP8" s="203"/>
+      <c r="AQ8" s="203"/>
+      <c r="AR8" s="203"/>
+      <c r="AS8" s="203"/>
+      <c r="AT8" s="203"/>
+      <c r="AU8" s="203"/>
+      <c r="AV8" s="203"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="198">
+      <c r="A9" s="200">
         <v>7</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AA9" s="197"/>
-      <c r="AB9" s="197"/>
-      <c r="AC9" s="197"/>
-      <c r="AD9" s="197"/>
-      <c r="AE9" s="197"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="197"/>
-      <c r="AH9" s="197"/>
-      <c r="AI9" s="197"/>
-      <c r="AJ9" s="197"/>
-      <c r="AK9" s="197"/>
-      <c r="AL9" s="197"/>
-      <c r="AM9" s="197"/>
-      <c r="AN9" s="197"/>
-      <c r="AO9" s="197"/>
-      <c r="AP9" s="197"/>
-      <c r="AQ9" s="197"/>
-      <c r="AR9" s="197"/>
-      <c r="AS9" s="197"/>
-      <c r="AT9" s="197"/>
-      <c r="AU9" s="197"/>
-      <c r="AV9" s="197"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="201">
+        <v>45463</v>
+      </c>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="203" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="203"/>
+      <c r="S9" s="203"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="203"/>
+      <c r="W9" s="203" t="s">
+        <v>202</v>
+      </c>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="203"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="203"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="203"/>
+      <c r="AJ9" s="203"/>
+      <c r="AK9" s="203"/>
+      <c r="AL9" s="203"/>
+      <c r="AM9" s="203"/>
+      <c r="AN9" s="203"/>
+      <c r="AO9" s="203"/>
+      <c r="AP9" s="203"/>
+      <c r="AQ9" s="203"/>
+      <c r="AR9" s="203"/>
+      <c r="AS9" s="203"/>
+      <c r="AT9" s="203"/>
+      <c r="AU9" s="203"/>
+      <c r="AV9" s="203"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="198">
+      <c r="A10" s="200">
         <v>8</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
-      <c r="AA10" s="197"/>
-      <c r="AB10" s="197"/>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="197"/>
-      <c r="AE10" s="197"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="197"/>
-      <c r="AJ10" s="197"/>
-      <c r="AK10" s="197"/>
-      <c r="AL10" s="197"/>
-      <c r="AM10" s="197"/>
-      <c r="AN10" s="197"/>
-      <c r="AO10" s="197"/>
-      <c r="AP10" s="197"/>
-      <c r="AQ10" s="197"/>
-      <c r="AR10" s="197"/>
-      <c r="AS10" s="197"/>
-      <c r="AT10" s="197"/>
-      <c r="AU10" s="197"/>
-      <c r="AV10" s="197"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="203"/>
+      <c r="V10" s="203"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="203"/>
+      <c r="Z10" s="203"/>
+      <c r="AA10" s="203"/>
+      <c r="AB10" s="203"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="203"/>
+      <c r="AE10" s="203"/>
+      <c r="AF10" s="203"/>
+      <c r="AG10" s="203"/>
+      <c r="AH10" s="203"/>
+      <c r="AI10" s="203"/>
+      <c r="AJ10" s="203"/>
+      <c r="AK10" s="203"/>
+      <c r="AL10" s="203"/>
+      <c r="AM10" s="203"/>
+      <c r="AN10" s="203"/>
+      <c r="AO10" s="203"/>
+      <c r="AP10" s="203"/>
+      <c r="AQ10" s="203"/>
+      <c r="AR10" s="203"/>
+      <c r="AS10" s="203"/>
+      <c r="AT10" s="203"/>
+      <c r="AU10" s="203"/>
+      <c r="AV10" s="203"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11" s="198">
+      <c r="A11" s="200">
         <v>9</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="197"/>
-      <c r="AE11" s="197"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="197"/>
-      <c r="AH11" s="197"/>
-      <c r="AI11" s="197"/>
-      <c r="AJ11" s="197"/>
-      <c r="AK11" s="197"/>
-      <c r="AL11" s="197"/>
-      <c r="AM11" s="197"/>
-      <c r="AN11" s="197"/>
-      <c r="AO11" s="197"/>
-      <c r="AP11" s="197"/>
-      <c r="AQ11" s="197"/>
-      <c r="AR11" s="197"/>
-      <c r="AS11" s="197"/>
-      <c r="AT11" s="197"/>
-      <c r="AU11" s="197"/>
-      <c r="AV11" s="197"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="203"/>
+      <c r="V11" s="203"/>
+      <c r="W11" s="203"/>
+      <c r="X11" s="203"/>
+      <c r="Y11" s="203"/>
+      <c r="Z11" s="203"/>
+      <c r="AA11" s="203"/>
+      <c r="AB11" s="203"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="203"/>
+      <c r="AE11" s="203"/>
+      <c r="AF11" s="203"/>
+      <c r="AG11" s="203"/>
+      <c r="AH11" s="203"/>
+      <c r="AI11" s="203"/>
+      <c r="AJ11" s="203"/>
+      <c r="AK11" s="203"/>
+      <c r="AL11" s="203"/>
+      <c r="AM11" s="203"/>
+      <c r="AN11" s="203"/>
+      <c r="AO11" s="203"/>
+      <c r="AP11" s="203"/>
+      <c r="AQ11" s="203"/>
+      <c r="AR11" s="203"/>
+      <c r="AS11" s="203"/>
+      <c r="AT11" s="203"/>
+      <c r="AU11" s="203"/>
+      <c r="AV11" s="203"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="198">
+      <c r="A12" s="200">
         <v>10</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="197"/>
-      <c r="AJ12" s="197"/>
-      <c r="AK12" s="197"/>
-      <c r="AL12" s="197"/>
-      <c r="AM12" s="197"/>
-      <c r="AN12" s="197"/>
-      <c r="AO12" s="197"/>
-      <c r="AP12" s="197"/>
-      <c r="AQ12" s="197"/>
-      <c r="AR12" s="197"/>
-      <c r="AS12" s="197"/>
-      <c r="AT12" s="197"/>
-      <c r="AU12" s="197"/>
-      <c r="AV12" s="197"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="203"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="203"/>
+      <c r="W12" s="203"/>
+      <c r="X12" s="203"/>
+      <c r="Y12" s="203"/>
+      <c r="Z12" s="203"/>
+      <c r="AA12" s="203"/>
+      <c r="AB12" s="203"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="203"/>
+      <c r="AE12" s="203"/>
+      <c r="AF12" s="203"/>
+      <c r="AG12" s="203"/>
+      <c r="AH12" s="203"/>
+      <c r="AI12" s="203"/>
+      <c r="AJ12" s="203"/>
+      <c r="AK12" s="203"/>
+      <c r="AL12" s="203"/>
+      <c r="AM12" s="203"/>
+      <c r="AN12" s="203"/>
+      <c r="AO12" s="203"/>
+      <c r="AP12" s="203"/>
+      <c r="AQ12" s="203"/>
+      <c r="AR12" s="203"/>
+      <c r="AS12" s="203"/>
+      <c r="AT12" s="203"/>
+      <c r="AU12" s="203"/>
+      <c r="AV12" s="203"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="198">
+      <c r="A13" s="200">
         <v>11</v>
       </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="197"/>
-      <c r="V13" s="197"/>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="197"/>
-      <c r="AI13" s="197"/>
-      <c r="AJ13" s="197"/>
-      <c r="AK13" s="197"/>
-      <c r="AL13" s="197"/>
-      <c r="AM13" s="197"/>
-      <c r="AN13" s="197"/>
-      <c r="AO13" s="197"/>
-      <c r="AP13" s="197"/>
-      <c r="AQ13" s="197"/>
-      <c r="AR13" s="197"/>
-      <c r="AS13" s="197"/>
-      <c r="AT13" s="197"/>
-      <c r="AU13" s="197"/>
-      <c r="AV13" s="197"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="203"/>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="203"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="203"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="203"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="203"/>
+      <c r="AK13" s="203"/>
+      <c r="AL13" s="203"/>
+      <c r="AM13" s="203"/>
+      <c r="AN13" s="203"/>
+      <c r="AO13" s="203"/>
+      <c r="AP13" s="203"/>
+      <c r="AQ13" s="203"/>
+      <c r="AR13" s="203"/>
+      <c r="AS13" s="203"/>
+      <c r="AT13" s="203"/>
+      <c r="AU13" s="203"/>
+      <c r="AV13" s="203"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="198">
+      <c r="A14" s="200">
         <v>12</v>
       </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="197"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="197"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="197"/>
-      <c r="AH14" s="197"/>
-      <c r="AI14" s="197"/>
-      <c r="AJ14" s="197"/>
-      <c r="AK14" s="197"/>
-      <c r="AL14" s="197"/>
-      <c r="AM14" s="197"/>
-      <c r="AN14" s="197"/>
-      <c r="AO14" s="197"/>
-      <c r="AP14" s="197"/>
-      <c r="AQ14" s="197"/>
-      <c r="AR14" s="197"/>
-      <c r="AS14" s="197"/>
-      <c r="AT14" s="197"/>
-      <c r="AU14" s="197"/>
-      <c r="AV14" s="197"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="203"/>
+      <c r="W14" s="203"/>
+      <c r="X14" s="203"/>
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="203"/>
+      <c r="AA14" s="203"/>
+      <c r="AB14" s="203"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="203"/>
+      <c r="AE14" s="203"/>
+      <c r="AF14" s="203"/>
+      <c r="AG14" s="203"/>
+      <c r="AH14" s="203"/>
+      <c r="AI14" s="203"/>
+      <c r="AJ14" s="203"/>
+      <c r="AK14" s="203"/>
+      <c r="AL14" s="203"/>
+      <c r="AM14" s="203"/>
+      <c r="AN14" s="203"/>
+      <c r="AO14" s="203"/>
+      <c r="AP14" s="203"/>
+      <c r="AQ14" s="203"/>
+      <c r="AR14" s="203"/>
+      <c r="AS14" s="203"/>
+      <c r="AT14" s="203"/>
+      <c r="AU14" s="203"/>
+      <c r="AV14" s="203"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="198">
+      <c r="A15" s="200">
         <v>13</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="197"/>
-      <c r="AJ15" s="197"/>
-      <c r="AK15" s="197"/>
-      <c r="AL15" s="197"/>
-      <c r="AM15" s="197"/>
-      <c r="AN15" s="197"/>
-      <c r="AO15" s="197"/>
-      <c r="AP15" s="197"/>
-      <c r="AQ15" s="197"/>
-      <c r="AR15" s="197"/>
-      <c r="AS15" s="197"/>
-      <c r="AT15" s="197"/>
-      <c r="AU15" s="197"/>
-      <c r="AV15" s="197"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="203"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="203"/>
+      <c r="AE15" s="203"/>
+      <c r="AF15" s="203"/>
+      <c r="AG15" s="203"/>
+      <c r="AH15" s="203"/>
+      <c r="AI15" s="203"/>
+      <c r="AJ15" s="203"/>
+      <c r="AK15" s="203"/>
+      <c r="AL15" s="203"/>
+      <c r="AM15" s="203"/>
+      <c r="AN15" s="203"/>
+      <c r="AO15" s="203"/>
+      <c r="AP15" s="203"/>
+      <c r="AQ15" s="203"/>
+      <c r="AR15" s="203"/>
+      <c r="AS15" s="203"/>
+      <c r="AT15" s="203"/>
+      <c r="AU15" s="203"/>
+      <c r="AV15" s="203"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="198">
+      <c r="A16" s="200">
         <v>14</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="197"/>
-      <c r="AJ16" s="197"/>
-      <c r="AK16" s="197"/>
-      <c r="AL16" s="197"/>
-      <c r="AM16" s="197"/>
-      <c r="AN16" s="197"/>
-      <c r="AO16" s="197"/>
-      <c r="AP16" s="197"/>
-      <c r="AQ16" s="197"/>
-      <c r="AR16" s="197"/>
-      <c r="AS16" s="197"/>
-      <c r="AT16" s="197"/>
-      <c r="AU16" s="197"/>
-      <c r="AV16" s="197"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
+      <c r="V16" s="203"/>
+      <c r="W16" s="203"/>
+      <c r="X16" s="203"/>
+      <c r="Y16" s="203"/>
+      <c r="Z16" s="203"/>
+      <c r="AA16" s="203"/>
+      <c r="AB16" s="203"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="203"/>
+      <c r="AE16" s="203"/>
+      <c r="AF16" s="203"/>
+      <c r="AG16" s="203"/>
+      <c r="AH16" s="203"/>
+      <c r="AI16" s="203"/>
+      <c r="AJ16" s="203"/>
+      <c r="AK16" s="203"/>
+      <c r="AL16" s="203"/>
+      <c r="AM16" s="203"/>
+      <c r="AN16" s="203"/>
+      <c r="AO16" s="203"/>
+      <c r="AP16" s="203"/>
+      <c r="AQ16" s="203"/>
+      <c r="AR16" s="203"/>
+      <c r="AS16" s="203"/>
+      <c r="AT16" s="203"/>
+      <c r="AU16" s="203"/>
+      <c r="AV16" s="203"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="198">
+      <c r="A17" s="200">
         <v>15</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
       <c r="M17" s="205"/>
       <c r="N17" s="205"/>
       <c r="O17" s="205"/>
@@ -7551,48 +7578,48 @@
       <c r="T17" s="205"/>
       <c r="U17" s="205"/>
       <c r="V17" s="205"/>
-      <c r="W17" s="197"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
-      <c r="AB17" s="197"/>
-      <c r="AC17" s="197"/>
-      <c r="AD17" s="197"/>
-      <c r="AE17" s="197"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="197"/>
-      <c r="AH17" s="197"/>
-      <c r="AI17" s="197"/>
-      <c r="AJ17" s="197"/>
-      <c r="AK17" s="197"/>
-      <c r="AL17" s="197"/>
-      <c r="AM17" s="197"/>
-      <c r="AN17" s="197"/>
-      <c r="AO17" s="197"/>
-      <c r="AP17" s="197"/>
-      <c r="AQ17" s="197"/>
-      <c r="AR17" s="197"/>
-      <c r="AS17" s="197"/>
-      <c r="AT17" s="197"/>
-      <c r="AU17" s="197"/>
-      <c r="AV17" s="197"/>
+      <c r="W17" s="203"/>
+      <c r="X17" s="203"/>
+      <c r="Y17" s="203"/>
+      <c r="Z17" s="203"/>
+      <c r="AA17" s="203"/>
+      <c r="AB17" s="203"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="203"/>
+      <c r="AE17" s="203"/>
+      <c r="AF17" s="203"/>
+      <c r="AG17" s="203"/>
+      <c r="AH17" s="203"/>
+      <c r="AI17" s="203"/>
+      <c r="AJ17" s="203"/>
+      <c r="AK17" s="203"/>
+      <c r="AL17" s="203"/>
+      <c r="AM17" s="203"/>
+      <c r="AN17" s="203"/>
+      <c r="AO17" s="203"/>
+      <c r="AP17" s="203"/>
+      <c r="AQ17" s="203"/>
+      <c r="AR17" s="203"/>
+      <c r="AS17" s="203"/>
+      <c r="AT17" s="203"/>
+      <c r="AU17" s="203"/>
+      <c r="AV17" s="203"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="198">
+      <c r="A18" s="200">
         <v>16</v>
       </c>
-      <c r="B18" s="198"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
       <c r="M18" s="205"/>
       <c r="N18" s="205"/>
       <c r="O18" s="205"/>
@@ -7603,48 +7630,48 @@
       <c r="T18" s="205"/>
       <c r="U18" s="205"/>
       <c r="V18" s="205"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-      <c r="AC18" s="197"/>
-      <c r="AD18" s="197"/>
-      <c r="AE18" s="197"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="197"/>
-      <c r="AH18" s="197"/>
-      <c r="AI18" s="197"/>
-      <c r="AJ18" s="197"/>
-      <c r="AK18" s="197"/>
-      <c r="AL18" s="197"/>
-      <c r="AM18" s="197"/>
-      <c r="AN18" s="197"/>
-      <c r="AO18" s="197"/>
-      <c r="AP18" s="197"/>
-      <c r="AQ18" s="197"/>
-      <c r="AR18" s="197"/>
-      <c r="AS18" s="197"/>
-      <c r="AT18" s="197"/>
-      <c r="AU18" s="197"/>
-      <c r="AV18" s="197"/>
+      <c r="W18" s="203"/>
+      <c r="X18" s="203"/>
+      <c r="Y18" s="203"/>
+      <c r="Z18" s="203"/>
+      <c r="AA18" s="203"/>
+      <c r="AB18" s="203"/>
+      <c r="AC18" s="203"/>
+      <c r="AD18" s="203"/>
+      <c r="AE18" s="203"/>
+      <c r="AF18" s="203"/>
+      <c r="AG18" s="203"/>
+      <c r="AH18" s="203"/>
+      <c r="AI18" s="203"/>
+      <c r="AJ18" s="203"/>
+      <c r="AK18" s="203"/>
+      <c r="AL18" s="203"/>
+      <c r="AM18" s="203"/>
+      <c r="AN18" s="203"/>
+      <c r="AO18" s="203"/>
+      <c r="AP18" s="203"/>
+      <c r="AQ18" s="203"/>
+      <c r="AR18" s="203"/>
+      <c r="AS18" s="203"/>
+      <c r="AT18" s="203"/>
+      <c r="AU18" s="203"/>
+      <c r="AV18" s="203"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19" s="198">
+      <c r="A19" s="200">
         <v>17</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="204"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="205"/>
       <c r="N19" s="205"/>
       <c r="O19" s="205"/>
@@ -7655,272 +7682,191 @@
       <c r="T19" s="205"/>
       <c r="U19" s="205"/>
       <c r="V19" s="205"/>
-      <c r="W19" s="206"/>
-      <c r="X19" s="207"/>
-      <c r="Y19" s="207"/>
-      <c r="Z19" s="207"/>
-      <c r="AA19" s="207"/>
-      <c r="AB19" s="207"/>
-      <c r="AC19" s="207"/>
-      <c r="AD19" s="207"/>
-      <c r="AE19" s="207"/>
-      <c r="AF19" s="207"/>
-      <c r="AG19" s="207"/>
-      <c r="AH19" s="207"/>
-      <c r="AI19" s="207"/>
-      <c r="AJ19" s="207"/>
-      <c r="AK19" s="207"/>
-      <c r="AL19" s="207"/>
-      <c r="AM19" s="207"/>
-      <c r="AN19" s="207"/>
-      <c r="AO19" s="207"/>
-      <c r="AP19" s="207"/>
-      <c r="AQ19" s="207"/>
-      <c r="AR19" s="207"/>
-      <c r="AS19" s="207"/>
-      <c r="AT19" s="207"/>
-      <c r="AU19" s="207"/>
-      <c r="AV19" s="208"/>
+      <c r="W19" s="212"/>
+      <c r="X19" s="213"/>
+      <c r="Y19" s="213"/>
+      <c r="Z19" s="213"/>
+      <c r="AA19" s="213"/>
+      <c r="AB19" s="213"/>
+      <c r="AC19" s="213"/>
+      <c r="AD19" s="213"/>
+      <c r="AE19" s="213"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="213"/>
+      <c r="AH19" s="213"/>
+      <c r="AI19" s="213"/>
+      <c r="AJ19" s="213"/>
+      <c r="AK19" s="213"/>
+      <c r="AL19" s="213"/>
+      <c r="AM19" s="213"/>
+      <c r="AN19" s="213"/>
+      <c r="AO19" s="213"/>
+      <c r="AP19" s="213"/>
+      <c r="AQ19" s="213"/>
+      <c r="AR19" s="213"/>
+      <c r="AS19" s="213"/>
+      <c r="AT19" s="213"/>
+      <c r="AU19" s="213"/>
+      <c r="AV19" s="214"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20" s="198">
+      <c r="A20" s="200">
         <v>18</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207"/>
-      <c r="U20" s="207"/>
-      <c r="V20" s="208"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="207"/>
-      <c r="Y20" s="207"/>
-      <c r="Z20" s="207"/>
-      <c r="AA20" s="207"/>
-      <c r="AB20" s="207"/>
-      <c r="AC20" s="207"/>
-      <c r="AD20" s="207"/>
-      <c r="AE20" s="207"/>
-      <c r="AF20" s="207"/>
-      <c r="AG20" s="207"/>
-      <c r="AH20" s="207"/>
-      <c r="AI20" s="207"/>
-      <c r="AJ20" s="207"/>
-      <c r="AK20" s="207"/>
-      <c r="AL20" s="207"/>
-      <c r="AM20" s="207"/>
-      <c r="AN20" s="207"/>
-      <c r="AO20" s="207"/>
-      <c r="AP20" s="207"/>
-      <c r="AQ20" s="207"/>
-      <c r="AR20" s="207"/>
-      <c r="AS20" s="207"/>
-      <c r="AT20" s="207"/>
-      <c r="AU20" s="207"/>
-      <c r="AV20" s="208"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="214"/>
+      <c r="W20" s="212"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="213"/>
+      <c r="AA20" s="213"/>
+      <c r="AB20" s="213"/>
+      <c r="AC20" s="213"/>
+      <c r="AD20" s="213"/>
+      <c r="AE20" s="213"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="213"/>
+      <c r="AH20" s="213"/>
+      <c r="AI20" s="213"/>
+      <c r="AJ20" s="213"/>
+      <c r="AK20" s="213"/>
+      <c r="AL20" s="213"/>
+      <c r="AM20" s="213"/>
+      <c r="AN20" s="213"/>
+      <c r="AO20" s="213"/>
+      <c r="AP20" s="213"/>
+      <c r="AQ20" s="213"/>
+      <c r="AR20" s="213"/>
+      <c r="AS20" s="213"/>
+      <c r="AT20" s="213"/>
+      <c r="AU20" s="213"/>
+      <c r="AV20" s="214"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="198">
+      <c r="A21" s="200">
         <v>19</v>
       </c>
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="206"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="207"/>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
-      <c r="S21" s="207"/>
-      <c r="T21" s="207"/>
-      <c r="U21" s="207"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="206"/>
-      <c r="X21" s="207"/>
-      <c r="Y21" s="207"/>
-      <c r="Z21" s="207"/>
-      <c r="AA21" s="207"/>
-      <c r="AB21" s="207"/>
-      <c r="AC21" s="207"/>
-      <c r="AD21" s="207"/>
-      <c r="AE21" s="207"/>
-      <c r="AF21" s="207"/>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="207"/>
-      <c r="AI21" s="207"/>
-      <c r="AJ21" s="207"/>
-      <c r="AK21" s="207"/>
-      <c r="AL21" s="207"/>
-      <c r="AM21" s="207"/>
-      <c r="AN21" s="207"/>
-      <c r="AO21" s="207"/>
-      <c r="AP21" s="207"/>
-      <c r="AQ21" s="207"/>
-      <c r="AR21" s="207"/>
-      <c r="AS21" s="207"/>
-      <c r="AT21" s="207"/>
-      <c r="AU21" s="207"/>
-      <c r="AV21" s="208"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="212"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="213"/>
+      <c r="S21" s="213"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="214"/>
+      <c r="W21" s="212"/>
+      <c r="X21" s="213"/>
+      <c r="Y21" s="213"/>
+      <c r="Z21" s="213"/>
+      <c r="AA21" s="213"/>
+      <c r="AB21" s="213"/>
+      <c r="AC21" s="213"/>
+      <c r="AD21" s="213"/>
+      <c r="AE21" s="213"/>
+      <c r="AF21" s="213"/>
+      <c r="AG21" s="213"/>
+      <c r="AH21" s="213"/>
+      <c r="AI21" s="213"/>
+      <c r="AJ21" s="213"/>
+      <c r="AK21" s="213"/>
+      <c r="AL21" s="213"/>
+      <c r="AM21" s="213"/>
+      <c r="AN21" s="213"/>
+      <c r="AO21" s="213"/>
+      <c r="AP21" s="213"/>
+      <c r="AQ21" s="213"/>
+      <c r="AR21" s="213"/>
+      <c r="AS21" s="213"/>
+      <c r="AT21" s="213"/>
+      <c r="AU21" s="213"/>
+      <c r="AV21" s="214"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22" s="197">
+      <c r="A22" s="203">
         <v>20</v>
       </c>
-      <c r="B22" s="197"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="207"/>
-      <c r="S22" s="207"/>
-      <c r="T22" s="207"/>
-      <c r="U22" s="207"/>
-      <c r="V22" s="208"/>
-      <c r="W22" s="206"/>
-      <c r="X22" s="207"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="207"/>
-      <c r="AC22" s="207"/>
-      <c r="AD22" s="207"/>
-      <c r="AE22" s="207"/>
-      <c r="AF22" s="207"/>
-      <c r="AG22" s="207"/>
-      <c r="AH22" s="207"/>
-      <c r="AI22" s="207"/>
-      <c r="AJ22" s="207"/>
-      <c r="AK22" s="207"/>
-      <c r="AL22" s="207"/>
-      <c r="AM22" s="207"/>
-      <c r="AN22" s="207"/>
-      <c r="AO22" s="207"/>
-      <c r="AP22" s="207"/>
-      <c r="AQ22" s="207"/>
-      <c r="AR22" s="207"/>
-      <c r="AS22" s="207"/>
-      <c r="AT22" s="207"/>
-      <c r="AU22" s="207"/>
-      <c r="AV22" s="208"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="212"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="212"/>
+      <c r="X22" s="213"/>
+      <c r="Y22" s="213"/>
+      <c r="Z22" s="213"/>
+      <c r="AA22" s="213"/>
+      <c r="AB22" s="213"/>
+      <c r="AC22" s="213"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="213"/>
+      <c r="AH22" s="213"/>
+      <c r="AI22" s="213"/>
+      <c r="AJ22" s="213"/>
+      <c r="AK22" s="213"/>
+      <c r="AL22" s="213"/>
+      <c r="AM22" s="213"/>
+      <c r="AN22" s="213"/>
+      <c r="AO22" s="213"/>
+      <c r="AP22" s="213"/>
+      <c r="AQ22" s="213"/>
+      <c r="AR22" s="213"/>
+      <c r="AS22" s="213"/>
+      <c r="AT22" s="213"/>
+      <c r="AU22" s="213"/>
+      <c r="AV22" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="W2:AV2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="W3:AV3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:V4"/>
-    <mergeCell ref="W4:AV4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:V5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="W7:AV7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="W8:AV8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="W10:AV10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="W11:AV11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:V12"/>
-    <mergeCell ref="W12:AV12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:AV13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:V14"/>
-    <mergeCell ref="W14:AV14"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:V17"/>
-    <mergeCell ref="W17:AV17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="W18:AV18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:V15"/>
-    <mergeCell ref="W15:AV15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:V16"/>
-    <mergeCell ref="W16:AV16"/>
     <mergeCell ref="W5:AV5"/>
     <mergeCell ref="W6:AV6"/>
     <mergeCell ref="A19:B19"/>
@@ -7945,6 +7891,87 @@
     <mergeCell ref="W21:AV21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:V17"/>
+    <mergeCell ref="W17:AV17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="W18:AV18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="W15:AV15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="W16:AV16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:AV13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="W14:AV14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="W11:AV11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="W12:AV12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:V10"/>
+    <mergeCell ref="W10:AV10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="W7:AV7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="W8:AV8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:V5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="W2:AV2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="W3:AV3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="W4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8150,15 +8177,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
@@ -8167,6 +8185,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8189,14 +8216,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610715B3-CC29-4371-A1C5-6FF6186DC0DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8205,4 +8224,12 @@
     <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3316B714-192C-450C-AD43-F235CDB6945F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>